--- a/PIID/MPM.xlsx
+++ b/PIID/MPM.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
   <si>
     <t>MPM</t>
   </si>
@@ -95,25 +95,7 @@
     <t xml:space="preserve">Collect measures and record performance. </t>
   </si>
   <si>
-    <t>GNS011_PRJPLN_12.5</t>
-  </si>
-  <si>
-    <t>GNS011_MESRPT</t>
-  </si>
-  <si>
-    <t>ORG_MBR1019</t>
-  </si>
-  <si>
     <t>Identify and address performance issues.</t>
-  </si>
-  <si>
-    <t>Measurement report where performace review and causal analysis and correction actions did.</t>
-  </si>
-  <si>
-    <t>GNS011_MLSRVW</t>
-  </si>
-  <si>
-    <t>Milestone review checklist to discuss about measured perfromace and their issues.</t>
   </si>
   <si>
     <t>Level 2</t>
@@ -121,12 +103,6 @@
   <si>
     <t xml:space="preserve">Derive and record measurement and performance objectives from selected business needs and objectives and keep them updated. 
 </t>
-  </si>
-  <si>
-    <t>Identify the one project specific measurement "BOM Cost" as project specific business need is competitive price solution for export market.</t>
-  </si>
-  <si>
-    <t>The organisation defined measurements have been inherited in the project with the operational definitions as defined in the QMS</t>
   </si>
   <si>
     <t>ORG_BOTOPO</t>
@@ -139,80 +115,25 @@
 </t>
   </si>
   <si>
-    <t>Section showing tools required which has reference of organisation definition and procedures of measurement.</t>
-  </si>
-  <si>
-    <t>BOM cost related custom measurement has been defined as "This goal is selected based on competitor’s same product whose selling price is 6 lakh. We considered BOM cost of such type of products 30KVa and above is 40% of selling price. As per this calculation, reference BOM Cost can be taken as 2.4 Lakh. Formulae for BOM cost variance are as below.
-(Product’s BOM cost-2.4L)*100/2.4L"</t>
-  </si>
-  <si>
     <t>ORG_PRCD_MEASUR</t>
   </si>
   <si>
     <t>Measurement procedure where operation definitions mentioned of each measures related to business needs.</t>
   </si>
   <si>
-    <t>ORG_MESURE</t>
-  </si>
-  <si>
-    <t>Measurement tool where the data comes according to definition of that particular mesure.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Obtain specified measurement data according to the operational definitions. </t>
-  </si>
-  <si>
-    <t>GNS011_MESURE</t>
-  </si>
-  <si>
-    <t>Tool used to obtain mesurement data and verify the completeness.</t>
   </si>
   <si>
     <t xml:space="preserve">Analyze performance and measurement data according to the operational definitions. </t>
   </si>
   <si>
-    <t>MBR for quarter jul-oct : Causal analysis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Store measurement data, measurement specifications, and analysis results according to the operational definitions. </t>
-  </si>
-  <si>
-    <t>Measurement report where graphs and analysis stored.</t>
-  </si>
-  <si>
-    <t>Measurement data stored here also.</t>
   </si>
   <si>
     <t>ORG_Measurement Repository</t>
   </si>
   <si>
-    <t>Measurement Repository use to store MBRs</t>
-  </si>
-  <si>
-    <t>ORG_Logs</t>
-  </si>
-  <si>
-    <t>Measurement data like timesheets, review and testing defects and audit NCs stored in logs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Take actions to address identified issues with meeting measurement and performance objectives. </t>
-  </si>
-  <si>
-    <t>Phase wise corrective actions accordingly to causal analysis of performace issue.</t>
-  </si>
-  <si>
-    <t>GNS011_MPP</t>
-  </si>
-  <si>
-    <t>One corrective action was that to compensate schedule variance some activities do parallel of integration phase like system test case preparation, this showing in MPP (date wise)</t>
-  </si>
-  <si>
-    <t>Corrective actions</t>
-  </si>
-  <si>
-    <t>ORG_PEGPLN</t>
-  </si>
-  <si>
-    <t>Action plan</t>
   </si>
   <si>
     <t>Level  3</t>
@@ -227,52 +148,13 @@
     <t xml:space="preserve">Develop, keep updated, and follow a data quality process. </t>
   </si>
   <si>
-    <t>Measurement data collected by tool, and data validated through checks built in on the dashboard of the tool..</t>
-  </si>
-  <si>
-    <t>GNS011_AUDITT</t>
-  </si>
-  <si>
-    <t>Audit checklist as measurement data and metrics report audit did.</t>
-  </si>
-  <si>
-    <t>Measurement tool where the data quality check at introduction sheet.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Develop, keep updated, and use the organization’s measurement repository. </t>
-  </si>
-  <si>
-    <t>GNS011_ESTHDW_LFC Distribution</t>
-  </si>
-  <si>
-    <t>The LFC distribution which has been defined by organisation is used in the project.</t>
   </si>
   <si>
     <t xml:space="preserve">Analyze organizational performance using measurement and performance data to determine performance improvement needs. </t>
   </si>
   <si>
-    <t>Phase wise corrective actions accordingly to causal analysis and corrective action of performace issue.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Periodically communicate performance results to the organization. </t>
-  </si>
-  <si>
-    <t>GNS011_Metrics Report Mail to SM</t>
-  </si>
-  <si>
-    <t>Metrics report presented to Senior management</t>
-  </si>
-  <si>
-    <t>GNS011_Metric Report Mail to PEG</t>
-  </si>
-  <si>
-    <t>Metrics report submitted to PEG after each phase.</t>
-  </si>
-  <si>
-    <t>ORG_PEGMOM</t>
-  </si>
-  <si>
-    <t>MBR Review by senior management. (C-137)</t>
   </si>
   <si>
     <t>** Minimum 2 and maximum 3 evidences require for each practice</t>
@@ -320,13 +202,101 @@
     <t>GNE114 Project plan description section where the organisation defined measurements have been inherited in the project with the operational definitions as defined in the QMS</t>
   </si>
   <si>
-    <t>GNE114 Project plan description section where the project specific measurement goal defined.</t>
-  </si>
-  <si>
     <t>Metrics Base line report where tools mentioned, input for each measures mentioned.</t>
   </si>
   <si>
     <t>Einframe as tool is one of source to collect the data.</t>
+  </si>
+  <si>
+    <t>ORG_Production_Rejection_Google_sheet</t>
+  </si>
+  <si>
+    <t>Google sheet maintained by production &amp; quality for production quantity and line rejection quantity, used as tool to collect the data.</t>
+  </si>
+  <si>
+    <t>ORG_Einframe_Business_Dashboard</t>
+  </si>
+  <si>
+    <t>Business dashboard shows monthly entered data from above both sources. And used as measurement tool for both business KPI.</t>
+  </si>
+  <si>
+    <t>ORG_PQA_Reports</t>
+  </si>
+  <si>
+    <t>Audit reports from PQA with analysis of measured audit data.</t>
+  </si>
+  <si>
+    <t>ORG_Einframe_Incident_Report</t>
+  </si>
+  <si>
+    <t>Einframe incident management report used as tool to get incident reports stage wise, project wise, type wise, date wise etc., used for PQA reporting, Projects reporting.</t>
+  </si>
+  <si>
+    <t>ORG_Einframe_EVMS_Chart</t>
+  </si>
+  <si>
+    <t>Einframe EVMS chart used to get earned value, actual cost with respect to planned values.</t>
+  </si>
+  <si>
+    <t>Metrics Base line report where performace review and causal analysis and correction actions did for business KPIs, projects, support functions.</t>
+  </si>
+  <si>
+    <t>Business dashboard used to stored monthly entered data from above both sources. And used as measurement tool for both business KPI.</t>
+  </si>
+  <si>
+    <t>Measurement Repository use to store MBRs containing all data.</t>
+  </si>
+  <si>
+    <t>Einframe project report contained schedule variance data.</t>
+  </si>
+  <si>
+    <t>Google sheet maintained by production &amp; quality for production quantity and line rejection quantity, contained the production and rejection quantity data.</t>
+  </si>
+  <si>
+    <t>performance data, their causal analysis and corrective / preventive actions mentioned in MBR.</t>
+  </si>
+  <si>
+    <t>ORG_PEG_MOM</t>
+  </si>
+  <si>
+    <t>Via MBR analysis &amp; actions discussed with senior management. For discussion refer C32 and for actions see action items sheet</t>
+  </si>
+  <si>
+    <t>GNE114 Project plan description section where the project specific measurement goal defined i.e. BOM cost.</t>
+  </si>
+  <si>
+    <t>Business dashboard where business objectives mentioned as business KPI. Performance of this updated monthly.</t>
+  </si>
+  <si>
+    <t>Business dashboard where business monthly collected data shows.</t>
+  </si>
+  <si>
+    <t>Einframe Project report used as source to collect and verify the schedule varaince data.</t>
+  </si>
+  <si>
+    <t>In Einframe Project task report use to verify the project schedule variances task wise.</t>
+  </si>
+  <si>
+    <t>Einframe incident management report used verify the incident data stage wise, project wise, type wise, date wise etc., used for PQA reporting, Projects reporting.</t>
+  </si>
+  <si>
+    <t>Einframe EVMS chart used to verify the schedule &amp; cost variance in terms of earned value, actual cost with respect to planned values.</t>
+  </si>
+  <si>
+    <t>Google sheet maintained by production &amp; quality for production quantites and line rejection quantites, used as tool to collect the data and the QA head verify the data.
+Production quantity can also be verified by SAP "MB51" transcation</t>
+  </si>
+  <si>
+    <t>ORG_MBR_Mail_to_SM</t>
+  </si>
+  <si>
+    <t>Metrics Baseline report (MBR) presented to Senior management</t>
+  </si>
+  <si>
+    <t>ORG_MBR_Mail_to_Stackholders</t>
+  </si>
+  <si>
+    <t>Metrics Baseline report (MBR) shared with all relevan effected stackholders.</t>
   </si>
 </sst>
 </file>
@@ -563,7 +533,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -603,10 +573,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -695,22 +661,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,6 +671,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -734,7 +688,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,7 +710,119 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1171,7 +1249,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1186,10 +1264,10 @@
   <dimension ref="A1:R276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1205,25 +1283,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1262,7 +1340,7 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>13</v>
@@ -1274,13 +1352,13 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="43" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="4" t="str">
@@ -1288,13 +1366,13 @@
         <v>OK</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="8" t="str">
@@ -1317,25 +1395,25 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="57"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D68" si="1">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="8" t="str">
@@ -1358,25 +1436,25 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="57"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="43"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="8" t="str">
@@ -1399,13 +1477,13 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="57"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="43"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1434,13 +1512,13 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="57"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1469,13 +1547,13 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="57"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1504,13 +1582,13 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="57"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1539,13 +1617,13 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="57"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="43"/>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1574,13 +1652,13 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="57"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="43"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1609,13 +1687,13 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="57"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="43"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1644,13 +1722,13 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="57"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="43"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1679,13 +1757,13 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="57"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="43"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1714,13 +1792,13 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="57"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="43"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1749,13 +1827,13 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="57"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="43"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1784,13 +1862,13 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="57"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="43"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1819,29 +1897,29 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="57"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="43"/>
     </row>
     <row r="19" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43">
         <v>1.2</v>
       </c>
-      <c r="C19" s="57" t="s">
-        <v>20</v>
+      <c r="C19" s="43" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="8" t="str">
@@ -1864,25 +1942,25 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="57"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="43"/>
     </row>
     <row r="20" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="8"/>
@@ -1902,25 +1980,25 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="57"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="43"/>
     </row>
     <row r="21" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8" t="str">
@@ -1943,13 +2021,13 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="57"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="43"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1978,13 +2056,13 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="57"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="43"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2013,13 +2091,13 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="57"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="43"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2048,13 +2126,13 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="57"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="43"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2080,13 +2158,13 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="57"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="43"/>
     </row>
     <row r="26" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2115,13 +2193,13 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="57"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="43"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2150,13 +2228,13 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="57"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="43"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2185,13 +2263,13 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="57"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="43"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2220,13 +2298,13 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="57"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="43"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2255,13 +2333,13 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="57"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="43"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2290,13 +2368,13 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="57"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="43"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2325,13 +2403,13 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="57"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="43"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2360,31 +2438,31 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="57"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="43"/>
     </row>
     <row r="34" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="57">
+      <c r="A34" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="43">
         <v>2.1</v>
       </c>
-      <c r="C34" s="49" t="s">
-        <v>25</v>
+      <c r="C34" s="47" t="s">
+        <v>19</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="8" t="str">
@@ -2407,25 +2485,25 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="57"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="8" t="str">
@@ -2448,25 +2526,25 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="57"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="43"/>
     </row>
     <row r="36" spans="1:18" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="8" t="str">
@@ -2489,13 +2567,13 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="57"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="43"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="49"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2524,13 +2602,13 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="57"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="43"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2559,13 +2637,13 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="57"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="43"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="49"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2594,13 +2672,13 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="57"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="43"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2629,13 +2707,13 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="57"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="43"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="49"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2664,13 +2742,13 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="57"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="43"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2699,13 +2777,13 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="57"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="43"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2734,13 +2812,13 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="57"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="43"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="49"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2769,13 +2847,13 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="57"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="43"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="49"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2804,13 +2882,13 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="57"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="43"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="49"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2839,13 +2917,13 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="57"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="43"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="49"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2874,13 +2952,13 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="57"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="43"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="49"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2909,29 +2987,29 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="57"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="43"/>
     </row>
     <row r="49" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C49" s="49" t="s">
-        <v>30</v>
+      <c r="C49" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="D49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="8" t="str">
@@ -2954,25 +3032,25 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="57"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="43"/>
     </row>
     <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="49"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="8" t="str">
@@ -2995,25 +3073,25 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="57"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="43"/>
     </row>
     <row r="51" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="49"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="8" t="str">
@@ -3036,13 +3114,13 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="57"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="43"/>
     </row>
     <row r="52" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="49"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3071,13 +3149,13 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="57"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="43"/>
     </row>
     <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="49"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3106,13 +3184,13 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="57"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="43"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="49"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3141,13 +3219,13 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="51"/>
-      <c r="R54" s="57"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="43"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="49"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3176,13 +3254,13 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="Q55" s="51"/>
-      <c r="R55" s="57"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="43"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="49"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3211,13 +3289,13 @@
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="Q56" s="51"/>
-      <c r="R56" s="57"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="43"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="49"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3246,13 +3324,13 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="57"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="43"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="49"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3281,13 +3359,13 @@
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="57"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="43"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="49"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3316,13 +3394,13 @@
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="51"/>
-      <c r="R59" s="57"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="43"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="49"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3351,13 +3429,13 @@
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="57"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="43"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="49"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3386,13 +3464,13 @@
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="Q61" s="51"/>
-      <c r="R61" s="57"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="43"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="49"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3421,13 +3499,13 @@
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="57"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="43"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="49"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3456,29 +3534,29 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="57"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="43"/>
     </row>
     <row r="64" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="57">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C64" s="49" t="s">
-        <v>37</v>
+      <c r="C64" s="47" t="s">
+        <v>25</v>
       </c>
       <c r="D64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="8" t="str">
@@ -3492,7 +3570,7 @@
       </c>
       <c r="L64" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M64" s="7" t="str">
         <f t="shared" si="3"/>
@@ -3501,25 +3579,25 @@
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="57"/>
-    </row>
-    <row r="65" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="49"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="43"/>
+    </row>
+    <row r="65" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="8" t="str">
@@ -3542,20 +3620,26 @@
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="51"/>
-      <c r="R65" s="57"/>
-    </row>
-    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="49"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="43"/>
+    </row>
+    <row r="66" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3564,33 +3648,39 @@
       <c r="J66" s="8"/>
       <c r="K66" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L66" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M66" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="51"/>
-      <c r="R66" s="57"/>
-    </row>
-    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="49"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="43"/>
+    </row>
+    <row r="67" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H67" s="7"/>
       <c r="I67" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3599,33 +3689,39 @@
       <c r="J67" s="8"/>
       <c r="K67" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L67" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M67" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="51"/>
-      <c r="R67" s="57"/>
-    </row>
-    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="49"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="43"/>
+    </row>
+    <row r="68" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3634,26 +3730,26 @@
       <c r="J68" s="8"/>
       <c r="K68" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L68" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M68" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
-      <c r="Q68" s="51"/>
-      <c r="R68" s="57"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="43"/>
     </row>
     <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="49"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="4" t="str">
         <f t="shared" ref="D69:D132" si="4">IF(LEN(E69)&gt;5,IF(LEN(K69&amp;L69&amp;M69)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -3682,13 +3778,13 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
-      <c r="Q69" s="51"/>
-      <c r="R69" s="57"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="43"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="49"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3717,13 +3813,13 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
-      <c r="Q70" s="51"/>
-      <c r="R70" s="57"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="43"/>
     </row>
     <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="49"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3752,13 +3848,13 @@
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
-      <c r="Q71" s="51"/>
-      <c r="R71" s="57"/>
+      <c r="Q71" s="45"/>
+      <c r="R71" s="43"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="49"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3787,13 +3883,13 @@
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
-      <c r="Q72" s="51"/>
-      <c r="R72" s="57"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="43"/>
     </row>
     <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="49"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3822,13 +3918,13 @@
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
-      <c r="Q73" s="51"/>
-      <c r="R73" s="57"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="43"/>
     </row>
     <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="49"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3857,13 +3953,13 @@
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
-      <c r="Q74" s="51"/>
-      <c r="R74" s="57"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="43"/>
     </row>
     <row r="75" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="49"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3892,13 +3988,13 @@
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
-      <c r="Q75" s="51"/>
-      <c r="R75" s="57"/>
+      <c r="Q75" s="45"/>
+      <c r="R75" s="43"/>
     </row>
     <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="49"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3927,13 +4023,13 @@
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="57"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="43"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="49"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3962,13 +4058,13 @@
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
-      <c r="Q77" s="51"/>
-      <c r="R77" s="57"/>
+      <c r="Q77" s="45"/>
+      <c r="R77" s="43"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="49"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="47"/>
       <c r="D78" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3997,29 +4093,29 @@
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
-      <c r="Q78" s="52"/>
-      <c r="R78" s="57"/>
-    </row>
-    <row r="79" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
-      <c r="B79" s="57">
+      <c r="Q78" s="46"/>
+      <c r="R78" s="43"/>
+    </row>
+    <row r="79" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43">
         <v>2.4</v>
       </c>
-      <c r="C79" s="49" t="s">
-        <v>40</v>
+      <c r="C79" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="D79" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="8" t="str">
@@ -4033,7 +4129,7 @@
       </c>
       <c r="L79" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M79" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4042,25 +4138,25 @@
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
-      <c r="Q79" s="50"/>
-      <c r="R79" s="57"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="43"/>
     </row>
     <row r="80" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="49"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="8" t="str">
@@ -4083,26 +4179,20 @@
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
-      <c r="Q80" s="51"/>
-      <c r="R80" s="57"/>
-    </row>
-    <row r="81" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="49"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="43"/>
+    </row>
+    <row r="81" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="4"/>
       <c r="I81" s="8" t="str">
         <f t="shared" si="5"/>
@@ -4111,26 +4201,26 @@
       <c r="J81" s="8"/>
       <c r="K81" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L81" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M81" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
-      <c r="Q81" s="51"/>
-      <c r="R81" s="57"/>
+      <c r="Q81" s="45"/>
+      <c r="R81" s="43"/>
     </row>
     <row r="82" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="49"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4159,13 +4249,13 @@
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
-      <c r="Q82" s="51"/>
-      <c r="R82" s="57"/>
+      <c r="Q82" s="45"/>
+      <c r="R82" s="43"/>
     </row>
     <row r="83" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="49"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4194,13 +4284,13 @@
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
-      <c r="Q83" s="51"/>
-      <c r="R83" s="57"/>
+      <c r="Q83" s="45"/>
+      <c r="R83" s="43"/>
     </row>
     <row r="84" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="49"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4229,13 +4319,13 @@
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
-      <c r="Q84" s="51"/>
-      <c r="R84" s="57"/>
+      <c r="Q84" s="45"/>
+      <c r="R84" s="43"/>
     </row>
     <row r="85" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="49"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4264,13 +4354,13 @@
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
-      <c r="Q85" s="51"/>
-      <c r="R85" s="57"/>
+      <c r="Q85" s="45"/>
+      <c r="R85" s="43"/>
     </row>
     <row r="86" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="49"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4299,13 +4389,13 @@
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
-      <c r="Q86" s="51"/>
-      <c r="R86" s="57"/>
+      <c r="Q86" s="45"/>
+      <c r="R86" s="43"/>
     </row>
     <row r="87" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="49"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4334,13 +4424,13 @@
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-      <c r="Q87" s="51"/>
-      <c r="R87" s="57"/>
+      <c r="Q87" s="45"/>
+      <c r="R87" s="43"/>
     </row>
     <row r="88" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="49"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4369,13 +4459,13 @@
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
-      <c r="Q88" s="51"/>
-      <c r="R88" s="57"/>
+      <c r="Q88" s="45"/>
+      <c r="R88" s="43"/>
     </row>
     <row r="89" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="49"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4404,13 +4494,13 @@
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
-      <c r="Q89" s="51"/>
-      <c r="R89" s="57"/>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="43"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="49"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4439,13 +4529,13 @@
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
-      <c r="Q90" s="51"/>
-      <c r="R90" s="57"/>
+      <c r="Q90" s="45"/>
+      <c r="R90" s="43"/>
     </row>
     <row r="91" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="49"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4474,13 +4564,13 @@
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="51"/>
-      <c r="R91" s="57"/>
+      <c r="Q91" s="45"/>
+      <c r="R91" s="43"/>
     </row>
     <row r="92" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="49"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="47"/>
       <c r="D92" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4509,13 +4599,13 @@
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="51"/>
-      <c r="R92" s="57"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="43"/>
     </row>
     <row r="93" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="49"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4544,29 +4634,29 @@
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
-      <c r="Q93" s="52"/>
-      <c r="R93" s="57"/>
+      <c r="Q93" s="46"/>
+      <c r="R93" s="43"/>
     </row>
     <row r="94" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
-      <c r="B94" s="48">
+      <c r="A94" s="43"/>
+      <c r="B94" s="52">
         <v>2.5</v>
       </c>
-      <c r="C94" s="49" t="s">
-        <v>42</v>
+      <c r="C94" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="D94" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>18</v>
+      <c r="E94" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="8" t="str">
@@ -4580,7 +4670,7 @@
       </c>
       <c r="L94" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M94" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4589,25 +4679,25 @@
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="48"/>
-    </row>
-    <row r="95" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="49"/>
+      <c r="Q94" s="53"/>
+      <c r="R94" s="52"/>
+    </row>
+    <row r="95" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="43"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G95" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="8" t="str">
@@ -4621,7 +4711,7 @@
       </c>
       <c r="L95" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M95" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4630,25 +4720,25 @@
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
-      <c r="Q95" s="45"/>
-      <c r="R95" s="48"/>
-    </row>
-    <row r="96" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
-      <c r="B96" s="48"/>
-      <c r="C96" s="49"/>
+      <c r="Q95" s="54"/>
+      <c r="R95" s="52"/>
+    </row>
+    <row r="96" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="43"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="8" t="str">
@@ -4671,25 +4761,25 @@
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
-      <c r="Q96" s="45"/>
-      <c r="R96" s="48"/>
-    </row>
-    <row r="97" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="49"/>
+      <c r="Q96" s="54"/>
+      <c r="R96" s="52"/>
+    </row>
+    <row r="97" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="43"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="8" t="str">
@@ -4712,20 +4802,26 @@
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
-      <c r="Q97" s="45"/>
-      <c r="R97" s="48"/>
-    </row>
-    <row r="98" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="57"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="49"/>
+      <c r="Q97" s="54"/>
+      <c r="R97" s="52"/>
+    </row>
+    <row r="98" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="43"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H98" s="7"/>
       <c r="I98" s="8" t="str">
         <f t="shared" si="5"/>
@@ -4734,26 +4830,26 @@
       <c r="J98" s="8"/>
       <c r="K98" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L98" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M98" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
-      <c r="Q98" s="45"/>
-      <c r="R98" s="48"/>
+      <c r="Q98" s="54"/>
+      <c r="R98" s="52"/>
     </row>
     <row r="99" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="57"/>
-      <c r="B99" s="48"/>
-      <c r="C99" s="49"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4782,13 +4878,13 @@
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
-      <c r="Q99" s="45"/>
-      <c r="R99" s="48"/>
+      <c r="Q99" s="54"/>
+      <c r="R99" s="52"/>
     </row>
     <row r="100" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="57"/>
-      <c r="B100" s="48"/>
-      <c r="C100" s="49"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4817,13 +4913,13 @@
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
-      <c r="Q100" s="45"/>
-      <c r="R100" s="48"/>
+      <c r="Q100" s="54"/>
+      <c r="R100" s="52"/>
     </row>
     <row r="101" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="57"/>
-      <c r="B101" s="48"/>
-      <c r="C101" s="49"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4852,13 +4948,13 @@
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
-      <c r="Q101" s="45"/>
-      <c r="R101" s="48"/>
+      <c r="Q101" s="54"/>
+      <c r="R101" s="52"/>
     </row>
     <row r="102" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="57"/>
-      <c r="B102" s="48"/>
-      <c r="C102" s="49"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="47"/>
       <c r="D102" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4887,13 +4983,13 @@
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
-      <c r="Q102" s="45"/>
-      <c r="R102" s="48"/>
+      <c r="Q102" s="54"/>
+      <c r="R102" s="52"/>
     </row>
     <row r="103" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
-      <c r="B103" s="48"/>
-      <c r="C103" s="49"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="47"/>
       <c r="D103" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4922,13 +5018,13 @@
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
-      <c r="Q103" s="45"/>
-      <c r="R103" s="48"/>
+      <c r="Q103" s="54"/>
+      <c r="R103" s="52"/>
     </row>
     <row r="104" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="57"/>
-      <c r="B104" s="48"/>
-      <c r="C104" s="49"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="47"/>
       <c r="D104" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4957,13 +5053,13 @@
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
-      <c r="Q104" s="45"/>
-      <c r="R104" s="48"/>
+      <c r="Q104" s="54"/>
+      <c r="R104" s="52"/>
     </row>
     <row r="105" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="57"/>
-      <c r="B105" s="48"/>
-      <c r="C105" s="49"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="47"/>
       <c r="D105" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4992,13 +5088,13 @@
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
-      <c r="Q105" s="45"/>
-      <c r="R105" s="48"/>
+      <c r="Q105" s="54"/>
+      <c r="R105" s="52"/>
     </row>
     <row r="106" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="57"/>
-      <c r="B106" s="48"/>
-      <c r="C106" s="49"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5027,13 +5123,13 @@
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
-      <c r="Q106" s="45"/>
-      <c r="R106" s="48"/>
+      <c r="Q106" s="54"/>
+      <c r="R106" s="52"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="57"/>
-      <c r="B107" s="48"/>
-      <c r="C107" s="49"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="47"/>
       <c r="D107" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5062,13 +5158,13 @@
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
-      <c r="Q107" s="45"/>
-      <c r="R107" s="48"/>
+      <c r="Q107" s="54"/>
+      <c r="R107" s="52"/>
     </row>
     <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="57"/>
-      <c r="B108" s="48"/>
-      <c r="C108" s="49"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5097,29 +5193,29 @@
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
-      <c r="Q108" s="46"/>
-      <c r="R108" s="48"/>
-    </row>
-    <row r="109" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="57"/>
-      <c r="B109" s="48">
+      <c r="Q108" s="55"/>
+      <c r="R108" s="52"/>
+    </row>
+    <row r="109" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A109" s="43"/>
+      <c r="B109" s="52">
         <v>2.6</v>
       </c>
-      <c r="C109" s="49" t="s">
-        <v>49</v>
+      <c r="C109" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="D109" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="8" t="str">
@@ -5133,7 +5229,7 @@
       </c>
       <c r="L109" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M109" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5142,25 +5238,25 @@
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
-      <c r="Q109" s="44"/>
-      <c r="R109" s="48"/>
-    </row>
-    <row r="110" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="57"/>
-      <c r="B110" s="48"/>
-      <c r="C110" s="49"/>
+      <c r="Q109" s="53"/>
+      <c r="R109" s="52"/>
+    </row>
+    <row r="110" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="43"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="47"/>
       <c r="D110" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="8" t="str">
@@ -5174,7 +5270,7 @@
       </c>
       <c r="L110" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M110" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5183,26 +5279,20 @@
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
-      <c r="Q110" s="45"/>
-      <c r="R110" s="48"/>
+      <c r="Q110" s="54"/>
+      <c r="R110" s="52"/>
     </row>
     <row r="111" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="57"/>
-      <c r="B111" s="48"/>
-      <c r="C111" s="49"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="10"/>
       <c r="H111" s="7"/>
       <c r="I111" s="8" t="str">
         <f t="shared" si="5"/>
@@ -5211,39 +5301,33 @@
       <c r="J111" s="8"/>
       <c r="K111" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L111" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M111" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
-      <c r="Q111" s="45"/>
-      <c r="R111" s="48"/>
+      <c r="Q111" s="54"/>
+      <c r="R111" s="52"/>
     </row>
     <row r="112" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
-      <c r="B112" s="48"/>
-      <c r="C112" s="49"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="47"/>
       <c r="D112" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="10"/>
       <c r="H112" s="7"/>
       <c r="I112" s="8" t="str">
         <f t="shared" si="5"/>
@@ -5252,26 +5336,26 @@
       <c r="J112" s="8"/>
       <c r="K112" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L112" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M112" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
-      <c r="Q112" s="45"/>
-      <c r="R112" s="48"/>
+      <c r="Q112" s="54"/>
+      <c r="R112" s="52"/>
     </row>
     <row r="113" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="57"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="49"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="47"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5300,13 +5384,13 @@
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
-      <c r="Q113" s="45"/>
-      <c r="R113" s="48"/>
+      <c r="Q113" s="54"/>
+      <c r="R113" s="52"/>
     </row>
     <row r="114" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="57"/>
-      <c r="B114" s="48"/>
-      <c r="C114" s="49"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="47"/>
       <c r="D114" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5335,13 +5419,13 @@
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
-      <c r="Q114" s="45"/>
-      <c r="R114" s="48"/>
+      <c r="Q114" s="54"/>
+      <c r="R114" s="52"/>
     </row>
     <row r="115" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="57"/>
-      <c r="B115" s="48"/>
-      <c r="C115" s="49"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="47"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5370,13 +5454,13 @@
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
-      <c r="Q115" s="45"/>
-      <c r="R115" s="48"/>
+      <c r="Q115" s="54"/>
+      <c r="R115" s="52"/>
     </row>
     <row r="116" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="57"/>
-      <c r="B116" s="48"/>
-      <c r="C116" s="49"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="47"/>
       <c r="D116" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5405,13 +5489,13 @@
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
-      <c r="Q116" s="45"/>
-      <c r="R116" s="48"/>
+      <c r="Q116" s="54"/>
+      <c r="R116" s="52"/>
     </row>
     <row r="117" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="57"/>
-      <c r="B117" s="48"/>
-      <c r="C117" s="49"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5440,13 +5524,13 @@
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
-      <c r="Q117" s="45"/>
-      <c r="R117" s="48"/>
+      <c r="Q117" s="54"/>
+      <c r="R117" s="52"/>
     </row>
     <row r="118" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="57"/>
-      <c r="B118" s="48"/>
-      <c r="C118" s="49"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="47"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5475,13 +5559,13 @@
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
-      <c r="Q118" s="45"/>
-      <c r="R118" s="48"/>
+      <c r="Q118" s="54"/>
+      <c r="R118" s="52"/>
     </row>
     <row r="119" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="57"/>
-      <c r="B119" s="48"/>
-      <c r="C119" s="49"/>
+      <c r="A119" s="43"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="47"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5510,13 +5594,13 @@
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
-      <c r="Q119" s="45"/>
-      <c r="R119" s="48"/>
+      <c r="Q119" s="54"/>
+      <c r="R119" s="52"/>
     </row>
     <row r="120" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="57"/>
-      <c r="B120" s="48"/>
-      <c r="C120" s="49"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="47"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5545,13 +5629,13 @@
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
-      <c r="Q120" s="45"/>
-      <c r="R120" s="48"/>
+      <c r="Q120" s="54"/>
+      <c r="R120" s="52"/>
     </row>
     <row r="121" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="57"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="49"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5580,13 +5664,13 @@
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
-      <c r="Q121" s="45"/>
-      <c r="R121" s="48"/>
+      <c r="Q121" s="54"/>
+      <c r="R121" s="52"/>
     </row>
     <row r="122" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="57"/>
-      <c r="B122" s="48"/>
-      <c r="C122" s="49"/>
+      <c r="A122" s="43"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="47"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5615,13 +5699,13 @@
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
-      <c r="Q122" s="45"/>
-      <c r="R122" s="48"/>
+      <c r="Q122" s="54"/>
+      <c r="R122" s="52"/>
     </row>
     <row r="123" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="57"/>
-      <c r="B123" s="48"/>
-      <c r="C123" s="49"/>
+      <c r="A123" s="43"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="47"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5650,31 +5734,31 @@
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
-      <c r="Q123" s="46"/>
-      <c r="R123" s="48"/>
-    </row>
-    <row r="124" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B124" s="48">
+      <c r="Q123" s="55"/>
+      <c r="R123" s="52"/>
+    </row>
+    <row r="124" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" s="52">
         <v>3.1</v>
       </c>
-      <c r="C124" s="49" t="s">
-        <v>57</v>
+      <c r="C124" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="D124" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>17</v>
+      <c r="E124" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="8" t="str">
@@ -5688,7 +5772,7 @@
       </c>
       <c r="L124" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M124" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5697,25 +5781,25 @@
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
-      <c r="Q124" s="44"/>
-      <c r="R124" s="48"/>
-    </row>
-    <row r="125" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
-      <c r="B125" s="48"/>
-      <c r="C125" s="49"/>
+      <c r="Q124" s="53"/>
+      <c r="R124" s="52"/>
+    </row>
+    <row r="125" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A125" s="52"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="47"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E125" s="5" t="s">
-        <v>17</v>
+      <c r="E125" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="8" t="str">
@@ -5729,7 +5813,7 @@
       </c>
       <c r="L125" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M125" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5738,25 +5822,25 @@
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
-      <c r="Q125" s="45"/>
-      <c r="R125" s="48"/>
-    </row>
-    <row r="126" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="48"/>
-      <c r="B126" s="48"/>
-      <c r="C126" s="49"/>
+      <c r="Q125" s="54"/>
+      <c r="R125" s="52"/>
+    </row>
+    <row r="126" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="52"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="47"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E126" s="9" t="s">
-        <v>28</v>
+      <c r="E126" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="8" t="str">
@@ -5770,7 +5854,7 @@
       </c>
       <c r="L126" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M126" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5779,20 +5863,26 @@
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
-      <c r="Q126" s="45"/>
-      <c r="R126" s="48"/>
-    </row>
-    <row r="127" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
-      <c r="B127" s="48"/>
-      <c r="C127" s="49"/>
+      <c r="Q126" s="54"/>
+      <c r="R126" s="52"/>
+    </row>
+    <row r="127" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="47"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H127" s="7"/>
       <c r="I127" s="8" t="str">
         <f t="shared" si="5"/>
@@ -5801,7 +5891,7 @@
       <c r="J127" s="8"/>
       <c r="K127" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L127" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5809,18 +5899,18 @@
       </c>
       <c r="M127" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
-      <c r="Q127" s="45"/>
-      <c r="R127" s="48"/>
+      <c r="Q127" s="54"/>
+      <c r="R127" s="52"/>
     </row>
     <row r="128" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
-      <c r="B128" s="48"/>
-      <c r="C128" s="49"/>
+      <c r="A128" s="52"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="47"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5849,13 +5939,13 @@
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
-      <c r="Q128" s="45"/>
-      <c r="R128" s="48"/>
+      <c r="Q128" s="54"/>
+      <c r="R128" s="52"/>
     </row>
     <row r="129" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
-      <c r="B129" s="48"/>
-      <c r="C129" s="49"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="47"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5884,13 +5974,13 @@
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
-      <c r="Q129" s="45"/>
-      <c r="R129" s="48"/>
+      <c r="Q129" s="54"/>
+      <c r="R129" s="52"/>
     </row>
     <row r="130" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="48"/>
-      <c r="B130" s="48"/>
-      <c r="C130" s="49"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="52"/>
+      <c r="C130" s="47"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5919,13 +6009,13 @@
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
-      <c r="Q130" s="45"/>
-      <c r="R130" s="48"/>
+      <c r="Q130" s="54"/>
+      <c r="R130" s="52"/>
     </row>
     <row r="131" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
-      <c r="B131" s="48"/>
-      <c r="C131" s="49"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="47"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5954,13 +6044,13 @@
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
-      <c r="Q131" s="45"/>
-      <c r="R131" s="48"/>
+      <c r="Q131" s="54"/>
+      <c r="R131" s="52"/>
     </row>
     <row r="132" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="48"/>
-      <c r="B132" s="48"/>
-      <c r="C132" s="49"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="47"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5989,13 +6079,13 @@
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
-      <c r="Q132" s="45"/>
-      <c r="R132" s="48"/>
+      <c r="Q132" s="54"/>
+      <c r="R132" s="52"/>
     </row>
     <row r="133" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
-      <c r="B133" s="48"/>
-      <c r="C133" s="49"/>
+      <c r="A133" s="52"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="47"/>
       <c r="D133" s="4" t="str">
         <f t="shared" ref="D133:D196" si="7">IF(LEN(E133)&gt;5,IF(LEN(K133&amp;L133&amp;M133)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -6024,13 +6114,13 @@
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
-      <c r="Q133" s="45"/>
-      <c r="R133" s="48"/>
+      <c r="Q133" s="54"/>
+      <c r="R133" s="52"/>
     </row>
     <row r="134" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
-      <c r="B134" s="48"/>
-      <c r="C134" s="49"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="47"/>
       <c r="D134" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6059,13 +6149,13 @@
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
-      <c r="Q134" s="45"/>
-      <c r="R134" s="48"/>
+      <c r="Q134" s="54"/>
+      <c r="R134" s="52"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
-      <c r="B135" s="48"/>
-      <c r="C135" s="49"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="47"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6094,13 +6184,13 @@
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
-      <c r="Q135" s="45"/>
-      <c r="R135" s="48"/>
+      <c r="Q135" s="54"/>
+      <c r="R135" s="52"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
-      <c r="B136" s="48"/>
-      <c r="C136" s="49"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="47"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6129,13 +6219,13 @@
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
-      <c r="Q136" s="45"/>
-      <c r="R136" s="48"/>
+      <c r="Q136" s="54"/>
+      <c r="R136" s="52"/>
     </row>
     <row r="137" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
-      <c r="B137" s="48"/>
-      <c r="C137" s="49"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="52"/>
+      <c r="C137" s="47"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6164,13 +6254,13 @@
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
-      <c r="Q137" s="45"/>
-      <c r="R137" s="48"/>
+      <c r="Q137" s="54"/>
+      <c r="R137" s="52"/>
     </row>
     <row r="138" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
-      <c r="B138" s="48"/>
-      <c r="C138" s="49"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="47"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6199,29 +6289,29 @@
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
-      <c r="Q138" s="46"/>
-      <c r="R138" s="48"/>
-    </row>
-    <row r="139" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
-      <c r="B139" s="48">
+      <c r="Q138" s="55"/>
+      <c r="R138" s="52"/>
+    </row>
+    <row r="139" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A139" s="52"/>
+      <c r="B139" s="52">
         <v>3.2</v>
       </c>
-      <c r="C139" s="49" t="s">
-        <v>58</v>
+      <c r="C139" s="47" t="s">
+        <v>32</v>
       </c>
       <c r="D139" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="8" t="str">
@@ -6235,7 +6325,7 @@
       </c>
       <c r="L139" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M139" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6244,25 +6334,25 @@
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
-      <c r="Q139" s="44"/>
-      <c r="R139" s="48"/>
-    </row>
-    <row r="140" spans="1:18" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
-      <c r="B140" s="48"/>
-      <c r="C140" s="49"/>
+      <c r="Q139" s="53"/>
+      <c r="R139" s="52"/>
+    </row>
+    <row r="140" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A140" s="52"/>
+      <c r="B140" s="52"/>
+      <c r="C140" s="47"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
-      <c r="E140" s="5" t="s">
-        <v>17</v>
+      <c r="E140" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="8" t="str">
@@ -6276,7 +6366,7 @@
       </c>
       <c r="L140" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M140" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6285,25 +6375,25 @@
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
-      <c r="Q140" s="45"/>
-      <c r="R140" s="48"/>
-    </row>
-    <row r="141" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
-      <c r="B141" s="48"/>
-      <c r="C141" s="49"/>
+      <c r="Q140" s="54"/>
+      <c r="R140" s="52"/>
+    </row>
+    <row r="141" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="52"/>
+      <c r="B141" s="52"/>
+      <c r="C141" s="47"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="8" t="str">
@@ -6326,25 +6416,25 @@
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
-      <c r="Q141" s="45"/>
-      <c r="R141" s="48"/>
-    </row>
-    <row r="142" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
-      <c r="B142" s="48"/>
-      <c r="C142" s="49"/>
+      <c r="Q141" s="54"/>
+      <c r="R141" s="52"/>
+    </row>
+    <row r="142" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="52"/>
+      <c r="B142" s="52"/>
+      <c r="C142" s="47"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H142" s="4"/>
       <c r="I142" s="8" t="str">
@@ -6367,13 +6457,13 @@
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
-      <c r="Q142" s="45"/>
-      <c r="R142" s="48"/>
+      <c r="Q142" s="54"/>
+      <c r="R142" s="52"/>
     </row>
     <row r="143" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="48"/>
-      <c r="B143" s="48"/>
-      <c r="C143" s="49"/>
+      <c r="A143" s="52"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="47"/>
       <c r="D143" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6402,13 +6492,13 @@
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
-      <c r="Q143" s="45"/>
-      <c r="R143" s="48"/>
+      <c r="Q143" s="54"/>
+      <c r="R143" s="52"/>
     </row>
     <row r="144" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
-      <c r="B144" s="48"/>
-      <c r="C144" s="49"/>
+      <c r="A144" s="52"/>
+      <c r="B144" s="52"/>
+      <c r="C144" s="47"/>
       <c r="D144" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6437,13 +6527,13 @@
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
-      <c r="Q144" s="45"/>
-      <c r="R144" s="48"/>
+      <c r="Q144" s="54"/>
+      <c r="R144" s="52"/>
     </row>
     <row r="145" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
-      <c r="B145" s="48"/>
-      <c r="C145" s="49"/>
+      <c r="A145" s="52"/>
+      <c r="B145" s="52"/>
+      <c r="C145" s="47"/>
       <c r="D145" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6472,13 +6562,13 @@
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
-      <c r="Q145" s="45"/>
-      <c r="R145" s="48"/>
+      <c r="Q145" s="54"/>
+      <c r="R145" s="52"/>
     </row>
     <row r="146" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
-      <c r="B146" s="48"/>
-      <c r="C146" s="49"/>
+      <c r="A146" s="52"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="47"/>
       <c r="D146" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6507,13 +6597,13 @@
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
-      <c r="Q146" s="45"/>
-      <c r="R146" s="48"/>
+      <c r="Q146" s="54"/>
+      <c r="R146" s="52"/>
     </row>
     <row r="147" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
-      <c r="B147" s="48"/>
-      <c r="C147" s="49"/>
+      <c r="A147" s="52"/>
+      <c r="B147" s="52"/>
+      <c r="C147" s="47"/>
       <c r="D147" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6542,13 +6632,13 @@
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
-      <c r="Q147" s="45"/>
-      <c r="R147" s="48"/>
+      <c r="Q147" s="54"/>
+      <c r="R147" s="52"/>
     </row>
     <row r="148" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
-      <c r="B148" s="48"/>
-      <c r="C148" s="49"/>
+      <c r="A148" s="52"/>
+      <c r="B148" s="52"/>
+      <c r="C148" s="47"/>
       <c r="D148" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6577,13 +6667,13 @@
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
-      <c r="Q148" s="45"/>
-      <c r="R148" s="48"/>
+      <c r="Q148" s="54"/>
+      <c r="R148" s="52"/>
     </row>
     <row r="149" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
-      <c r="B149" s="48"/>
-      <c r="C149" s="49"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="47"/>
       <c r="D149" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6612,13 +6702,13 @@
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
-      <c r="Q149" s="45"/>
-      <c r="R149" s="48"/>
+      <c r="Q149" s="54"/>
+      <c r="R149" s="52"/>
     </row>
     <row r="150" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
-      <c r="B150" s="48"/>
-      <c r="C150" s="49"/>
+      <c r="A150" s="52"/>
+      <c r="B150" s="52"/>
+      <c r="C150" s="47"/>
       <c r="D150" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6647,13 +6737,13 @@
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
-      <c r="Q150" s="45"/>
-      <c r="R150" s="48"/>
+      <c r="Q150" s="54"/>
+      <c r="R150" s="52"/>
     </row>
     <row r="151" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
-      <c r="B151" s="48"/>
-      <c r="C151" s="49"/>
+      <c r="A151" s="52"/>
+      <c r="B151" s="52"/>
+      <c r="C151" s="47"/>
       <c r="D151" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6682,13 +6772,13 @@
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
-      <c r="Q151" s="45"/>
-      <c r="R151" s="48"/>
+      <c r="Q151" s="54"/>
+      <c r="R151" s="52"/>
     </row>
     <row r="152" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
-      <c r="B152" s="48"/>
-      <c r="C152" s="49"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="47"/>
       <c r="D152" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6717,13 +6807,13 @@
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
-      <c r="Q152" s="45"/>
-      <c r="R152" s="48"/>
+      <c r="Q152" s="54"/>
+      <c r="R152" s="52"/>
     </row>
     <row r="153" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="48"/>
-      <c r="B153" s="48"/>
-      <c r="C153" s="49"/>
+      <c r="A153" s="52"/>
+      <c r="B153" s="52"/>
+      <c r="C153" s="47"/>
       <c r="D153" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6752,29 +6842,29 @@
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
-      <c r="Q153" s="46"/>
-      <c r="R153" s="48"/>
+      <c r="Q153" s="55"/>
+      <c r="R153" s="52"/>
     </row>
     <row r="154" spans="1:18" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
-      <c r="B154" s="48">
+      <c r="A154" s="52"/>
+      <c r="B154" s="52">
         <v>3.3</v>
       </c>
-      <c r="C154" s="49" t="s">
-        <v>59</v>
+      <c r="C154" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="D154" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E154" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G154" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="8" t="str">
@@ -6788,7 +6878,7 @@
       </c>
       <c r="L154" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M154" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6797,25 +6887,25 @@
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
-      <c r="Q154" s="44"/>
-      <c r="R154" s="48"/>
-    </row>
-    <row r="155" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="48"/>
-      <c r="B155" s="48"/>
-      <c r="C155" s="49"/>
+      <c r="Q154" s="53"/>
+      <c r="R154" s="52"/>
+    </row>
+    <row r="155" spans="1:18" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="52"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="47"/>
       <c r="D155" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="8" t="str">
@@ -6829,7 +6919,7 @@
       </c>
       <c r="L155" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M155" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6838,25 +6928,25 @@
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
-      <c r="Q155" s="45"/>
-      <c r="R155" s="48"/>
+      <c r="Q155" s="54"/>
+      <c r="R155" s="52"/>
     </row>
     <row r="156" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
-      <c r="B156" s="48"/>
-      <c r="C156" s="49"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="47"/>
       <c r="D156" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H156" s="4"/>
       <c r="I156" s="8" t="str">
@@ -6879,20 +6969,26 @@
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
-      <c r="Q156" s="45"/>
-      <c r="R156" s="48"/>
-    </row>
-    <row r="157" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="48"/>
-      <c r="B157" s="48"/>
-      <c r="C157" s="49"/>
+      <c r="Q156" s="54"/>
+      <c r="R156" s="52"/>
+    </row>
+    <row r="157" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="52"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="47"/>
       <c r="D157" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="E157" s="9"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H157" s="4"/>
       <c r="I157" s="8" t="str">
         <f t="shared" si="8"/>
@@ -6901,33 +6997,39 @@
       <c r="J157" s="8"/>
       <c r="K157" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L157" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M157" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
-      <c r="Q157" s="45"/>
-      <c r="R157" s="48"/>
-    </row>
-    <row r="158" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
-      <c r="B158" s="48"/>
-      <c r="C158" s="49"/>
+      <c r="Q157" s="54"/>
+      <c r="R157" s="52"/>
+    </row>
+    <row r="158" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="52"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="47"/>
       <c r="D158" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="E158" s="9"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H158" s="4"/>
       <c r="I158" s="8" t="str">
         <f t="shared" si="8"/>
@@ -6936,26 +7038,26 @@
       <c r="J158" s="8"/>
       <c r="K158" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L158" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M158" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
-      <c r="Q158" s="45"/>
-      <c r="R158" s="48"/>
+      <c r="Q158" s="54"/>
+      <c r="R158" s="52"/>
     </row>
     <row r="159" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="48"/>
-      <c r="B159" s="48"/>
-      <c r="C159" s="49"/>
+      <c r="A159" s="52"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="47"/>
       <c r="D159" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6984,13 +7086,13 @@
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
-      <c r="Q159" s="45"/>
-      <c r="R159" s="48"/>
+      <c r="Q159" s="54"/>
+      <c r="R159" s="52"/>
     </row>
     <row r="160" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
-      <c r="B160" s="48"/>
-      <c r="C160" s="49"/>
+      <c r="A160" s="52"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="47"/>
       <c r="D160" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7019,13 +7121,13 @@
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
-      <c r="Q160" s="45"/>
-      <c r="R160" s="48"/>
+      <c r="Q160" s="54"/>
+      <c r="R160" s="52"/>
     </row>
     <row r="161" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="48"/>
-      <c r="B161" s="48"/>
-      <c r="C161" s="49"/>
+      <c r="A161" s="52"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="47"/>
       <c r="D161" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7054,13 +7156,13 @@
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
-      <c r="Q161" s="45"/>
-      <c r="R161" s="48"/>
+      <c r="Q161" s="54"/>
+      <c r="R161" s="52"/>
     </row>
     <row r="162" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="48"/>
-      <c r="B162" s="48"/>
-      <c r="C162" s="49"/>
+      <c r="A162" s="52"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="47"/>
       <c r="D162" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7089,13 +7191,13 @@
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
-      <c r="Q162" s="45"/>
-      <c r="R162" s="48"/>
+      <c r="Q162" s="54"/>
+      <c r="R162" s="52"/>
     </row>
     <row r="163" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
-      <c r="B163" s="48"/>
-      <c r="C163" s="49"/>
+      <c r="A163" s="52"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="47"/>
       <c r="D163" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7124,13 +7226,13 @@
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
-      <c r="Q163" s="45"/>
-      <c r="R163" s="48"/>
+      <c r="Q163" s="54"/>
+      <c r="R163" s="52"/>
     </row>
     <row r="164" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
-      <c r="B164" s="48"/>
-      <c r="C164" s="49"/>
+      <c r="A164" s="52"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="47"/>
       <c r="D164" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7159,13 +7261,13 @@
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
-      <c r="Q164" s="45"/>
-      <c r="R164" s="48"/>
+      <c r="Q164" s="54"/>
+      <c r="R164" s="52"/>
     </row>
     <row r="165" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="48"/>
-      <c r="B165" s="48"/>
-      <c r="C165" s="49"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="47"/>
       <c r="D165" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7194,13 +7296,13 @@
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
-      <c r="Q165" s="45"/>
-      <c r="R165" s="48"/>
+      <c r="Q165" s="54"/>
+      <c r="R165" s="52"/>
     </row>
     <row r="166" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="48"/>
-      <c r="B166" s="48"/>
-      <c r="C166" s="49"/>
+      <c r="A166" s="52"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="47"/>
       <c r="D166" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7229,13 +7331,13 @@
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
-      <c r="Q166" s="45"/>
-      <c r="R166" s="48"/>
+      <c r="Q166" s="54"/>
+      <c r="R166" s="52"/>
     </row>
     <row r="167" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="48"/>
-      <c r="B167" s="48"/>
-      <c r="C167" s="49"/>
+      <c r="A167" s="52"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="47"/>
       <c r="D167" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7264,13 +7366,13 @@
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
-      <c r="Q167" s="45"/>
-      <c r="R167" s="48"/>
+      <c r="Q167" s="54"/>
+      <c r="R167" s="52"/>
     </row>
     <row r="168" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="48"/>
-      <c r="B168" s="48"/>
-      <c r="C168" s="49"/>
+      <c r="A168" s="52"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="47"/>
       <c r="D168" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7299,29 +7401,29 @@
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
-      <c r="Q168" s="46"/>
-      <c r="R168" s="48"/>
-    </row>
-    <row r="169" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="48"/>
-      <c r="B169" s="48">
+      <c r="Q168" s="55"/>
+      <c r="R168" s="52"/>
+    </row>
+    <row r="169" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="52"/>
+      <c r="B169" s="52">
         <v>3.4</v>
       </c>
-      <c r="C169" s="49" t="s">
-        <v>64</v>
+      <c r="C169" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="D169" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>17</v>
+      <c r="E169" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H169" s="4"/>
       <c r="I169" s="8" t="str">
@@ -7335,7 +7437,7 @@
       </c>
       <c r="L169" s="7" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M169" s="7" t="str">
         <f t="shared" si="10"/>
@@ -7344,25 +7446,25 @@
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
-      <c r="Q169" s="44"/>
-      <c r="R169" s="48"/>
-    </row>
-    <row r="170" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="48"/>
-      <c r="B170" s="48"/>
-      <c r="C170" s="49"/>
+      <c r="Q169" s="53"/>
+      <c r="R169" s="52"/>
+    </row>
+    <row r="170" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="52"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="47"/>
       <c r="D170" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
-      <c r="E170" s="5" t="s">
-        <v>65</v>
+      <c r="E170" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H170" s="4"/>
       <c r="I170" s="8" t="str">
@@ -7376,7 +7478,7 @@
       </c>
       <c r="L170" s="7" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M170" s="7" t="str">
         <f t="shared" si="10"/>
@@ -7385,25 +7487,25 @@
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
-      <c r="Q170" s="45"/>
-      <c r="R170" s="48"/>
-    </row>
-    <row r="171" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="48"/>
-      <c r="B171" s="48"/>
-      <c r="C171" s="49"/>
+      <c r="Q170" s="54"/>
+      <c r="R170" s="52"/>
+    </row>
+    <row r="171" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="52"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="47"/>
       <c r="D171" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H171" s="4"/>
       <c r="I171" s="8" t="str">
@@ -7426,25 +7528,25 @@
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
-      <c r="Q171" s="45"/>
-      <c r="R171" s="48"/>
-    </row>
-    <row r="172" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A172" s="48"/>
-      <c r="B172" s="48"/>
-      <c r="C172" s="49"/>
+      <c r="Q171" s="54"/>
+      <c r="R171" s="52"/>
+    </row>
+    <row r="172" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="52"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="47"/>
       <c r="D172" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="F172" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H172" s="4"/>
       <c r="I172" s="8" t="str">
@@ -7467,20 +7569,26 @@
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
-      <c r="Q172" s="45"/>
-      <c r="R172" s="48"/>
-    </row>
-    <row r="173" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="48"/>
-      <c r="B173" s="48"/>
-      <c r="C173" s="49"/>
+      <c r="Q172" s="54"/>
+      <c r="R172" s="52"/>
+    </row>
+    <row r="173" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="52"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="47"/>
       <c r="D173" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="E173" s="9"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H173" s="4"/>
       <c r="I173" s="8" t="str">
         <f t="shared" si="8"/>
@@ -7489,26 +7597,26 @@
       <c r="J173" s="8"/>
       <c r="K173" s="7" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L173" s="7" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M173" s="7" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
-      <c r="Q173" s="45"/>
-      <c r="R173" s="48"/>
+      <c r="Q173" s="54"/>
+      <c r="R173" s="52"/>
     </row>
     <row r="174" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="48"/>
-      <c r="B174" s="48"/>
-      <c r="C174" s="49"/>
+      <c r="A174" s="52"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="47"/>
       <c r="D174" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7537,13 +7645,13 @@
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
-      <c r="Q174" s="45"/>
-      <c r="R174" s="48"/>
+      <c r="Q174" s="54"/>
+      <c r="R174" s="52"/>
     </row>
     <row r="175" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="48"/>
-      <c r="B175" s="48"/>
-      <c r="C175" s="49"/>
+      <c r="A175" s="52"/>
+      <c r="B175" s="52"/>
+      <c r="C175" s="47"/>
       <c r="D175" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7572,13 +7680,13 @@
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
-      <c r="Q175" s="45"/>
-      <c r="R175" s="48"/>
+      <c r="Q175" s="54"/>
+      <c r="R175" s="52"/>
     </row>
     <row r="176" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="48"/>
-      <c r="B176" s="48"/>
-      <c r="C176" s="49"/>
+      <c r="A176" s="52"/>
+      <c r="B176" s="52"/>
+      <c r="C176" s="47"/>
       <c r="D176" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7607,13 +7715,13 @@
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
-      <c r="Q176" s="45"/>
-      <c r="R176" s="48"/>
+      <c r="Q176" s="54"/>
+      <c r="R176" s="52"/>
     </row>
     <row r="177" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="48"/>
-      <c r="B177" s="48"/>
-      <c r="C177" s="49"/>
+      <c r="A177" s="52"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="47"/>
       <c r="D177" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7642,13 +7750,13 @@
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
-      <c r="Q177" s="45"/>
-      <c r="R177" s="48"/>
+      <c r="Q177" s="54"/>
+      <c r="R177" s="52"/>
     </row>
     <row r="178" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="48"/>
-      <c r="B178" s="48"/>
-      <c r="C178" s="49"/>
+      <c r="A178" s="52"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="47"/>
       <c r="D178" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7677,13 +7785,13 @@
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
-      <c r="Q178" s="45"/>
-      <c r="R178" s="48"/>
+      <c r="Q178" s="54"/>
+      <c r="R178" s="52"/>
     </row>
     <row r="179" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="48"/>
-      <c r="B179" s="48"/>
-      <c r="C179" s="49"/>
+      <c r="A179" s="52"/>
+      <c r="B179" s="52"/>
+      <c r="C179" s="47"/>
       <c r="D179" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7712,13 +7820,13 @@
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
-      <c r="Q179" s="45"/>
-      <c r="R179" s="48"/>
+      <c r="Q179" s="54"/>
+      <c r="R179" s="52"/>
     </row>
     <row r="180" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="48"/>
-      <c r="B180" s="48"/>
-      <c r="C180" s="49"/>
+      <c r="A180" s="52"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="47"/>
       <c r="D180" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7747,13 +7855,13 @@
       <c r="N180" s="10"/>
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
-      <c r="Q180" s="45"/>
-      <c r="R180" s="48"/>
+      <c r="Q180" s="54"/>
+      <c r="R180" s="52"/>
     </row>
     <row r="181" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="48"/>
-      <c r="B181" s="48"/>
-      <c r="C181" s="49"/>
+      <c r="A181" s="52"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="47"/>
       <c r="D181" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7782,13 +7890,13 @@
       <c r="N181" s="10"/>
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
-      <c r="Q181" s="45"/>
-      <c r="R181" s="48"/>
+      <c r="Q181" s="54"/>
+      <c r="R181" s="52"/>
     </row>
     <row r="182" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="48"/>
-      <c r="B182" s="48"/>
-      <c r="C182" s="49"/>
+      <c r="A182" s="52"/>
+      <c r="B182" s="52"/>
+      <c r="C182" s="47"/>
       <c r="D182" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7817,13 +7925,13 @@
       <c r="N182" s="10"/>
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
-      <c r="Q182" s="45"/>
-      <c r="R182" s="48"/>
+      <c r="Q182" s="54"/>
+      <c r="R182" s="52"/>
     </row>
     <row r="183" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="48"/>
-      <c r="B183" s="48"/>
-      <c r="C183" s="49"/>
+      <c r="A183" s="52"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="47"/>
       <c r="D183" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7852,29 +7960,29 @@
       <c r="N183" s="10"/>
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
-      <c r="Q183" s="46"/>
-      <c r="R183" s="48"/>
-    </row>
-    <row r="184" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A184" s="48"/>
-      <c r="B184" s="48">
+      <c r="Q183" s="55"/>
+      <c r="R183" s="52"/>
+    </row>
+    <row r="184" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="52"/>
+      <c r="B184" s="52">
         <v>3.5</v>
       </c>
-      <c r="C184" s="49" t="s">
-        <v>67</v>
+      <c r="C184" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="D184" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H184" s="4"/>
       <c r="I184" s="8" t="str">
@@ -7888,7 +7996,7 @@
       </c>
       <c r="L184" s="7" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M184" s="7" t="str">
         <f t="shared" si="10"/>
@@ -7897,25 +8005,25 @@
       <c r="N184" s="10"/>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
-      <c r="Q184" s="44"/>
-      <c r="R184" s="48"/>
-    </row>
-    <row r="185" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="48"/>
-      <c r="B185" s="48"/>
-      <c r="C185" s="49"/>
+      <c r="Q184" s="53"/>
+      <c r="R184" s="52"/>
+    </row>
+    <row r="185" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="52"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="47"/>
       <c r="D185" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
-      <c r="E185" s="5" t="s">
-        <v>22</v>
+      <c r="E185" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H185" s="7"/>
       <c r="I185" s="8" t="str">
@@ -7929,7 +8037,7 @@
       </c>
       <c r="L185" s="7" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M185" s="7" t="str">
         <f t="shared" si="10"/>
@@ -7938,25 +8046,25 @@
       <c r="N185" s="10"/>
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
-      <c r="Q185" s="45"/>
-      <c r="R185" s="48"/>
-    </row>
-    <row r="186" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="48"/>
-      <c r="B186" s="48"/>
-      <c r="C186" s="49"/>
+      <c r="Q185" s="54"/>
+      <c r="R185" s="52"/>
+    </row>
+    <row r="186" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="52"/>
+      <c r="B186" s="52"/>
+      <c r="C186" s="47"/>
       <c r="D186" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
-      <c r="E186" s="9" t="s">
-        <v>19</v>
+      <c r="E186" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H186" s="7"/>
       <c r="I186" s="8" t="str">
@@ -7979,13 +8087,13 @@
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
-      <c r="Q186" s="45"/>
-      <c r="R186" s="48"/>
+      <c r="Q186" s="54"/>
+      <c r="R186" s="52"/>
     </row>
     <row r="187" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="48"/>
-      <c r="B187" s="48"/>
-      <c r="C187" s="49"/>
+      <c r="A187" s="52"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="47"/>
       <c r="D187" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8014,13 +8122,13 @@
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
-      <c r="Q187" s="45"/>
-      <c r="R187" s="48"/>
+      <c r="Q187" s="54"/>
+      <c r="R187" s="52"/>
     </row>
     <row r="188" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="48"/>
-      <c r="B188" s="48"/>
-      <c r="C188" s="49"/>
+      <c r="A188" s="52"/>
+      <c r="B188" s="52"/>
+      <c r="C188" s="47"/>
       <c r="D188" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8049,13 +8157,13 @@
       <c r="N188" s="10"/>
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
-      <c r="Q188" s="45"/>
-      <c r="R188" s="48"/>
+      <c r="Q188" s="54"/>
+      <c r="R188" s="52"/>
     </row>
     <row r="189" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="48"/>
-      <c r="B189" s="48"/>
-      <c r="C189" s="49"/>
+      <c r="A189" s="52"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="47"/>
       <c r="D189" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8084,13 +8192,13 @@
       <c r="N189" s="10"/>
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
-      <c r="Q189" s="45"/>
-      <c r="R189" s="48"/>
+      <c r="Q189" s="54"/>
+      <c r="R189" s="52"/>
     </row>
     <row r="190" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="48"/>
-      <c r="B190" s="48"/>
-      <c r="C190" s="49"/>
+      <c r="A190" s="52"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="47"/>
       <c r="D190" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8119,13 +8227,13 @@
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
-      <c r="Q190" s="45"/>
-      <c r="R190" s="48"/>
+      <c r="Q190" s="54"/>
+      <c r="R190" s="52"/>
     </row>
     <row r="191" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="48"/>
-      <c r="B191" s="48"/>
-      <c r="C191" s="49"/>
+      <c r="A191" s="52"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="47"/>
       <c r="D191" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8154,13 +8262,13 @@
       <c r="N191" s="10"/>
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
-      <c r="Q191" s="45"/>
-      <c r="R191" s="48"/>
+      <c r="Q191" s="54"/>
+      <c r="R191" s="52"/>
     </row>
     <row r="192" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="48"/>
-      <c r="B192" s="48"/>
-      <c r="C192" s="49"/>
+      <c r="A192" s="52"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="47"/>
       <c r="D192" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8189,13 +8297,13 @@
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
-      <c r="Q192" s="45"/>
-      <c r="R192" s="48"/>
+      <c r="Q192" s="54"/>
+      <c r="R192" s="52"/>
     </row>
     <row r="193" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="48"/>
-      <c r="B193" s="48"/>
-      <c r="C193" s="49"/>
+      <c r="A193" s="52"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="47"/>
       <c r="D193" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8221,13 +8329,13 @@
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
-      <c r="Q193" s="45"/>
-      <c r="R193" s="48"/>
+      <c r="Q193" s="54"/>
+      <c r="R193" s="52"/>
     </row>
     <row r="194" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="48"/>
-      <c r="B194" s="48"/>
-      <c r="C194" s="49"/>
+      <c r="A194" s="52"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="47"/>
       <c r="D194" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8256,13 +8364,13 @@
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
-      <c r="Q194" s="45"/>
-      <c r="R194" s="48"/>
+      <c r="Q194" s="54"/>
+      <c r="R194" s="52"/>
     </row>
     <row r="195" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="48"/>
-      <c r="B195" s="48"/>
-      <c r="C195" s="49"/>
+      <c r="A195" s="52"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="47"/>
       <c r="D195" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8291,13 +8399,13 @@
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
       <c r="P195" s="10"/>
-      <c r="Q195" s="45"/>
-      <c r="R195" s="48"/>
+      <c r="Q195" s="54"/>
+      <c r="R195" s="52"/>
     </row>
     <row r="196" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="48"/>
-      <c r="B196" s="48"/>
-      <c r="C196" s="49"/>
+      <c r="A196" s="52"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="47"/>
       <c r="D196" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8326,13 +8434,13 @@
       <c r="N196" s="10"/>
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
-      <c r="Q196" s="45"/>
-      <c r="R196" s="48"/>
+      <c r="Q196" s="54"/>
+      <c r="R196" s="52"/>
     </row>
     <row r="197" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="48"/>
-      <c r="B197" s="48"/>
-      <c r="C197" s="49"/>
+      <c r="A197" s="52"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="47"/>
       <c r="D197" s="4" t="str">
         <f t="shared" ref="D197:D260" si="11">IF(LEN(E197)&gt;5,IF(LEN(K197&amp;L197&amp;M197)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -8361,13 +8469,13 @@
       <c r="N197" s="10"/>
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
-      <c r="Q197" s="45"/>
-      <c r="R197" s="48"/>
+      <c r="Q197" s="54"/>
+      <c r="R197" s="52"/>
     </row>
     <row r="198" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="48"/>
-      <c r="B198" s="48"/>
-      <c r="C198" s="49"/>
+      <c r="A198" s="52"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="47"/>
       <c r="D198" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8396,29 +8504,29 @@
       <c r="N198" s="10"/>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
-      <c r="Q198" s="46"/>
-      <c r="R198" s="48"/>
-    </row>
-    <row r="199" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="48"/>
-      <c r="B199" s="48">
+      <c r="Q198" s="55"/>
+      <c r="R198" s="52"/>
+    </row>
+    <row r="199" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="52"/>
+      <c r="B199" s="52">
         <v>3.6</v>
       </c>
-      <c r="C199" s="49" t="s">
-        <v>69</v>
+      <c r="C199" s="47" t="s">
+        <v>36</v>
       </c>
       <c r="D199" s="4" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G199" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="G199" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="H199" s="4"/>
       <c r="I199" s="8" t="str">
@@ -8432,7 +8540,7 @@
       </c>
       <c r="L199" s="7" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M199" s="7" t="str">
         <f t="shared" si="13"/>
@@ -8441,25 +8549,25 @@
       <c r="N199" s="10"/>
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
-      <c r="Q199" s="44"/>
-      <c r="R199" s="48"/>
-    </row>
-    <row r="200" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="48"/>
-      <c r="B200" s="48"/>
-      <c r="C200" s="49"/>
+      <c r="Q199" s="53"/>
+      <c r="R199" s="52"/>
+    </row>
+    <row r="200" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="52"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="47"/>
       <c r="D200" s="4" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G200" s="25" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="G200" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="H200" s="7"/>
       <c r="I200" s="8" t="str">
@@ -8473,7 +8581,7 @@
       </c>
       <c r="L200" s="7" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M200" s="7" t="str">
         <f t="shared" si="13"/>
@@ -8482,25 +8590,25 @@
       <c r="N200" s="10"/>
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
-      <c r="Q200" s="45"/>
-      <c r="R200" s="48"/>
-    </row>
-    <row r="201" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="48"/>
-      <c r="B201" s="48"/>
-      <c r="C201" s="49"/>
+      <c r="Q200" s="54"/>
+      <c r="R200" s="52"/>
+    </row>
+    <row r="201" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="52"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="47"/>
       <c r="D201" s="4" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F201" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G201" s="25" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G201" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="H201" s="4"/>
       <c r="I201" s="8" t="str">
@@ -8523,20 +8631,20 @@
       <c r="N201" s="10"/>
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
-      <c r="Q201" s="45"/>
-      <c r="R201" s="48"/>
+      <c r="Q201" s="54"/>
+      <c r="R201" s="52"/>
     </row>
     <row r="202" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="48"/>
-      <c r="B202" s="48"/>
-      <c r="C202" s="49"/>
-      <c r="D202" s="15" t="str">
+      <c r="A202" s="52"/>
+      <c r="B202" s="52"/>
+      <c r="C202" s="47"/>
+      <c r="D202" s="14" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E202" s="16"/>
+      <c r="E202" s="15"/>
       <c r="F202" s="6"/>
-      <c r="G202" s="25"/>
+      <c r="G202" s="24"/>
       <c r="H202" s="4"/>
       <c r="I202" s="8" t="str">
         <f t="shared" si="12"/>
@@ -8558,13 +8666,13 @@
       <c r="N202" s="10"/>
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
-      <c r="Q202" s="45"/>
-      <c r="R202" s="48"/>
+      <c r="Q202" s="54"/>
+      <c r="R202" s="52"/>
     </row>
     <row r="203" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="48"/>
-      <c r="B203" s="48"/>
-      <c r="C203" s="49"/>
+      <c r="A203" s="52"/>
+      <c r="B203" s="52"/>
+      <c r="C203" s="47"/>
       <c r="D203" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8593,13 +8701,13 @@
       <c r="N203" s="10"/>
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
-      <c r="Q203" s="45"/>
-      <c r="R203" s="48"/>
+      <c r="Q203" s="54"/>
+      <c r="R203" s="52"/>
     </row>
     <row r="204" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="48"/>
-      <c r="B204" s="48"/>
-      <c r="C204" s="49"/>
+      <c r="A204" s="52"/>
+      <c r="B204" s="52"/>
+      <c r="C204" s="47"/>
       <c r="D204" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8628,13 +8736,13 @@
       <c r="N204" s="10"/>
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
-      <c r="Q204" s="45"/>
-      <c r="R204" s="48"/>
+      <c r="Q204" s="54"/>
+      <c r="R204" s="52"/>
     </row>
     <row r="205" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="48"/>
-      <c r="B205" s="48"/>
-      <c r="C205" s="49"/>
+      <c r="A205" s="52"/>
+      <c r="B205" s="52"/>
+      <c r="C205" s="47"/>
       <c r="D205" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8663,13 +8771,13 @@
       <c r="N205" s="10"/>
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
-      <c r="Q205" s="45"/>
-      <c r="R205" s="48"/>
+      <c r="Q205" s="54"/>
+      <c r="R205" s="52"/>
     </row>
     <row r="206" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="48"/>
-      <c r="B206" s="48"/>
-      <c r="C206" s="49"/>
+      <c r="A206" s="52"/>
+      <c r="B206" s="52"/>
+      <c r="C206" s="47"/>
       <c r="D206" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8698,13 +8806,13 @@
       <c r="N206" s="10"/>
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
-      <c r="Q206" s="45"/>
-      <c r="R206" s="48"/>
+      <c r="Q206" s="54"/>
+      <c r="R206" s="52"/>
     </row>
     <row r="207" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="48"/>
-      <c r="B207" s="48"/>
-      <c r="C207" s="49"/>
+      <c r="A207" s="52"/>
+      <c r="B207" s="52"/>
+      <c r="C207" s="47"/>
       <c r="D207" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8733,13 +8841,13 @@
       <c r="N207" s="10"/>
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
-      <c r="Q207" s="45"/>
-      <c r="R207" s="48"/>
+      <c r="Q207" s="54"/>
+      <c r="R207" s="52"/>
     </row>
     <row r="208" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="48"/>
-      <c r="B208" s="48"/>
-      <c r="C208" s="49"/>
+      <c r="A208" s="52"/>
+      <c r="B208" s="52"/>
+      <c r="C208" s="47"/>
       <c r="D208" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8768,13 +8876,13 @@
       <c r="N208" s="10"/>
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
-      <c r="Q208" s="45"/>
-      <c r="R208" s="48"/>
+      <c r="Q208" s="54"/>
+      <c r="R208" s="52"/>
     </row>
     <row r="209" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="48"/>
-      <c r="B209" s="48"/>
-      <c r="C209" s="49"/>
+      <c r="A209" s="52"/>
+      <c r="B209" s="52"/>
+      <c r="C209" s="47"/>
       <c r="D209" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8803,13 +8911,13 @@
       <c r="N209" s="10"/>
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
-      <c r="Q209" s="45"/>
-      <c r="R209" s="48"/>
+      <c r="Q209" s="54"/>
+      <c r="R209" s="52"/>
     </row>
     <row r="210" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="48"/>
-      <c r="B210" s="48"/>
-      <c r="C210" s="49"/>
+      <c r="A210" s="52"/>
+      <c r="B210" s="52"/>
+      <c r="C210" s="47"/>
       <c r="D210" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8838,13 +8946,13 @@
       <c r="N210" s="10"/>
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
-      <c r="Q210" s="45"/>
-      <c r="R210" s="48"/>
+      <c r="Q210" s="54"/>
+      <c r="R210" s="52"/>
     </row>
     <row r="211" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="48"/>
-      <c r="B211" s="48"/>
-      <c r="C211" s="49"/>
+      <c r="A211" s="52"/>
+      <c r="B211" s="52"/>
+      <c r="C211" s="47"/>
       <c r="D211" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8873,13 +8981,13 @@
       <c r="N211" s="10"/>
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
-      <c r="Q211" s="45"/>
-      <c r="R211" s="48"/>
+      <c r="Q211" s="54"/>
+      <c r="R211" s="52"/>
     </row>
     <row r="212" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="48"/>
-      <c r="B212" s="48"/>
-      <c r="C212" s="49"/>
+      <c r="A212" s="52"/>
+      <c r="B212" s="52"/>
+      <c r="C212" s="47"/>
       <c r="D212" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8908,13 +9016,13 @@
       <c r="N212" s="10"/>
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
-      <c r="Q212" s="45"/>
-      <c r="R212" s="48"/>
+      <c r="Q212" s="54"/>
+      <c r="R212" s="52"/>
     </row>
     <row r="213" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="48"/>
-      <c r="B213" s="48"/>
-      <c r="C213" s="49"/>
+      <c r="A213" s="52"/>
+      <c r="B213" s="52"/>
+      <c r="C213" s="47"/>
       <c r="D213" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8943,13 +9051,13 @@
       <c r="N213" s="10"/>
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
-      <c r="Q213" s="46"/>
-      <c r="R213" s="48"/>
+      <c r="Q213" s="55"/>
+      <c r="R213" s="52"/>
     </row>
     <row r="214" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="18"/>
-      <c r="B214" s="44"/>
-      <c r="C214" s="47"/>
+      <c r="A214" s="17"/>
+      <c r="B214" s="53"/>
+      <c r="C214" s="56"/>
       <c r="D214" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8978,19 +9086,19 @@
       <c r="N214" s="10"/>
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
-      <c r="Q214" s="44"/>
-      <c r="R214" s="48"/>
+      <c r="Q214" s="53"/>
+      <c r="R214" s="52"/>
     </row>
     <row r="215" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="18"/>
-      <c r="B215" s="45"/>
-      <c r="C215" s="47"/>
+      <c r="A215" s="17"/>
+      <c r="B215" s="54"/>
+      <c r="C215" s="56"/>
       <c r="D215" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="E215" s="5"/>
-      <c r="F215" s="19"/>
+      <c r="F215" s="18"/>
       <c r="G215" s="10"/>
       <c r="H215" s="7"/>
       <c r="I215" s="8" t="str">
@@ -9013,13 +9121,13 @@
       <c r="N215" s="10"/>
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
-      <c r="Q215" s="45"/>
-      <c r="R215" s="48"/>
+      <c r="Q215" s="54"/>
+      <c r="R215" s="52"/>
     </row>
     <row r="216" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="18"/>
-      <c r="B216" s="45"/>
-      <c r="C216" s="47"/>
+      <c r="A216" s="17"/>
+      <c r="B216" s="54"/>
+      <c r="C216" s="56"/>
       <c r="D216" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9048,13 +9156,13 @@
       <c r="N216" s="10"/>
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
-      <c r="Q216" s="45"/>
-      <c r="R216" s="48"/>
+      <c r="Q216" s="54"/>
+      <c r="R216" s="52"/>
     </row>
     <row r="217" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="18"/>
-      <c r="B217" s="45"/>
-      <c r="C217" s="47"/>
+      <c r="A217" s="17"/>
+      <c r="B217" s="54"/>
+      <c r="C217" s="56"/>
       <c r="D217" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9083,18 +9191,18 @@
       <c r="N217" s="10"/>
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
-      <c r="Q217" s="45"/>
-      <c r="R217" s="48"/>
+      <c r="Q217" s="54"/>
+      <c r="R217" s="52"/>
     </row>
     <row r="218" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="18"/>
-      <c r="B218" s="45"/>
-      <c r="C218" s="47"/>
+      <c r="A218" s="17"/>
+      <c r="B218" s="54"/>
+      <c r="C218" s="56"/>
       <c r="D218" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E218" s="20"/>
+      <c r="E218" s="19"/>
       <c r="F218" s="12"/>
       <c r="G218" s="10"/>
       <c r="H218" s="7"/>
@@ -9118,13 +9226,13 @@
       <c r="N218" s="10"/>
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
-      <c r="Q218" s="45"/>
-      <c r="R218" s="48"/>
+      <c r="Q218" s="54"/>
+      <c r="R218" s="52"/>
     </row>
     <row r="219" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="18"/>
-      <c r="B219" s="45"/>
-      <c r="C219" s="47"/>
+      <c r="A219" s="17"/>
+      <c r="B219" s="54"/>
+      <c r="C219" s="56"/>
       <c r="D219" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9153,19 +9261,19 @@
       <c r="N219" s="10"/>
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
-      <c r="Q219" s="45"/>
-      <c r="R219" s="48"/>
+      <c r="Q219" s="54"/>
+      <c r="R219" s="52"/>
     </row>
     <row r="220" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="18"/>
-      <c r="B220" s="45"/>
-      <c r="C220" s="47"/>
+      <c r="A220" s="17"/>
+      <c r="B220" s="54"/>
+      <c r="C220" s="56"/>
       <c r="D220" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E220" s="21"/>
-      <c r="F220" s="22"/>
+      <c r="E220" s="20"/>
+      <c r="F220" s="21"/>
       <c r="G220" s="10"/>
       <c r="H220" s="7"/>
       <c r="I220" s="8" t="str">
@@ -9188,19 +9296,19 @@
       <c r="N220" s="10"/>
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
-      <c r="Q220" s="45"/>
-      <c r="R220" s="48"/>
+      <c r="Q220" s="54"/>
+      <c r="R220" s="52"/>
     </row>
     <row r="221" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="18"/>
-      <c r="B221" s="45"/>
-      <c r="C221" s="47"/>
+      <c r="A221" s="17"/>
+      <c r="B221" s="54"/>
+      <c r="C221" s="56"/>
       <c r="D221" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E221" s="21"/>
-      <c r="F221" s="22"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="21"/>
       <c r="G221" s="10"/>
       <c r="H221" s="7"/>
       <c r="I221" s="8" t="str">
@@ -9223,19 +9331,19 @@
       <c r="N221" s="10"/>
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
-      <c r="Q221" s="45"/>
-      <c r="R221" s="48"/>
+      <c r="Q221" s="54"/>
+      <c r="R221" s="52"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="18"/>
-      <c r="B222" s="45"/>
-      <c r="C222" s="47"/>
+      <c r="A222" s="17"/>
+      <c r="B222" s="54"/>
+      <c r="C222" s="56"/>
       <c r="D222" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E222" s="21"/>
-      <c r="F222" s="22"/>
+      <c r="E222" s="20"/>
+      <c r="F222" s="21"/>
       <c r="G222" s="10"/>
       <c r="H222" s="7"/>
       <c r="I222" s="8" t="str">
@@ -9258,19 +9366,19 @@
       <c r="N222" s="10"/>
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
-      <c r="Q222" s="45"/>
-      <c r="R222" s="48"/>
+      <c r="Q222" s="54"/>
+      <c r="R222" s="52"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="18"/>
-      <c r="B223" s="45"/>
-      <c r="C223" s="47"/>
+      <c r="A223" s="17"/>
+      <c r="B223" s="54"/>
+      <c r="C223" s="56"/>
       <c r="D223" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E223" s="21"/>
-      <c r="F223" s="22"/>
+      <c r="E223" s="20"/>
+      <c r="F223" s="21"/>
       <c r="G223" s="10"/>
       <c r="H223" s="7"/>
       <c r="I223" s="8" t="str">
@@ -9293,19 +9401,19 @@
       <c r="N223" s="10"/>
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
-      <c r="Q223" s="45"/>
-      <c r="R223" s="48"/>
+      <c r="Q223" s="54"/>
+      <c r="R223" s="52"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="18"/>
-      <c r="B224" s="45"/>
-      <c r="C224" s="47"/>
+      <c r="A224" s="17"/>
+      <c r="B224" s="54"/>
+      <c r="C224" s="56"/>
       <c r="D224" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E224" s="21"/>
-      <c r="F224" s="22"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="21"/>
       <c r="G224" s="10"/>
       <c r="H224" s="7"/>
       <c r="I224" s="8" t="str">
@@ -9328,19 +9436,19 @@
       <c r="N224" s="10"/>
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
-      <c r="Q224" s="45"/>
-      <c r="R224" s="48"/>
+      <c r="Q224" s="54"/>
+      <c r="R224" s="52"/>
     </row>
     <row r="225" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="18"/>
-      <c r="B225" s="45"/>
-      <c r="C225" s="47"/>
+      <c r="A225" s="17"/>
+      <c r="B225" s="54"/>
+      <c r="C225" s="56"/>
       <c r="D225" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E225" s="21"/>
-      <c r="F225" s="22"/>
+      <c r="E225" s="20"/>
+      <c r="F225" s="21"/>
       <c r="G225" s="10"/>
       <c r="H225" s="7"/>
       <c r="I225" s="8" t="str">
@@ -9363,19 +9471,19 @@
       <c r="N225" s="10"/>
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
-      <c r="Q225" s="45"/>
-      <c r="R225" s="48"/>
+      <c r="Q225" s="54"/>
+      <c r="R225" s="52"/>
     </row>
     <row r="226" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="18"/>
-      <c r="B226" s="45"/>
-      <c r="C226" s="47"/>
+      <c r="A226" s="17"/>
+      <c r="B226" s="54"/>
+      <c r="C226" s="56"/>
       <c r="D226" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E226" s="21"/>
-      <c r="F226" s="22"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="21"/>
       <c r="G226" s="10"/>
       <c r="H226" s="7"/>
       <c r="I226" s="8" t="str">
@@ -9398,19 +9506,19 @@
       <c r="N226" s="10"/>
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
-      <c r="Q226" s="45"/>
-      <c r="R226" s="48"/>
+      <c r="Q226" s="54"/>
+      <c r="R226" s="52"/>
     </row>
     <row r="227" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="18"/>
-      <c r="B227" s="45"/>
-      <c r="C227" s="47"/>
+      <c r="A227" s="17"/>
+      <c r="B227" s="54"/>
+      <c r="C227" s="56"/>
       <c r="D227" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E227" s="21"/>
-      <c r="F227" s="22"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="21"/>
       <c r="G227" s="10"/>
       <c r="H227" s="7"/>
       <c r="I227" s="8" t="str">
@@ -9433,19 +9541,19 @@
       <c r="N227" s="10"/>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
-      <c r="Q227" s="45"/>
-      <c r="R227" s="48"/>
+      <c r="Q227" s="54"/>
+      <c r="R227" s="52"/>
     </row>
     <row r="228" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="18"/>
-      <c r="B228" s="46"/>
-      <c r="C228" s="47"/>
+      <c r="A228" s="17"/>
+      <c r="B228" s="55"/>
+      <c r="C228" s="56"/>
       <c r="D228" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E228" s="21"/>
-      <c r="F228" s="22"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="21"/>
       <c r="G228" s="10"/>
       <c r="H228" s="7"/>
       <c r="I228" s="8" t="str">
@@ -9468,19 +9576,19 @@
       <c r="N228" s="10"/>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
-      <c r="Q228" s="46"/>
-      <c r="R228" s="48"/>
+      <c r="Q228" s="55"/>
+      <c r="R228" s="52"/>
     </row>
     <row r="229" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="18"/>
-      <c r="B229" s="44"/>
-      <c r="C229" s="47"/>
+      <c r="A229" s="17"/>
+      <c r="B229" s="53"/>
+      <c r="C229" s="56"/>
       <c r="D229" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E229" s="23"/>
-      <c r="F229" s="24"/>
+      <c r="E229" s="22"/>
+      <c r="F229" s="23"/>
       <c r="G229" s="10"/>
       <c r="H229" s="4"/>
       <c r="I229" s="8" t="str">
@@ -9502,20 +9610,20 @@
       </c>
       <c r="N229" s="10"/>
       <c r="O229" s="10"/>
-      <c r="P229" s="25"/>
-      <c r="Q229" s="44"/>
-      <c r="R229" s="48"/>
+      <c r="P229" s="24"/>
+      <c r="Q229" s="53"/>
+      <c r="R229" s="52"/>
     </row>
     <row r="230" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="18"/>
-      <c r="B230" s="45"/>
-      <c r="C230" s="47"/>
+      <c r="A230" s="17"/>
+      <c r="B230" s="54"/>
+      <c r="C230" s="56"/>
       <c r="D230" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E230" s="26"/>
-      <c r="F230" s="27"/>
+      <c r="E230" s="25"/>
+      <c r="F230" s="26"/>
       <c r="G230" s="10"/>
       <c r="H230" s="4"/>
       <c r="I230" s="8" t="str">
@@ -9537,14 +9645,14 @@
       </c>
       <c r="N230" s="10"/>
       <c r="O230" s="10"/>
-      <c r="P230" s="25"/>
-      <c r="Q230" s="45"/>
-      <c r="R230" s="48"/>
+      <c r="P230" s="24"/>
+      <c r="Q230" s="54"/>
+      <c r="R230" s="52"/>
     </row>
     <row r="231" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="18"/>
-      <c r="B231" s="45"/>
-      <c r="C231" s="47"/>
+      <c r="A231" s="17"/>
+      <c r="B231" s="54"/>
+      <c r="C231" s="56"/>
       <c r="D231" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9573,13 +9681,13 @@
       <c r="N231" s="10"/>
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
-      <c r="Q231" s="45"/>
-      <c r="R231" s="48"/>
+      <c r="Q231" s="54"/>
+      <c r="R231" s="52"/>
     </row>
     <row r="232" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="18"/>
-      <c r="B232" s="45"/>
-      <c r="C232" s="47"/>
+      <c r="A232" s="17"/>
+      <c r="B232" s="54"/>
+      <c r="C232" s="56"/>
       <c r="D232" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9608,18 +9716,18 @@
       <c r="N232" s="10"/>
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
-      <c r="Q232" s="45"/>
-      <c r="R232" s="48"/>
+      <c r="Q232" s="54"/>
+      <c r="R232" s="52"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="18"/>
-      <c r="B233" s="45"/>
-      <c r="C233" s="47"/>
+      <c r="A233" s="17"/>
+      <c r="B233" s="54"/>
+      <c r="C233" s="56"/>
       <c r="D233" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E233" s="20"/>
+      <c r="E233" s="19"/>
       <c r="F233" s="13"/>
       <c r="G233" s="10"/>
       <c r="H233" s="7"/>
@@ -9643,19 +9751,19 @@
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
-      <c r="Q233" s="45"/>
-      <c r="R233" s="48"/>
+      <c r="Q233" s="54"/>
+      <c r="R233" s="52"/>
     </row>
     <row r="234" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="18"/>
-      <c r="B234" s="45"/>
-      <c r="C234" s="47"/>
+      <c r="A234" s="17"/>
+      <c r="B234" s="54"/>
+      <c r="C234" s="56"/>
       <c r="D234" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E234" s="28"/>
-      <c r="F234" s="29"/>
+      <c r="E234" s="27"/>
+      <c r="F234" s="28"/>
       <c r="G234" s="10"/>
       <c r="H234" s="4"/>
       <c r="I234" s="8" t="str">
@@ -9678,19 +9786,19 @@
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
       <c r="P234" s="10"/>
-      <c r="Q234" s="45"/>
-      <c r="R234" s="48"/>
+      <c r="Q234" s="54"/>
+      <c r="R234" s="52"/>
     </row>
     <row r="235" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="18"/>
-      <c r="B235" s="45"/>
-      <c r="C235" s="47"/>
+      <c r="A235" s="17"/>
+      <c r="B235" s="54"/>
+      <c r="C235" s="56"/>
       <c r="D235" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E235" s="28"/>
-      <c r="F235" s="17"/>
+      <c r="E235" s="27"/>
+      <c r="F235" s="16"/>
       <c r="G235" s="10"/>
       <c r="H235" s="4"/>
       <c r="I235" s="8" t="str">
@@ -9713,19 +9821,19 @@
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
-      <c r="Q235" s="45"/>
-      <c r="R235" s="48"/>
+      <c r="Q235" s="54"/>
+      <c r="R235" s="52"/>
     </row>
     <row r="236" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="18"/>
-      <c r="B236" s="45"/>
-      <c r="C236" s="47"/>
+      <c r="A236" s="17"/>
+      <c r="B236" s="54"/>
+      <c r="C236" s="56"/>
       <c r="D236" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E236" s="21"/>
-      <c r="F236" s="22"/>
+      <c r="E236" s="20"/>
+      <c r="F236" s="21"/>
       <c r="G236" s="10"/>
       <c r="H236" s="7"/>
       <c r="I236" s="8" t="str">
@@ -9748,19 +9856,19 @@
       <c r="N236" s="10"/>
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
-      <c r="Q236" s="45"/>
-      <c r="R236" s="48"/>
+      <c r="Q236" s="54"/>
+      <c r="R236" s="52"/>
     </row>
     <row r="237" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="18"/>
-      <c r="B237" s="45"/>
-      <c r="C237" s="47"/>
+      <c r="A237" s="17"/>
+      <c r="B237" s="54"/>
+      <c r="C237" s="56"/>
       <c r="D237" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E237" s="21"/>
-      <c r="F237" s="22"/>
+      <c r="E237" s="20"/>
+      <c r="F237" s="21"/>
       <c r="G237" s="10"/>
       <c r="H237" s="7"/>
       <c r="I237" s="8" t="str">
@@ -9783,19 +9891,19 @@
       <c r="N237" s="10"/>
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
-      <c r="Q237" s="45"/>
-      <c r="R237" s="48"/>
+      <c r="Q237" s="54"/>
+      <c r="R237" s="52"/>
     </row>
     <row r="238" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="18"/>
-      <c r="B238" s="45"/>
-      <c r="C238" s="47"/>
+      <c r="A238" s="17"/>
+      <c r="B238" s="54"/>
+      <c r="C238" s="56"/>
       <c r="D238" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E238" s="21"/>
-      <c r="F238" s="22"/>
+      <c r="E238" s="20"/>
+      <c r="F238" s="21"/>
       <c r="G238" s="10"/>
       <c r="H238" s="7"/>
       <c r="I238" s="8" t="str">
@@ -9818,19 +9926,19 @@
       <c r="N238" s="10"/>
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
-      <c r="Q238" s="45"/>
-      <c r="R238" s="48"/>
+      <c r="Q238" s="54"/>
+      <c r="R238" s="52"/>
     </row>
     <row r="239" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="18"/>
-      <c r="B239" s="45"/>
-      <c r="C239" s="47"/>
+      <c r="A239" s="17"/>
+      <c r="B239" s="54"/>
+      <c r="C239" s="56"/>
       <c r="D239" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E239" s="21"/>
-      <c r="F239" s="22"/>
+      <c r="E239" s="20"/>
+      <c r="F239" s="21"/>
       <c r="G239" s="10"/>
       <c r="H239" s="7"/>
       <c r="I239" s="8" t="str">
@@ -9853,19 +9961,19 @@
       <c r="N239" s="10"/>
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
-      <c r="Q239" s="45"/>
-      <c r="R239" s="48"/>
+      <c r="Q239" s="54"/>
+      <c r="R239" s="52"/>
     </row>
     <row r="240" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="18"/>
-      <c r="B240" s="45"/>
-      <c r="C240" s="47"/>
+      <c r="A240" s="17"/>
+      <c r="B240" s="54"/>
+      <c r="C240" s="56"/>
       <c r="D240" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E240" s="21"/>
-      <c r="F240" s="22"/>
+      <c r="E240" s="20"/>
+      <c r="F240" s="21"/>
       <c r="G240" s="10"/>
       <c r="H240" s="7"/>
       <c r="I240" s="8" t="str">
@@ -9888,19 +9996,19 @@
       <c r="N240" s="10"/>
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
-      <c r="Q240" s="45"/>
-      <c r="R240" s="48"/>
+      <c r="Q240" s="54"/>
+      <c r="R240" s="52"/>
     </row>
     <row r="241" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="18"/>
-      <c r="B241" s="45"/>
-      <c r="C241" s="47"/>
+      <c r="A241" s="17"/>
+      <c r="B241" s="54"/>
+      <c r="C241" s="56"/>
       <c r="D241" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E241" s="21"/>
-      <c r="F241" s="22"/>
+      <c r="E241" s="20"/>
+      <c r="F241" s="21"/>
       <c r="G241" s="10"/>
       <c r="H241" s="7"/>
       <c r="I241" s="8" t="str">
@@ -9923,19 +10031,19 @@
       <c r="N241" s="10"/>
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
-      <c r="Q241" s="45"/>
-      <c r="R241" s="48"/>
+      <c r="Q241" s="54"/>
+      <c r="R241" s="52"/>
     </row>
     <row r="242" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="18"/>
-      <c r="B242" s="45"/>
-      <c r="C242" s="47"/>
+      <c r="A242" s="17"/>
+      <c r="B242" s="54"/>
+      <c r="C242" s="56"/>
       <c r="D242" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E242" s="21"/>
-      <c r="F242" s="22"/>
+      <c r="E242" s="20"/>
+      <c r="F242" s="21"/>
       <c r="G242" s="10"/>
       <c r="H242" s="7"/>
       <c r="I242" s="8" t="str">
@@ -9958,19 +10066,19 @@
       <c r="N242" s="10"/>
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
-      <c r="Q242" s="45"/>
-      <c r="R242" s="48"/>
+      <c r="Q242" s="54"/>
+      <c r="R242" s="52"/>
     </row>
     <row r="243" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="18"/>
-      <c r="B243" s="46"/>
-      <c r="C243" s="47"/>
+      <c r="A243" s="17"/>
+      <c r="B243" s="55"/>
+      <c r="C243" s="56"/>
       <c r="D243" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E243" s="21"/>
-      <c r="F243" s="22"/>
+      <c r="E243" s="20"/>
+      <c r="F243" s="21"/>
       <c r="G243" s="10"/>
       <c r="H243" s="7"/>
       <c r="I243" s="8" t="str">
@@ -9993,19 +10101,19 @@
       <c r="N243" s="10"/>
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
-      <c r="Q243" s="46"/>
-      <c r="R243" s="48"/>
+      <c r="Q243" s="55"/>
+      <c r="R243" s="52"/>
     </row>
     <row r="244" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="18"/>
-      <c r="B244" s="44"/>
-      <c r="C244" s="47"/>
+      <c r="A244" s="17"/>
+      <c r="B244" s="53"/>
+      <c r="C244" s="56"/>
       <c r="D244" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E244" s="23"/>
-      <c r="F244" s="19"/>
+      <c r="E244" s="22"/>
+      <c r="F244" s="18"/>
       <c r="G244" s="10"/>
       <c r="H244" s="7"/>
       <c r="I244" s="8" t="str">
@@ -10028,19 +10136,19 @@
       <c r="N244" s="10"/>
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
-      <c r="Q244" s="44"/>
-      <c r="R244" s="48"/>
+      <c r="Q244" s="53"/>
+      <c r="R244" s="52"/>
     </row>
     <row r="245" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="18"/>
-      <c r="B245" s="45"/>
-      <c r="C245" s="47"/>
+      <c r="A245" s="17"/>
+      <c r="B245" s="54"/>
+      <c r="C245" s="56"/>
       <c r="D245" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="E245" s="9"/>
-      <c r="F245" s="19"/>
+      <c r="F245" s="18"/>
       <c r="G245" s="10"/>
       <c r="H245" s="7"/>
       <c r="I245" s="8" t="str">
@@ -10063,19 +10171,19 @@
       <c r="N245" s="10"/>
       <c r="O245" s="10"/>
       <c r="P245" s="10"/>
-      <c r="Q245" s="45"/>
-      <c r="R245" s="48"/>
+      <c r="Q245" s="54"/>
+      <c r="R245" s="52"/>
     </row>
     <row r="246" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="18"/>
-      <c r="B246" s="45"/>
-      <c r="C246" s="47"/>
+      <c r="A246" s="17"/>
+      <c r="B246" s="54"/>
+      <c r="C246" s="56"/>
       <c r="D246" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E246" s="20"/>
-      <c r="F246" s="19"/>
+      <c r="E246" s="19"/>
+      <c r="F246" s="18"/>
       <c r="G246" s="10"/>
       <c r="H246" s="7"/>
       <c r="I246" s="8" t="str">
@@ -10098,19 +10206,19 @@
       <c r="N246" s="10"/>
       <c r="O246" s="10"/>
       <c r="P246" s="10"/>
-      <c r="Q246" s="45"/>
-      <c r="R246" s="48"/>
+      <c r="Q246" s="54"/>
+      <c r="R246" s="52"/>
     </row>
     <row r="247" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="18"/>
-      <c r="B247" s="45"/>
-      <c r="C247" s="47"/>
+      <c r="A247" s="17"/>
+      <c r="B247" s="54"/>
+      <c r="C247" s="56"/>
       <c r="D247" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E247" s="21"/>
-      <c r="F247" s="30"/>
+      <c r="E247" s="20"/>
+      <c r="F247" s="29"/>
       <c r="G247" s="10"/>
       <c r="H247" s="7"/>
       <c r="I247" s="8" t="str">
@@ -10133,19 +10241,19 @@
       <c r="N247" s="10"/>
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
-      <c r="Q247" s="45"/>
-      <c r="R247" s="48"/>
+      <c r="Q247" s="54"/>
+      <c r="R247" s="52"/>
     </row>
     <row r="248" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="18"/>
-      <c r="B248" s="45"/>
-      <c r="C248" s="47"/>
+      <c r="A248" s="17"/>
+      <c r="B248" s="54"/>
+      <c r="C248" s="56"/>
       <c r="D248" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E248" s="21"/>
-      <c r="F248" s="30"/>
+      <c r="E248" s="20"/>
+      <c r="F248" s="29"/>
       <c r="G248" s="10"/>
       <c r="H248" s="7"/>
       <c r="I248" s="8" t="str">
@@ -10168,19 +10276,19 @@
       <c r="N248" s="10"/>
       <c r="O248" s="10"/>
       <c r="P248" s="10"/>
-      <c r="Q248" s="45"/>
-      <c r="R248" s="48"/>
+      <c r="Q248" s="54"/>
+      <c r="R248" s="52"/>
     </row>
     <row r="249" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="18"/>
-      <c r="B249" s="45"/>
-      <c r="C249" s="47"/>
+      <c r="A249" s="17"/>
+      <c r="B249" s="54"/>
+      <c r="C249" s="56"/>
       <c r="D249" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E249" s="21"/>
-      <c r="F249" s="30"/>
+      <c r="E249" s="20"/>
+      <c r="F249" s="29"/>
       <c r="G249" s="10"/>
       <c r="H249" s="7"/>
       <c r="I249" s="8" t="str">
@@ -10203,19 +10311,19 @@
       <c r="N249" s="10"/>
       <c r="O249" s="10"/>
       <c r="P249" s="10"/>
-      <c r="Q249" s="45"/>
-      <c r="R249" s="48"/>
+      <c r="Q249" s="54"/>
+      <c r="R249" s="52"/>
     </row>
     <row r="250" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="18"/>
-      <c r="B250" s="45"/>
-      <c r="C250" s="47"/>
+      <c r="A250" s="17"/>
+      <c r="B250" s="54"/>
+      <c r="C250" s="56"/>
       <c r="D250" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E250" s="21"/>
-      <c r="F250" s="30"/>
+      <c r="E250" s="20"/>
+      <c r="F250" s="29"/>
       <c r="G250" s="10"/>
       <c r="H250" s="7"/>
       <c r="I250" s="8" t="str">
@@ -10238,19 +10346,19 @@
       <c r="N250" s="10"/>
       <c r="O250" s="10"/>
       <c r="P250" s="10"/>
-      <c r="Q250" s="45"/>
-      <c r="R250" s="48"/>
+      <c r="Q250" s="54"/>
+      <c r="R250" s="52"/>
     </row>
     <row r="251" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="18"/>
-      <c r="B251" s="45"/>
-      <c r="C251" s="47"/>
+      <c r="A251" s="17"/>
+      <c r="B251" s="54"/>
+      <c r="C251" s="56"/>
       <c r="D251" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E251" s="21"/>
-      <c r="F251" s="30"/>
+      <c r="E251" s="20"/>
+      <c r="F251" s="29"/>
       <c r="G251" s="10"/>
       <c r="H251" s="7"/>
       <c r="I251" s="8" t="str">
@@ -10273,19 +10381,19 @@
       <c r="N251" s="10"/>
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
-      <c r="Q251" s="45"/>
-      <c r="R251" s="48"/>
+      <c r="Q251" s="54"/>
+      <c r="R251" s="52"/>
     </row>
     <row r="252" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="18"/>
-      <c r="B252" s="45"/>
-      <c r="C252" s="47"/>
+      <c r="A252" s="17"/>
+      <c r="B252" s="54"/>
+      <c r="C252" s="56"/>
       <c r="D252" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E252" s="21"/>
-      <c r="F252" s="30"/>
+      <c r="E252" s="20"/>
+      <c r="F252" s="29"/>
       <c r="G252" s="10"/>
       <c r="H252" s="7"/>
       <c r="I252" s="8" t="str">
@@ -10308,19 +10416,19 @@
       <c r="N252" s="10"/>
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
-      <c r="Q252" s="45"/>
-      <c r="R252" s="48"/>
+      <c r="Q252" s="54"/>
+      <c r="R252" s="52"/>
     </row>
     <row r="253" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="18"/>
-      <c r="B253" s="45"/>
-      <c r="C253" s="47"/>
+      <c r="A253" s="17"/>
+      <c r="B253" s="54"/>
+      <c r="C253" s="56"/>
       <c r="D253" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E253" s="21"/>
-      <c r="F253" s="30"/>
+      <c r="E253" s="20"/>
+      <c r="F253" s="29"/>
       <c r="G253" s="10"/>
       <c r="H253" s="7"/>
       <c r="I253" s="8" t="str">
@@ -10343,19 +10451,19 @@
       <c r="N253" s="10"/>
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
-      <c r="Q253" s="45"/>
-      <c r="R253" s="48"/>
+      <c r="Q253" s="54"/>
+      <c r="R253" s="52"/>
     </row>
     <row r="254" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="18"/>
-      <c r="B254" s="45"/>
-      <c r="C254" s="47"/>
+      <c r="A254" s="17"/>
+      <c r="B254" s="54"/>
+      <c r="C254" s="56"/>
       <c r="D254" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E254" s="21"/>
-      <c r="F254" s="30"/>
+      <c r="E254" s="20"/>
+      <c r="F254" s="29"/>
       <c r="G254" s="10"/>
       <c r="H254" s="7"/>
       <c r="I254" s="8" t="str">
@@ -10378,19 +10486,19 @@
       <c r="N254" s="10"/>
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
-      <c r="Q254" s="45"/>
-      <c r="R254" s="48"/>
+      <c r="Q254" s="54"/>
+      <c r="R254" s="52"/>
     </row>
     <row r="255" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="18"/>
-      <c r="B255" s="45"/>
-      <c r="C255" s="47"/>
+      <c r="A255" s="17"/>
+      <c r="B255" s="54"/>
+      <c r="C255" s="56"/>
       <c r="D255" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E255" s="21"/>
-      <c r="F255" s="30"/>
+      <c r="E255" s="20"/>
+      <c r="F255" s="29"/>
       <c r="G255" s="10"/>
       <c r="H255" s="7"/>
       <c r="I255" s="8" t="str">
@@ -10413,19 +10521,19 @@
       <c r="N255" s="10"/>
       <c r="O255" s="10"/>
       <c r="P255" s="10"/>
-      <c r="Q255" s="45"/>
-      <c r="R255" s="48"/>
+      <c r="Q255" s="54"/>
+      <c r="R255" s="52"/>
     </row>
     <row r="256" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="18"/>
-      <c r="B256" s="45"/>
-      <c r="C256" s="47"/>
+      <c r="A256" s="17"/>
+      <c r="B256" s="54"/>
+      <c r="C256" s="56"/>
       <c r="D256" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E256" s="21"/>
-      <c r="F256" s="30"/>
+      <c r="E256" s="20"/>
+      <c r="F256" s="29"/>
       <c r="G256" s="10"/>
       <c r="H256" s="7"/>
       <c r="I256" s="8" t="str">
@@ -10448,19 +10556,19 @@
       <c r="N256" s="10"/>
       <c r="O256" s="10"/>
       <c r="P256" s="10"/>
-      <c r="Q256" s="45"/>
-      <c r="R256" s="48"/>
+      <c r="Q256" s="54"/>
+      <c r="R256" s="52"/>
     </row>
     <row r="257" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="18"/>
-      <c r="B257" s="45"/>
-      <c r="C257" s="47"/>
+      <c r="A257" s="17"/>
+      <c r="B257" s="54"/>
+      <c r="C257" s="56"/>
       <c r="D257" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E257" s="21"/>
-      <c r="F257" s="30"/>
+      <c r="E257" s="20"/>
+      <c r="F257" s="29"/>
       <c r="G257" s="10"/>
       <c r="H257" s="7"/>
       <c r="I257" s="8" t="str">
@@ -10483,26 +10591,26 @@
       <c r="N257" s="10"/>
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
-      <c r="Q257" s="45"/>
-      <c r="R257" s="48"/>
+      <c r="Q257" s="54"/>
+      <c r="R257" s="52"/>
     </row>
     <row r="258" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="18"/>
-      <c r="B258" s="46"/>
-      <c r="C258" s="47"/>
+      <c r="A258" s="17"/>
+      <c r="B258" s="55"/>
+      <c r="C258" s="56"/>
       <c r="D258" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E258" s="21"/>
-      <c r="F258" s="30"/>
-      <c r="G258" s="31"/>
-      <c r="H258" s="32"/>
-      <c r="I258" s="33" t="str">
+      <c r="E258" s="20"/>
+      <c r="F258" s="29"/>
+      <c r="G258" s="30"/>
+      <c r="H258" s="31"/>
+      <c r="I258" s="32" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="J258" s="33"/>
+      <c r="J258" s="32"/>
       <c r="K258" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10515,29 +10623,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N258" s="31"/>
-      <c r="O258" s="31"/>
-      <c r="P258" s="31"/>
-      <c r="Q258" s="46"/>
-      <c r="R258" s="48"/>
+      <c r="N258" s="30"/>
+      <c r="O258" s="30"/>
+      <c r="P258" s="30"/>
+      <c r="Q258" s="55"/>
+      <c r="R258" s="52"/>
     </row>
     <row r="259" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="18"/>
-      <c r="B259" s="44"/>
-      <c r="C259" s="47"/>
+      <c r="A259" s="17"/>
+      <c r="B259" s="53"/>
+      <c r="C259" s="56"/>
       <c r="D259" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E259" s="34"/>
-      <c r="F259" s="35"/>
+      <c r="E259" s="33"/>
+      <c r="F259" s="34"/>
       <c r="G259" s="10"/>
-      <c r="H259" s="32"/>
-      <c r="I259" s="33" t="str">
+      <c r="H259" s="31"/>
+      <c r="I259" s="32" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="J259" s="33"/>
+      <c r="J259" s="32"/>
       <c r="K259" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10550,29 +10658,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N259" s="31"/>
-      <c r="O259" s="31"/>
-      <c r="P259" s="31"/>
-      <c r="Q259" s="44"/>
-      <c r="R259" s="48"/>
+      <c r="N259" s="30"/>
+      <c r="O259" s="30"/>
+      <c r="P259" s="30"/>
+      <c r="Q259" s="53"/>
+      <c r="R259" s="52"/>
     </row>
     <row r="260" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="18"/>
-      <c r="B260" s="45"/>
-      <c r="C260" s="47"/>
+      <c r="A260" s="17"/>
+      <c r="B260" s="54"/>
+      <c r="C260" s="56"/>
       <c r="D260" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E260" s="34"/>
-      <c r="F260" s="35"/>
+      <c r="E260" s="33"/>
+      <c r="F260" s="34"/>
       <c r="G260" s="10"/>
-      <c r="H260" s="32"/>
-      <c r="I260" s="33" t="str">
+      <c r="H260" s="31"/>
+      <c r="I260" s="32" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="J260" s="33"/>
+      <c r="J260" s="32"/>
       <c r="K260" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10585,29 +10693,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N260" s="31"/>
-      <c r="O260" s="31"/>
-      <c r="P260" s="31"/>
-      <c r="Q260" s="45"/>
-      <c r="R260" s="48"/>
+      <c r="N260" s="30"/>
+      <c r="O260" s="30"/>
+      <c r="P260" s="30"/>
+      <c r="Q260" s="54"/>
+      <c r="R260" s="52"/>
     </row>
     <row r="261" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="18"/>
-      <c r="B261" s="45"/>
-      <c r="C261" s="47"/>
+      <c r="A261" s="17"/>
+      <c r="B261" s="54"/>
+      <c r="C261" s="56"/>
       <c r="D261" s="4" t="str">
         <f t="shared" ref="D261:D273" si="15">IF(LEN(E261)&gt;5,IF(LEN(K261&amp;L261&amp;M261)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
       </c>
-      <c r="E261" s="34"/>
-      <c r="F261" s="35"/>
+      <c r="E261" s="33"/>
+      <c r="F261" s="34"/>
       <c r="G261" s="10"/>
-      <c r="H261" s="32"/>
-      <c r="I261" s="33" t="str">
+      <c r="H261" s="31"/>
+      <c r="I261" s="32" t="str">
         <f t="shared" ref="I261:I273" si="16">IF(MID(H261,2,1)=":",LEFT(H261,1),"-")</f>
         <v>-</v>
       </c>
-      <c r="J261" s="33"/>
+      <c r="J261" s="32"/>
       <c r="K261" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10620,29 +10728,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N261" s="31"/>
-      <c r="O261" s="31"/>
-      <c r="P261" s="31"/>
-      <c r="Q261" s="45"/>
-      <c r="R261" s="48"/>
+      <c r="N261" s="30"/>
+      <c r="O261" s="30"/>
+      <c r="P261" s="30"/>
+      <c r="Q261" s="54"/>
+      <c r="R261" s="52"/>
     </row>
     <row r="262" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="18"/>
-      <c r="B262" s="45"/>
-      <c r="C262" s="47"/>
+      <c r="A262" s="17"/>
+      <c r="B262" s="54"/>
+      <c r="C262" s="56"/>
       <c r="D262" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E262" s="34"/>
-      <c r="F262" s="35"/>
+      <c r="E262" s="33"/>
+      <c r="F262" s="34"/>
       <c r="G262" s="10"/>
-      <c r="H262" s="32"/>
-      <c r="I262" s="33" t="str">
+      <c r="H262" s="31"/>
+      <c r="I262" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J262" s="33"/>
+      <c r="J262" s="32"/>
       <c r="K262" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10655,29 +10763,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N262" s="31"/>
-      <c r="O262" s="31"/>
-      <c r="P262" s="31"/>
-      <c r="Q262" s="45"/>
-      <c r="R262" s="48"/>
+      <c r="N262" s="30"/>
+      <c r="O262" s="30"/>
+      <c r="P262" s="30"/>
+      <c r="Q262" s="54"/>
+      <c r="R262" s="52"/>
     </row>
     <row r="263" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="18"/>
-      <c r="B263" s="45"/>
-      <c r="C263" s="47"/>
+      <c r="A263" s="17"/>
+      <c r="B263" s="54"/>
+      <c r="C263" s="56"/>
       <c r="D263" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E263" s="20"/>
+      <c r="E263" s="19"/>
       <c r="F263" s="13"/>
       <c r="G263" s="10"/>
-      <c r="H263" s="32"/>
-      <c r="I263" s="33" t="str">
+      <c r="H263" s="31"/>
+      <c r="I263" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J263" s="33"/>
+      <c r="J263" s="32"/>
       <c r="K263" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10690,29 +10798,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N263" s="31"/>
-      <c r="O263" s="31"/>
-      <c r="P263" s="31"/>
-      <c r="Q263" s="45"/>
-      <c r="R263" s="48"/>
+      <c r="N263" s="30"/>
+      <c r="O263" s="30"/>
+      <c r="P263" s="30"/>
+      <c r="Q263" s="54"/>
+      <c r="R263" s="52"/>
     </row>
     <row r="264" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="18"/>
-      <c r="B264" s="45"/>
-      <c r="C264" s="47"/>
+      <c r="A264" s="17"/>
+      <c r="B264" s="54"/>
+      <c r="C264" s="56"/>
       <c r="D264" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E264" s="36"/>
+      <c r="E264" s="35"/>
       <c r="F264" s="13"/>
       <c r="G264" s="10"/>
-      <c r="H264" s="32"/>
-      <c r="I264" s="33" t="str">
+      <c r="H264" s="31"/>
+      <c r="I264" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J264" s="33"/>
+      <c r="J264" s="32"/>
       <c r="K264" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10725,29 +10833,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N264" s="31"/>
-      <c r="O264" s="31"/>
-      <c r="P264" s="31"/>
-      <c r="Q264" s="45"/>
-      <c r="R264" s="48"/>
+      <c r="N264" s="30"/>
+      <c r="O264" s="30"/>
+      <c r="P264" s="30"/>
+      <c r="Q264" s="54"/>
+      <c r="R264" s="52"/>
     </row>
     <row r="265" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="18"/>
-      <c r="B265" s="45"/>
-      <c r="C265" s="47"/>
+      <c r="A265" s="17"/>
+      <c r="B265" s="54"/>
+      <c r="C265" s="56"/>
       <c r="D265" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E265" s="20"/>
+      <c r="E265" s="19"/>
       <c r="F265" s="13"/>
       <c r="G265" s="10"/>
-      <c r="H265" s="32"/>
-      <c r="I265" s="33" t="str">
+      <c r="H265" s="31"/>
+      <c r="I265" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J265" s="33"/>
+      <c r="J265" s="32"/>
       <c r="K265" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10760,29 +10868,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N265" s="31"/>
-      <c r="O265" s="31"/>
-      <c r="P265" s="31"/>
-      <c r="Q265" s="45"/>
-      <c r="R265" s="48"/>
+      <c r="N265" s="30"/>
+      <c r="O265" s="30"/>
+      <c r="P265" s="30"/>
+      <c r="Q265" s="54"/>
+      <c r="R265" s="52"/>
     </row>
     <row r="266" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="18"/>
-      <c r="B266" s="45"/>
-      <c r="C266" s="47"/>
+      <c r="A266" s="17"/>
+      <c r="B266" s="54"/>
+      <c r="C266" s="56"/>
       <c r="D266" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E266" s="20"/>
+      <c r="E266" s="19"/>
       <c r="F266" s="13"/>
       <c r="G266" s="10"/>
-      <c r="H266" s="32"/>
-      <c r="I266" s="33" t="str">
+      <c r="H266" s="31"/>
+      <c r="I266" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J266" s="33"/>
+      <c r="J266" s="32"/>
       <c r="K266" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10795,28 +10903,28 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N266" s="31"/>
-      <c r="P266" s="31"/>
-      <c r="Q266" s="45"/>
-      <c r="R266" s="48"/>
+      <c r="N266" s="30"/>
+      <c r="P266" s="30"/>
+      <c r="Q266" s="54"/>
+      <c r="R266" s="52"/>
     </row>
     <row r="267" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="18"/>
-      <c r="B267" s="45"/>
-      <c r="C267" s="47"/>
+      <c r="A267" s="17"/>
+      <c r="B267" s="54"/>
+      <c r="C267" s="56"/>
       <c r="D267" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E267" s="37"/>
-      <c r="F267" s="30"/>
+      <c r="E267" s="36"/>
+      <c r="F267" s="29"/>
       <c r="G267" s="10"/>
-      <c r="H267" s="32"/>
-      <c r="I267" s="33" t="str">
+      <c r="H267" s="31"/>
+      <c r="I267" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J267" s="33"/>
+      <c r="J267" s="32"/>
       <c r="K267" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10829,29 +10937,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N267" s="31"/>
-      <c r="O267" s="31"/>
-      <c r="P267" s="31"/>
-      <c r="Q267" s="45"/>
-      <c r="R267" s="48"/>
+      <c r="N267" s="30"/>
+      <c r="O267" s="30"/>
+      <c r="P267" s="30"/>
+      <c r="Q267" s="54"/>
+      <c r="R267" s="52"/>
     </row>
     <row r="268" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="18"/>
-      <c r="B268" s="45"/>
-      <c r="C268" s="47"/>
+      <c r="A268" s="17"/>
+      <c r="B268" s="54"/>
+      <c r="C268" s="56"/>
       <c r="D268" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E268" s="37"/>
-      <c r="F268" s="30"/>
+      <c r="E268" s="36"/>
+      <c r="F268" s="29"/>
       <c r="G268" s="10"/>
-      <c r="H268" s="32"/>
-      <c r="I268" s="33" t="str">
+      <c r="H268" s="31"/>
+      <c r="I268" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J268" s="33"/>
+      <c r="J268" s="32"/>
       <c r="K268" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10864,29 +10972,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N268" s="31"/>
-      <c r="O268" s="31"/>
-      <c r="P268" s="31"/>
-      <c r="Q268" s="45"/>
-      <c r="R268" s="48"/>
+      <c r="N268" s="30"/>
+      <c r="O268" s="30"/>
+      <c r="P268" s="30"/>
+      <c r="Q268" s="54"/>
+      <c r="R268" s="52"/>
     </row>
     <row r="269" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A269" s="18"/>
-      <c r="B269" s="45"/>
-      <c r="C269" s="47"/>
+      <c r="A269" s="17"/>
+      <c r="B269" s="54"/>
+      <c r="C269" s="56"/>
       <c r="D269" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E269" s="37"/>
-      <c r="F269" s="30"/>
+      <c r="E269" s="36"/>
+      <c r="F269" s="29"/>
       <c r="G269" s="10"/>
-      <c r="H269" s="32"/>
-      <c r="I269" s="33" t="str">
+      <c r="H269" s="31"/>
+      <c r="I269" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J269" s="33"/>
+      <c r="J269" s="32"/>
       <c r="K269" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10899,29 +11007,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N269" s="31"/>
-      <c r="O269" s="31"/>
-      <c r="P269" s="31"/>
-      <c r="Q269" s="45"/>
-      <c r="R269" s="48"/>
+      <c r="N269" s="30"/>
+      <c r="O269" s="30"/>
+      <c r="P269" s="30"/>
+      <c r="Q269" s="54"/>
+      <c r="R269" s="52"/>
     </row>
     <row r="270" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="18"/>
-      <c r="B270" s="45"/>
-      <c r="C270" s="47"/>
+      <c r="A270" s="17"/>
+      <c r="B270" s="54"/>
+      <c r="C270" s="56"/>
       <c r="D270" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E270" s="37"/>
-      <c r="F270" s="30"/>
+      <c r="E270" s="36"/>
+      <c r="F270" s="29"/>
       <c r="G270" s="10"/>
-      <c r="H270" s="32"/>
-      <c r="I270" s="33" t="str">
+      <c r="H270" s="31"/>
+      <c r="I270" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J270" s="33"/>
+      <c r="J270" s="32"/>
       <c r="K270" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10934,29 +11042,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N270" s="31"/>
-      <c r="O270" s="31"/>
-      <c r="P270" s="31"/>
-      <c r="Q270" s="45"/>
-      <c r="R270" s="48"/>
+      <c r="N270" s="30"/>
+      <c r="O270" s="30"/>
+      <c r="P270" s="30"/>
+      <c r="Q270" s="54"/>
+      <c r="R270" s="52"/>
     </row>
     <row r="271" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="18"/>
-      <c r="B271" s="45"/>
-      <c r="C271" s="47"/>
+      <c r="A271" s="17"/>
+      <c r="B271" s="54"/>
+      <c r="C271" s="56"/>
       <c r="D271" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E271" s="21"/>
-      <c r="F271" s="30"/>
+      <c r="E271" s="20"/>
+      <c r="F271" s="29"/>
       <c r="G271" s="10"/>
-      <c r="H271" s="32"/>
-      <c r="I271" s="33" t="str">
+      <c r="H271" s="31"/>
+      <c r="I271" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J271" s="33"/>
+      <c r="J271" s="32"/>
       <c r="K271" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -10969,29 +11077,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N271" s="31"/>
-      <c r="O271" s="31"/>
-      <c r="P271" s="31"/>
-      <c r="Q271" s="45"/>
-      <c r="R271" s="48"/>
+      <c r="N271" s="30"/>
+      <c r="O271" s="30"/>
+      <c r="P271" s="30"/>
+      <c r="Q271" s="54"/>
+      <c r="R271" s="52"/>
     </row>
     <row r="272" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="18"/>
-      <c r="B272" s="45"/>
-      <c r="C272" s="47"/>
+      <c r="A272" s="17"/>
+      <c r="B272" s="54"/>
+      <c r="C272" s="56"/>
       <c r="D272" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E272" s="21"/>
-      <c r="F272" s="30"/>
+      <c r="E272" s="20"/>
+      <c r="F272" s="29"/>
       <c r="G272" s="10"/>
-      <c r="H272" s="32"/>
-      <c r="I272" s="33" t="str">
+      <c r="H272" s="31"/>
+      <c r="I272" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J272" s="33"/>
+      <c r="J272" s="32"/>
       <c r="K272" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11004,29 +11112,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N272" s="31"/>
-      <c r="O272" s="31"/>
-      <c r="P272" s="31"/>
-      <c r="Q272" s="45"/>
-      <c r="R272" s="48"/>
+      <c r="N272" s="30"/>
+      <c r="O272" s="30"/>
+      <c r="P272" s="30"/>
+      <c r="Q272" s="54"/>
+      <c r="R272" s="52"/>
     </row>
     <row r="273" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="38"/>
-      <c r="B273" s="46"/>
-      <c r="C273" s="47"/>
+      <c r="A273" s="37"/>
+      <c r="B273" s="55"/>
+      <c r="C273" s="56"/>
       <c r="D273" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="E273" s="21"/>
-      <c r="F273" s="22"/>
+      <c r="E273" s="20"/>
+      <c r="F273" s="21"/>
       <c r="G273" s="10"/>
-      <c r="H273" s="32"/>
-      <c r="I273" s="33" t="str">
+      <c r="H273" s="31"/>
+      <c r="I273" s="32" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="J273" s="33"/>
+      <c r="J273" s="32"/>
       <c r="K273" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -11039,60 +11147,60 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N273" s="31"/>
-      <c r="O273" s="31"/>
-      <c r="P273" s="31"/>
-      <c r="Q273" s="46"/>
-      <c r="R273" s="48"/>
+      <c r="N273" s="30"/>
+      <c r="O273" s="30"/>
+      <c r="P273" s="30"/>
+      <c r="Q273" s="55"/>
+      <c r="R273" s="52"/>
     </row>
     <row r="274" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G274" s="39"/>
-      <c r="H274" s="32"/>
-      <c r="I274" s="33"/>
-      <c r="J274" s="33"/>
-      <c r="K274" s="31"/>
-      <c r="L274" s="31"/>
-      <c r="M274" s="31"/>
-      <c r="N274" s="31"/>
-      <c r="O274" s="31"/>
-      <c r="P274" s="31"/>
-      <c r="Q274" s="40"/>
-      <c r="R274" s="41"/>
+      <c r="G274" s="38"/>
+      <c r="H274" s="31"/>
+      <c r="I274" s="32"/>
+      <c r="J274" s="32"/>
+      <c r="K274" s="30"/>
+      <c r="L274" s="30"/>
+      <c r="M274" s="30"/>
+      <c r="N274" s="30"/>
+      <c r="O274" s="30"/>
+      <c r="P274" s="30"/>
+      <c r="Q274" s="39"/>
+      <c r="R274" s="40"/>
     </row>
     <row r="275" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B275" s="42"/>
-      <c r="C275" s="42"/>
-      <c r="D275" s="42"/>
-      <c r="E275" s="43"/>
-      <c r="G275" s="35"/>
-      <c r="H275" s="32"/>
-      <c r="I275" s="33"/>
-      <c r="J275" s="33"/>
-      <c r="K275" s="31"/>
-      <c r="L275" s="31"/>
-      <c r="M275" s="31"/>
-      <c r="N275" s="31"/>
-      <c r="O275" s="31"/>
-      <c r="P275" s="31"/>
-      <c r="Q275" s="40"/>
-      <c r="R275" s="41"/>
+      <c r="A275" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B275" s="41"/>
+      <c r="C275" s="41"/>
+      <c r="D275" s="41"/>
+      <c r="E275" s="42"/>
+      <c r="G275" s="34"/>
+      <c r="H275" s="31"/>
+      <c r="I275" s="32"/>
+      <c r="J275" s="32"/>
+      <c r="K275" s="30"/>
+      <c r="L275" s="30"/>
+      <c r="M275" s="30"/>
+      <c r="N275" s="30"/>
+      <c r="O275" s="30"/>
+      <c r="P275" s="30"/>
+      <c r="Q275" s="39"/>
+      <c r="R275" s="40"/>
     </row>
     <row r="276" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G276" s="35"/>
-      <c r="H276" s="32"/>
-      <c r="I276" s="33"/>
-      <c r="J276" s="33"/>
-      <c r="K276" s="31"/>
-      <c r="L276" s="31"/>
-      <c r="M276" s="31"/>
-      <c r="N276" s="31"/>
-      <c r="O276" s="31"/>
-      <c r="P276" s="31"/>
-      <c r="Q276" s="40"/>
-      <c r="R276" s="41"/>
+      <c r="G276" s="34"/>
+      <c r="H276" s="31"/>
+      <c r="I276" s="32"/>
+      <c r="J276" s="32"/>
+      <c r="K276" s="30"/>
+      <c r="L276" s="30"/>
+      <c r="M276" s="30"/>
+      <c r="N276" s="30"/>
+      <c r="O276" s="30"/>
+      <c r="P276" s="30"/>
+      <c r="Q276" s="39"/>
+      <c r="R276" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P273">
@@ -11103,6 +11211,50 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="60">
+    <mergeCell ref="Q229:Q243"/>
+    <mergeCell ref="B244:B258"/>
+    <mergeCell ref="C244:C258"/>
+    <mergeCell ref="Q244:Q258"/>
+    <mergeCell ref="B259:B273"/>
+    <mergeCell ref="C259:C273"/>
+    <mergeCell ref="Q259:Q273"/>
+    <mergeCell ref="A124:A213"/>
+    <mergeCell ref="B124:B138"/>
+    <mergeCell ref="C124:C138"/>
+    <mergeCell ref="Q124:Q138"/>
+    <mergeCell ref="B139:B153"/>
+    <mergeCell ref="C139:C153"/>
+    <mergeCell ref="Q139:Q153"/>
+    <mergeCell ref="B154:B168"/>
+    <mergeCell ref="C154:C168"/>
+    <mergeCell ref="Q154:Q168"/>
+    <mergeCell ref="B184:B198"/>
+    <mergeCell ref="C184:C198"/>
+    <mergeCell ref="Q184:Q198"/>
+    <mergeCell ref="B199:B213"/>
+    <mergeCell ref="C199:C213"/>
+    <mergeCell ref="Q199:Q213"/>
+    <mergeCell ref="Q79:Q93"/>
+    <mergeCell ref="B94:B108"/>
+    <mergeCell ref="C94:C108"/>
+    <mergeCell ref="Q94:Q108"/>
+    <mergeCell ref="R94:R273"/>
+    <mergeCell ref="B109:B123"/>
+    <mergeCell ref="C109:C123"/>
+    <mergeCell ref="Q109:Q123"/>
+    <mergeCell ref="B169:B183"/>
+    <mergeCell ref="C169:C183"/>
+    <mergeCell ref="Q169:Q183"/>
+    <mergeCell ref="B214:B228"/>
+    <mergeCell ref="C214:C228"/>
+    <mergeCell ref="Q214:Q228"/>
+    <mergeCell ref="B229:B243"/>
+    <mergeCell ref="C229:C243"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A33"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="Q4:Q18"/>
     <mergeCell ref="R4:R93"/>
     <mergeCell ref="B19:B33"/>
     <mergeCell ref="C19:C33"/>
@@ -11119,124 +11271,80 @@
     <mergeCell ref="Q64:Q78"/>
     <mergeCell ref="B79:B93"/>
     <mergeCell ref="C79:C93"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A33"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="Q4:Q18"/>
-    <mergeCell ref="Q79:Q93"/>
-    <mergeCell ref="B94:B108"/>
-    <mergeCell ref="C94:C108"/>
-    <mergeCell ref="Q94:Q108"/>
-    <mergeCell ref="R94:R273"/>
-    <mergeCell ref="B109:B123"/>
-    <mergeCell ref="C109:C123"/>
-    <mergeCell ref="Q109:Q123"/>
-    <mergeCell ref="B169:B183"/>
-    <mergeCell ref="C169:C183"/>
-    <mergeCell ref="Q169:Q183"/>
-    <mergeCell ref="B214:B228"/>
-    <mergeCell ref="C214:C228"/>
-    <mergeCell ref="Q214:Q228"/>
-    <mergeCell ref="B229:B243"/>
-    <mergeCell ref="C229:C243"/>
-    <mergeCell ref="A124:A213"/>
-    <mergeCell ref="B124:B138"/>
-    <mergeCell ref="C124:C138"/>
-    <mergeCell ref="Q124:Q138"/>
-    <mergeCell ref="B139:B153"/>
-    <mergeCell ref="C139:C153"/>
-    <mergeCell ref="Q139:Q153"/>
-    <mergeCell ref="B154:B168"/>
-    <mergeCell ref="C154:C168"/>
-    <mergeCell ref="Q154:Q168"/>
-    <mergeCell ref="B184:B198"/>
-    <mergeCell ref="C184:C198"/>
-    <mergeCell ref="Q184:Q198"/>
-    <mergeCell ref="B199:B213"/>
-    <mergeCell ref="C199:C213"/>
-    <mergeCell ref="Q199:Q213"/>
-    <mergeCell ref="Q229:Q243"/>
-    <mergeCell ref="B244:B258"/>
-    <mergeCell ref="C244:C258"/>
-    <mergeCell ref="Q244:Q258"/>
-    <mergeCell ref="B259:B273"/>
-    <mergeCell ref="C259:C273"/>
-    <mergeCell ref="Q259:Q273"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J276">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="17" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G258">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="15" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="16" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H276">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="12" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N266 N4:Q265">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>N4="FM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274:R276">
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="6" stopIfTrue="1">
       <formula>R274="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="7" stopIfTrue="1">
       <formula>R274="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N266 N4:Q265">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="8" stopIfTrue="1">
       <formula>N4="DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N266 N4:Q265">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="9" stopIfTrue="1">
       <formula>N4="PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N266 N4:Q265">
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="10" stopIfTrue="1">
       <formula>N4="LM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R273">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D273">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G259:G273">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>G259="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>G259="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11260,52 +11368,50 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
     <hyperlink ref="E20" r:id="rId2"/>
-    <hyperlink ref="E64" r:id="rId3"/>
-    <hyperlink ref="E79" r:id="rId4"/>
-    <hyperlink ref="E94" r:id="rId5"/>
-    <hyperlink ref="E95" r:id="rId6"/>
-    <hyperlink ref="E109" r:id="rId7" location="OLE_LINK7_x0009_1,4668,4720,2,,Corrective Actions (Design and I" display="Corrective Actions (Design and Implementation Phase)"/>
-    <hyperlink ref="E110" r:id="rId8"/>
-    <hyperlink ref="E154" r:id="rId9"/>
-    <hyperlink ref="E155" r:id="rId10"/>
-    <hyperlink ref="E169" r:id="rId11" location="OLE_LINK6_x0009_1,28733,28762,2,,Measurement and Analysis Plan" display="Measurement and Analysis Plan"/>
-    <hyperlink ref="E184" r:id="rId12" location="OLE_LINK7_x0009_1,4668,4720,2,,Corrective Actions (Design and I" display="Corrective Actions (Design and Implementation Phase)"/>
-    <hyperlink ref="E185" r:id="rId13"/>
-    <hyperlink ref="E35" r:id="rId14"/>
-    <hyperlink ref="E124" r:id="rId15" location="OLE_LINK6_x0009_1,28733,28762,2,,Measurement and Analysis Plan" display="Measurement and Analysis Plan"/>
-    <hyperlink ref="E125" r:id="rId16" location="OLE_LINK6_x0009_1,28733,28762,2,,Measurement and Analysis Plan" display="Measurement and Analysis Plan"/>
-    <hyperlink ref="E139" r:id="rId17" location="OLE_LINK6_x0009_1,28733,28762,2,,Measurement and Analysis Plan" display="Measurement and Analysis Plan"/>
-    <hyperlink ref="E140" r:id="rId18" location="OLE_LINK6_x0009_1,28733,28762,2,,Measurement and Analysis Plan" display="Measurement and Analysis Plan"/>
-    <hyperlink ref="E170" r:id="rId19"/>
-    <hyperlink ref="E65" r:id="rId20"/>
-    <hyperlink ref="E80" r:id="rId21"/>
-    <hyperlink ref="E112" r:id="rId22" location="OLE_LINK1_x0009_1,13538,13579,1,,Action Plans for implementing su" display="Action Plans for implementing suggestions"/>
-    <hyperlink ref="E96" r:id="rId23"/>
-    <hyperlink ref="E97" r:id="rId24" display="ORG_Measurement Repository"/>
-    <hyperlink ref="E126" r:id="rId25"/>
-    <hyperlink ref="E141" r:id="rId26"/>
-    <hyperlink ref="E142" r:id="rId27"/>
-    <hyperlink ref="E156" r:id="rId28"/>
-    <hyperlink ref="E171" r:id="rId29"/>
-    <hyperlink ref="E172" r:id="rId30" display="ORG_Measurement Repository"/>
-    <hyperlink ref="E201" r:id="rId31"/>
-    <hyperlink ref="E21" r:id="rId32"/>
-    <hyperlink ref="E81" r:id="rId33"/>
-    <hyperlink ref="E111" r:id="rId34"/>
-    <hyperlink ref="E186" r:id="rId35"/>
-    <hyperlink ref="E200" r:id="rId36" display="Mail to PEG"/>
-    <hyperlink ref="E199" r:id="rId37"/>
-    <hyperlink ref="E5" r:id="rId38"/>
-    <hyperlink ref="E19" r:id="rId39"/>
-    <hyperlink ref="E6" r:id="rId40"/>
-    <hyperlink ref="E34" r:id="rId41"/>
-    <hyperlink ref="E36" r:id="rId42"/>
-    <hyperlink ref="E49" r:id="rId43"/>
-    <hyperlink ref="E50" r:id="rId44"/>
-    <hyperlink ref="E51" r:id="rId45"/>
+    <hyperlink ref="E109" r:id="rId3"/>
+    <hyperlink ref="E110" r:id="rId4"/>
+    <hyperlink ref="E35" r:id="rId5"/>
+    <hyperlink ref="E80" r:id="rId6"/>
+    <hyperlink ref="E21" r:id="rId7"/>
+    <hyperlink ref="E200" r:id="rId8"/>
+    <hyperlink ref="E199" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId10"/>
+    <hyperlink ref="E19" r:id="rId11"/>
+    <hyperlink ref="E6" r:id="rId12"/>
+    <hyperlink ref="E34" r:id="rId13"/>
+    <hyperlink ref="E36" r:id="rId14"/>
+    <hyperlink ref="E49" r:id="rId15"/>
+    <hyperlink ref="E50" r:id="rId16"/>
+    <hyperlink ref="E51" r:id="rId17"/>
+    <hyperlink ref="E64" r:id="rId18"/>
+    <hyperlink ref="E65" r:id="rId19"/>
+    <hyperlink ref="E66" r:id="rId20"/>
+    <hyperlink ref="E79" r:id="rId21"/>
+    <hyperlink ref="E67" r:id="rId22"/>
+    <hyperlink ref="E68" r:id="rId23"/>
+    <hyperlink ref="E97" r:id="rId24" display="ORG_BOTOPO"/>
+    <hyperlink ref="E94" r:id="rId25"/>
+    <hyperlink ref="E95" r:id="rId26"/>
+    <hyperlink ref="E124" r:id="rId27"/>
+    <hyperlink ref="E126" r:id="rId28"/>
+    <hyperlink ref="E139" r:id="rId29"/>
+    <hyperlink ref="E140" r:id="rId30"/>
+    <hyperlink ref="E141" r:id="rId31"/>
+    <hyperlink ref="E154" r:id="rId32"/>
+    <hyperlink ref="E155" r:id="rId33"/>
+    <hyperlink ref="E156" r:id="rId34"/>
+    <hyperlink ref="E157" r:id="rId35"/>
+    <hyperlink ref="E158" r:id="rId36"/>
+    <hyperlink ref="E172" r:id="rId37" display="ORG_BOTOPO"/>
+    <hyperlink ref="E169" r:id="rId38"/>
+    <hyperlink ref="E170" r:id="rId39"/>
+    <hyperlink ref="E185" r:id="rId40"/>
+    <hyperlink ref="E184" r:id="rId41"/>
+    <hyperlink ref="E186" r:id="rId42"/>
+    <hyperlink ref="E201" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;P&amp;R&amp;A</oddHeader>
   </headerFooter>

--- a/PIID/MPM.xlsx
+++ b/PIID/MPM.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="85">
   <si>
     <t>MPM</t>
   </si>
@@ -271,18 +271,6 @@
     <t>Business dashboard where business monthly collected data shows.</t>
   </si>
   <si>
-    <t>Einframe Project report used as source to collect and verify the schedule varaince data.</t>
-  </si>
-  <si>
-    <t>In Einframe Project task report use to verify the project schedule variances task wise.</t>
-  </si>
-  <si>
-    <t>Einframe incident management report used verify the incident data stage wise, project wise, type wise, date wise etc., used for PQA reporting, Projects reporting.</t>
-  </si>
-  <si>
-    <t>Einframe EVMS chart used to verify the schedule &amp; cost variance in terms of earned value, actual cost with respect to planned values.</t>
-  </si>
-  <si>
     <t>Google sheet maintained by production &amp; quality for production quantites and line rejection quantites, used as tool to collect the data and the QA head verify the data.
 Production quantity can also be verified by SAP "MB51" transcation</t>
   </si>
@@ -297,6 +285,21 @@
   </si>
   <si>
     <t>Metrics Baseline report (MBR) shared with all relevan effected stackholders.</t>
+  </si>
+  <si>
+    <t>Einframe Project report used as source to collect and verify the schedule varaince data. These data verified during each milestone audits by PQA.</t>
+  </si>
+  <si>
+    <t>In Einframe Project task report use to verify the project schedule variances task wise. The back data of these figures verified during each milestone audits by PQA.</t>
+  </si>
+  <si>
+    <t>Einframe EVMS chart used to verify the schedule &amp; cost variance in terms of earned value, actual cost with respect to planned values. The back data of these figures verified during each milestone audits by PQA.</t>
+  </si>
+  <si>
+    <t>Einframe incident management report used verify the incident data stage wise, project wise, type wise, date wise etc., used for PQA reporting, Projects reporting. The back data of these are verified during configuration audits in just completed milestone.</t>
+  </si>
+  <si>
+    <t>Projects efforts estimation data used as measurement repository, this is automatically maintained during projects. Which used in next same type of or similar projects.</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -671,9 +689,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -688,19 +703,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -710,105 +713,7 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -1249,7 +1154,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1283,25 +1188,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1352,13 +1257,13 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="56" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="4" t="str">
@@ -1395,13 +1300,13 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="43"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="56"/>
     </row>
     <row r="5" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D68" si="1">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
@@ -1436,13 +1341,13 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="43"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="56"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -1477,13 +1382,13 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="43"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="56"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1512,13 +1417,13 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="43"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="56"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1547,13 +1452,13 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="43"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1582,13 +1487,13 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="43"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="56"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1617,13 +1522,13 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="43"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="56"/>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1652,13 +1557,13 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="43"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="56"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1687,13 +1592,13 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="43"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="56"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1722,13 +1627,13 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="43"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="56"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1757,13 +1662,13 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="43"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="56"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1792,13 +1697,13 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="43"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="56"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1827,13 +1732,13 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="43"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="56"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1862,13 +1767,13 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="43"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1897,15 +1802,15 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="43"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="56"/>
     </row>
     <row r="19" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56">
         <v>1.2</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="56" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="4" t="str">
@@ -1942,13 +1847,13 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="43"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="56"/>
     </row>
     <row r="20" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -1980,13 +1885,13 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="43"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="56"/>
     </row>
     <row r="21" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -2021,13 +1926,13 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="43"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="56"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2056,13 +1961,13 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="43"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="56"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2091,13 +1996,13 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="43"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="56"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2126,13 +2031,13 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="43"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="56"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2158,13 +2063,13 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="43"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="56"/>
     </row>
     <row r="26" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2193,13 +2098,13 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="43"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="56"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2228,13 +2133,13 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="43"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="56"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2263,13 +2168,13 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="43"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="56"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2298,13 +2203,13 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="43"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="56"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2333,13 +2238,13 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="43"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="56"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2368,13 +2273,13 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="43"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="56"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2403,13 +2308,13 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="43"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="56"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2438,17 +2343,17 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="43"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="56"/>
     </row>
     <row r="34" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="56">
         <v>2.1</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="4" t="str">
@@ -2485,13 +2390,13 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="43"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="56"/>
     </row>
     <row r="35" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="47"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -2526,13 +2431,13 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="43"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="56"/>
     </row>
     <row r="36" spans="1:18" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="47"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -2567,13 +2472,13 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="43"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="56"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="47"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2602,13 +2507,13 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="43"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="56"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="47"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2637,13 +2542,13 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="43"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="56"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="47"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2672,13 +2577,13 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="43"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="56"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="47"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2707,13 +2612,13 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="43"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="56"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="47"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2742,13 +2647,13 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="43"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="56"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="47"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2777,13 +2682,13 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="43"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="56"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="47"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2812,13 +2717,13 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="43"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="56"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="47"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2847,13 +2752,13 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="43"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="56"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="47"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2882,13 +2787,13 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="43"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="56"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="47"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2917,13 +2822,13 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="43"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="56"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="47"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2952,13 +2857,13 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="43"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="56"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="47"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2987,15 +2892,15 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="43"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="56"/>
     </row>
     <row r="49" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="48" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="4" t="str">
@@ -3032,13 +2937,13 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="43"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="56"/>
     </row>
     <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="47"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3073,13 +2978,13 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="43"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="56"/>
     </row>
     <row r="51" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="47"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3114,13 +3019,13 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="43"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="56"/>
     </row>
     <row r="52" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="47"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3149,13 +3054,13 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="43"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="56"/>
     </row>
     <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="47"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3184,13 +3089,13 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="43"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="56"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="47"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3219,13 +3124,13 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="43"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="56"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="47"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3254,13 +3159,13 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="43"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="56"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="47"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="48"/>
       <c r="D56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3289,13 +3194,13 @@
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="43"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="56"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="47"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3324,13 +3229,13 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="43"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="56"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="47"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="48"/>
       <c r="D58" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3359,13 +3264,13 @@
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="43"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="56"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="47"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="48"/>
       <c r="D59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3394,13 +3299,13 @@
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="43"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="56"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="47"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="48"/>
       <c r="D60" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3429,13 +3334,13 @@
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="43"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="56"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="47"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="48"/>
       <c r="D61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3464,13 +3369,13 @@
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="43"/>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="56"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="47"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="48"/>
       <c r="D62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3499,13 +3404,13 @@
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
-      <c r="Q62" s="45"/>
-      <c r="R62" s="43"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="56"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="47"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="48"/>
       <c r="D63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3534,15 +3439,15 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="43"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="56"/>
     </row>
     <row r="64" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43">
+      <c r="A64" s="56"/>
+      <c r="B64" s="56">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="48" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="4" t="str">
@@ -3579,13 +3484,13 @@
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="43"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="56"/>
     </row>
     <row r="65" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="47"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="48"/>
       <c r="D65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3620,13 +3525,13 @@
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="45"/>
-      <c r="R65" s="43"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="56"/>
     </row>
     <row r="66" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="47"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="48"/>
       <c r="D66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3661,13 +3566,13 @@
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="45"/>
-      <c r="R66" s="43"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="56"/>
     </row>
     <row r="67" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="47"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="48"/>
       <c r="D67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3702,13 +3607,13 @@
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="43"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="56"/>
     </row>
     <row r="68" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="47"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="48"/>
       <c r="D68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3743,13 +3648,13 @@
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
-      <c r="Q68" s="45"/>
-      <c r="R68" s="43"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="56"/>
     </row>
     <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="47"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="4" t="str">
         <f t="shared" ref="D69:D132" si="4">IF(LEN(E69)&gt;5,IF(LEN(K69&amp;L69&amp;M69)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -3778,13 +3683,13 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
-      <c r="Q69" s="45"/>
-      <c r="R69" s="43"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="56"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="47"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="48"/>
       <c r="D70" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3813,13 +3718,13 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
-      <c r="Q70" s="45"/>
-      <c r="R70" s="43"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="56"/>
     </row>
     <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="47"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="48"/>
       <c r="D71" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3848,13 +3753,13 @@
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
-      <c r="Q71" s="45"/>
-      <c r="R71" s="43"/>
+      <c r="Q71" s="50"/>
+      <c r="R71" s="56"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="47"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3883,13 +3788,13 @@
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="43"/>
+      <c r="Q72" s="50"/>
+      <c r="R72" s="56"/>
     </row>
     <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="47"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="48"/>
       <c r="D73" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3918,13 +3823,13 @@
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="43"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="56"/>
     </row>
     <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="47"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="48"/>
       <c r="D74" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3953,13 +3858,13 @@
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
-      <c r="Q74" s="45"/>
-      <c r="R74" s="43"/>
+      <c r="Q74" s="50"/>
+      <c r="R74" s="56"/>
     </row>
     <row r="75" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="47"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="48"/>
       <c r="D75" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3988,13 +3893,13 @@
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
-      <c r="Q75" s="45"/>
-      <c r="R75" s="43"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="56"/>
     </row>
     <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="47"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="48"/>
       <c r="D76" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4023,13 +3928,13 @@
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
-      <c r="Q76" s="45"/>
-      <c r="R76" s="43"/>
+      <c r="Q76" s="50"/>
+      <c r="R76" s="56"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="47"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="48"/>
       <c r="D77" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4058,13 +3963,13 @@
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
-      <c r="Q77" s="45"/>
-      <c r="R77" s="43"/>
+      <c r="Q77" s="50"/>
+      <c r="R77" s="56"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="47"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="48"/>
       <c r="D78" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4093,15 +3998,15 @@
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="43"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="56"/>
     </row>
     <row r="79" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43">
+      <c r="A79" s="56"/>
+      <c r="B79" s="56">
         <v>2.4</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C79" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D79" s="4" t="str">
@@ -4138,13 +4043,13 @@
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="43"/>
+      <c r="Q79" s="49"/>
+      <c r="R79" s="56"/>
     </row>
     <row r="80" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="47"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="48"/>
       <c r="D80" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -4179,13 +4084,13 @@
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
-      <c r="Q80" s="45"/>
-      <c r="R80" s="43"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="56"/>
     </row>
     <row r="81" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="47"/>
+      <c r="A81" s="56"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="48"/>
       <c r="D81" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4214,13 +4119,13 @@
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
-      <c r="Q81" s="45"/>
-      <c r="R81" s="43"/>
+      <c r="Q81" s="50"/>
+      <c r="R81" s="56"/>
     </row>
     <row r="82" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="47"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="48"/>
       <c r="D82" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4249,13 +4154,13 @@
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
-      <c r="Q82" s="45"/>
-      <c r="R82" s="43"/>
+      <c r="Q82" s="50"/>
+      <c r="R82" s="56"/>
     </row>
     <row r="83" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="47"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="48"/>
       <c r="D83" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4284,13 +4189,13 @@
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
-      <c r="Q83" s="45"/>
-      <c r="R83" s="43"/>
+      <c r="Q83" s="50"/>
+      <c r="R83" s="56"/>
     </row>
     <row r="84" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="47"/>
+      <c r="A84" s="56"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="48"/>
       <c r="D84" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4319,13 +4224,13 @@
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
-      <c r="Q84" s="45"/>
-      <c r="R84" s="43"/>
+      <c r="Q84" s="50"/>
+      <c r="R84" s="56"/>
     </row>
     <row r="85" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="47"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="48"/>
       <c r="D85" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4354,13 +4259,13 @@
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
-      <c r="Q85" s="45"/>
-      <c r="R85" s="43"/>
+      <c r="Q85" s="50"/>
+      <c r="R85" s="56"/>
     </row>
     <row r="86" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="47"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="48"/>
       <c r="D86" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4389,13 +4294,13 @@
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
-      <c r="Q86" s="45"/>
-      <c r="R86" s="43"/>
+      <c r="Q86" s="50"/>
+      <c r="R86" s="56"/>
     </row>
     <row r="87" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="47"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="48"/>
       <c r="D87" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4424,13 +4329,13 @@
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-      <c r="Q87" s="45"/>
-      <c r="R87" s="43"/>
+      <c r="Q87" s="50"/>
+      <c r="R87" s="56"/>
     </row>
     <row r="88" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="47"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="48"/>
       <c r="D88" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4459,13 +4364,13 @@
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
-      <c r="Q88" s="45"/>
-      <c r="R88" s="43"/>
+      <c r="Q88" s="50"/>
+      <c r="R88" s="56"/>
     </row>
     <row r="89" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="47"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="48"/>
       <c r="D89" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4494,13 +4399,13 @@
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
-      <c r="Q89" s="45"/>
-      <c r="R89" s="43"/>
+      <c r="Q89" s="50"/>
+      <c r="R89" s="56"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="47"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="48"/>
       <c r="D90" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4529,13 +4434,13 @@
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
-      <c r="Q90" s="45"/>
-      <c r="R90" s="43"/>
+      <c r="Q90" s="50"/>
+      <c r="R90" s="56"/>
     </row>
     <row r="91" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="47"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="48"/>
       <c r="D91" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4564,13 +4469,13 @@
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="45"/>
-      <c r="R91" s="43"/>
+      <c r="Q91" s="50"/>
+      <c r="R91" s="56"/>
     </row>
     <row r="92" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="47"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="48"/>
       <c r="D92" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4599,13 +4504,13 @@
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="43"/>
+      <c r="Q92" s="50"/>
+      <c r="R92" s="56"/>
     </row>
     <row r="93" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="47"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="48"/>
       <c r="D93" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4634,15 +4539,15 @@
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
-      <c r="Q93" s="46"/>
-      <c r="R93" s="43"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="56"/>
     </row>
     <row r="94" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
-      <c r="B94" s="52">
+      <c r="A94" s="56"/>
+      <c r="B94" s="47">
         <v>2.5</v>
       </c>
-      <c r="C94" s="47" t="s">
+      <c r="C94" s="48" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="4" t="str">
@@ -4679,13 +4584,13 @@
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
-      <c r="Q94" s="53"/>
-      <c r="R94" s="52"/>
+      <c r="Q94" s="43"/>
+      <c r="R94" s="47"/>
     </row>
     <row r="95" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="47"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="48"/>
       <c r="D95" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -4720,13 +4625,13 @@
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
-      <c r="Q95" s="54"/>
-      <c r="R95" s="52"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="47"/>
     </row>
     <row r="96" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="43"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="47"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="48"/>
       <c r="D96" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -4761,13 +4666,13 @@
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
-      <c r="Q96" s="54"/>
-      <c r="R96" s="52"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="47"/>
     </row>
     <row r="97" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
-      <c r="B97" s="52"/>
-      <c r="C97" s="47"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="48"/>
       <c r="D97" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -4802,13 +4707,13 @@
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
-      <c r="Q97" s="54"/>
-      <c r="R97" s="52"/>
+      <c r="Q97" s="44"/>
+      <c r="R97" s="47"/>
     </row>
     <row r="98" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="47"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="48"/>
       <c r="D98" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -4843,13 +4748,13 @@
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
-      <c r="Q98" s="54"/>
-      <c r="R98" s="52"/>
+      <c r="Q98" s="44"/>
+      <c r="R98" s="47"/>
     </row>
     <row r="99" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="52"/>
-      <c r="C99" s="47"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="48"/>
       <c r="D99" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4878,13 +4783,13 @@
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
-      <c r="Q99" s="54"/>
-      <c r="R99" s="52"/>
+      <c r="Q99" s="44"/>
+      <c r="R99" s="47"/>
     </row>
     <row r="100" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="47"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="48"/>
       <c r="D100" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4913,13 +4818,13 @@
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
-      <c r="Q100" s="54"/>
-      <c r="R100" s="52"/>
+      <c r="Q100" s="44"/>
+      <c r="R100" s="47"/>
     </row>
     <row r="101" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="43"/>
-      <c r="B101" s="52"/>
-      <c r="C101" s="47"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="48"/>
       <c r="D101" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4948,13 +4853,13 @@
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
-      <c r="Q101" s="54"/>
-      <c r="R101" s="52"/>
+      <c r="Q101" s="44"/>
+      <c r="R101" s="47"/>
     </row>
     <row r="102" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
-      <c r="B102" s="52"/>
-      <c r="C102" s="47"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="48"/>
       <c r="D102" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4983,13 +4888,13 @@
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
-      <c r="Q102" s="54"/>
-      <c r="R102" s="52"/>
+      <c r="Q102" s="44"/>
+      <c r="R102" s="47"/>
     </row>
     <row r="103" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="43"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="47"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="48"/>
       <c r="D103" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5018,13 +4923,13 @@
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
-      <c r="Q103" s="54"/>
-      <c r="R103" s="52"/>
+      <c r="Q103" s="44"/>
+      <c r="R103" s="47"/>
     </row>
     <row r="104" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="47"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="48"/>
       <c r="D104" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5053,13 +4958,13 @@
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
-      <c r="Q104" s="54"/>
-      <c r="R104" s="52"/>
+      <c r="Q104" s="44"/>
+      <c r="R104" s="47"/>
     </row>
     <row r="105" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="47"/>
+      <c r="A105" s="56"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="48"/>
       <c r="D105" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5088,13 +4993,13 @@
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
-      <c r="Q105" s="54"/>
-      <c r="R105" s="52"/>
+      <c r="Q105" s="44"/>
+      <c r="R105" s="47"/>
     </row>
     <row r="106" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="47"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="48"/>
       <c r="D106" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5123,13 +5028,13 @@
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
-      <c r="Q106" s="54"/>
-      <c r="R106" s="52"/>
+      <c r="Q106" s="44"/>
+      <c r="R106" s="47"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
-      <c r="B107" s="52"/>
-      <c r="C107" s="47"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="48"/>
       <c r="D107" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5158,13 +5063,13 @@
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
-      <c r="Q107" s="54"/>
-      <c r="R107" s="52"/>
+      <c r="Q107" s="44"/>
+      <c r="R107" s="47"/>
     </row>
     <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="43"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="47"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="48"/>
       <c r="D108" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5193,15 +5098,15 @@
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
-      <c r="Q108" s="55"/>
-      <c r="R108" s="52"/>
+      <c r="Q108" s="45"/>
+      <c r="R108" s="47"/>
     </row>
     <row r="109" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
-      <c r="B109" s="52">
+      <c r="A109" s="56"/>
+      <c r="B109" s="47">
         <v>2.6</v>
       </c>
-      <c r="C109" s="47" t="s">
+      <c r="C109" s="48" t="s">
         <v>29</v>
       </c>
       <c r="D109" s="4" t="str">
@@ -5238,13 +5143,13 @@
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
-      <c r="Q109" s="53"/>
-      <c r="R109" s="52"/>
+      <c r="Q109" s="43"/>
+      <c r="R109" s="47"/>
     </row>
     <row r="110" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="47"/>
+      <c r="A110" s="56"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="48"/>
       <c r="D110" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -5279,13 +5184,13 @@
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
-      <c r="Q110" s="54"/>
-      <c r="R110" s="52"/>
+      <c r="Q110" s="44"/>
+      <c r="R110" s="47"/>
     </row>
     <row r="111" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="43"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="47"/>
+      <c r="A111" s="56"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="48"/>
       <c r="D111" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5314,13 +5219,13 @@
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
-      <c r="Q111" s="54"/>
-      <c r="R111" s="52"/>
+      <c r="Q111" s="44"/>
+      <c r="R111" s="47"/>
     </row>
     <row r="112" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
-      <c r="B112" s="52"/>
-      <c r="C112" s="47"/>
+      <c r="A112" s="56"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="48"/>
       <c r="D112" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5349,13 +5254,13 @@
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
-      <c r="Q112" s="54"/>
-      <c r="R112" s="52"/>
+      <c r="Q112" s="44"/>
+      <c r="R112" s="47"/>
     </row>
     <row r="113" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
-      <c r="B113" s="52"/>
-      <c r="C113" s="47"/>
+      <c r="A113" s="56"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="48"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5384,13 +5289,13 @@
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
-      <c r="Q113" s="54"/>
-      <c r="R113" s="52"/>
+      <c r="Q113" s="44"/>
+      <c r="R113" s="47"/>
     </row>
     <row r="114" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="43"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="47"/>
+      <c r="A114" s="56"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="48"/>
       <c r="D114" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5419,13 +5324,13 @@
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
-      <c r="Q114" s="54"/>
-      <c r="R114" s="52"/>
+      <c r="Q114" s="44"/>
+      <c r="R114" s="47"/>
     </row>
     <row r="115" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="43"/>
-      <c r="B115" s="52"/>
-      <c r="C115" s="47"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="48"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5454,13 +5359,13 @@
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
-      <c r="Q115" s="54"/>
-      <c r="R115" s="52"/>
+      <c r="Q115" s="44"/>
+      <c r="R115" s="47"/>
     </row>
     <row r="116" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
-      <c r="B116" s="52"/>
-      <c r="C116" s="47"/>
+      <c r="A116" s="56"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="48"/>
       <c r="D116" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5489,13 +5394,13 @@
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
-      <c r="Q116" s="54"/>
-      <c r="R116" s="52"/>
+      <c r="Q116" s="44"/>
+      <c r="R116" s="47"/>
     </row>
     <row r="117" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="43"/>
-      <c r="B117" s="52"/>
-      <c r="C117" s="47"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="48"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5524,13 +5429,13 @@
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
-      <c r="Q117" s="54"/>
-      <c r="R117" s="52"/>
+      <c r="Q117" s="44"/>
+      <c r="R117" s="47"/>
     </row>
     <row r="118" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="43"/>
-      <c r="B118" s="52"/>
-      <c r="C118" s="47"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="48"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5559,13 +5464,13 @@
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
-      <c r="Q118" s="54"/>
-      <c r="R118" s="52"/>
+      <c r="Q118" s="44"/>
+      <c r="R118" s="47"/>
     </row>
     <row r="119" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="43"/>
-      <c r="B119" s="52"/>
-      <c r="C119" s="47"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="48"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5594,13 +5499,13 @@
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
-      <c r="Q119" s="54"/>
-      <c r="R119" s="52"/>
+      <c r="Q119" s="44"/>
+      <c r="R119" s="47"/>
     </row>
     <row r="120" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="43"/>
-      <c r="B120" s="52"/>
-      <c r="C120" s="47"/>
+      <c r="A120" s="56"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="48"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5629,13 +5534,13 @@
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
-      <c r="Q120" s="54"/>
-      <c r="R120" s="52"/>
+      <c r="Q120" s="44"/>
+      <c r="R120" s="47"/>
     </row>
     <row r="121" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="43"/>
-      <c r="B121" s="52"/>
-      <c r="C121" s="47"/>
+      <c r="A121" s="56"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="48"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5664,13 +5569,13 @@
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
-      <c r="Q121" s="54"/>
-      <c r="R121" s="52"/>
+      <c r="Q121" s="44"/>
+      <c r="R121" s="47"/>
     </row>
     <row r="122" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="43"/>
-      <c r="B122" s="52"/>
-      <c r="C122" s="47"/>
+      <c r="A122" s="56"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="48"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5699,13 +5604,13 @@
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
-      <c r="Q122" s="54"/>
-      <c r="R122" s="52"/>
+      <c r="Q122" s="44"/>
+      <c r="R122" s="47"/>
     </row>
     <row r="123" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="43"/>
-      <c r="B123" s="52"/>
-      <c r="C123" s="47"/>
+      <c r="A123" s="56"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="48"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5734,17 +5639,17 @@
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
-      <c r="Q123" s="55"/>
-      <c r="R123" s="52"/>
+      <c r="Q123" s="45"/>
+      <c r="R123" s="47"/>
     </row>
     <row r="124" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B124" s="52">
+      <c r="B124" s="47">
         <v>3.1</v>
       </c>
-      <c r="C124" s="47" t="s">
+      <c r="C124" s="48" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="4" t="str">
@@ -5781,13 +5686,13 @@
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
-      <c r="Q124" s="53"/>
-      <c r="R124" s="52"/>
+      <c r="Q124" s="43"/>
+      <c r="R124" s="47"/>
     </row>
     <row r="125" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A125" s="52"/>
-      <c r="B125" s="52"/>
-      <c r="C125" s="47"/>
+      <c r="A125" s="47"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="48"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -5822,13 +5727,13 @@
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
-      <c r="Q125" s="54"/>
-      <c r="R125" s="52"/>
+      <c r="Q125" s="44"/>
+      <c r="R125" s="47"/>
     </row>
     <row r="126" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="52"/>
-      <c r="B126" s="52"/>
-      <c r="C126" s="47"/>
+      <c r="A126" s="47"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="48"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -5863,13 +5768,13 @@
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
-      <c r="Q126" s="54"/>
-      <c r="R126" s="52"/>
+      <c r="Q126" s="44"/>
+      <c r="R126" s="47"/>
     </row>
     <row r="127" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A127" s="52"/>
-      <c r="B127" s="52"/>
-      <c r="C127" s="47"/>
+      <c r="A127" s="47"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="48"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -5904,13 +5809,13 @@
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
-      <c r="Q127" s="54"/>
-      <c r="R127" s="52"/>
+      <c r="Q127" s="44"/>
+      <c r="R127" s="47"/>
     </row>
     <row r="128" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="52"/>
-      <c r="B128" s="52"/>
-      <c r="C128" s="47"/>
+      <c r="A128" s="47"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="48"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5939,13 +5844,13 @@
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
-      <c r="Q128" s="54"/>
-      <c r="R128" s="52"/>
+      <c r="Q128" s="44"/>
+      <c r="R128" s="47"/>
     </row>
     <row r="129" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="52"/>
-      <c r="B129" s="52"/>
-      <c r="C129" s="47"/>
+      <c r="A129" s="47"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="48"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5974,13 +5879,13 @@
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
-      <c r="Q129" s="54"/>
-      <c r="R129" s="52"/>
+      <c r="Q129" s="44"/>
+      <c r="R129" s="47"/>
     </row>
     <row r="130" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="52"/>
-      <c r="B130" s="52"/>
-      <c r="C130" s="47"/>
+      <c r="A130" s="47"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="48"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -6009,13 +5914,13 @@
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
-      <c r="Q130" s="54"/>
-      <c r="R130" s="52"/>
+      <c r="Q130" s="44"/>
+      <c r="R130" s="47"/>
     </row>
     <row r="131" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="52"/>
-      <c r="B131" s="52"/>
-      <c r="C131" s="47"/>
+      <c r="A131" s="47"/>
+      <c r="B131" s="47"/>
+      <c r="C131" s="48"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -6044,13 +5949,13 @@
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
-      <c r="Q131" s="54"/>
-      <c r="R131" s="52"/>
+      <c r="Q131" s="44"/>
+      <c r="R131" s="47"/>
     </row>
     <row r="132" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="52"/>
-      <c r="B132" s="52"/>
-      <c r="C132" s="47"/>
+      <c r="A132" s="47"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="48"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -6079,13 +5984,13 @@
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
-      <c r="Q132" s="54"/>
-      <c r="R132" s="52"/>
+      <c r="Q132" s="44"/>
+      <c r="R132" s="47"/>
     </row>
     <row r="133" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="52"/>
-      <c r="B133" s="52"/>
-      <c r="C133" s="47"/>
+      <c r="A133" s="47"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="48"/>
       <c r="D133" s="4" t="str">
         <f t="shared" ref="D133:D196" si="7">IF(LEN(E133)&gt;5,IF(LEN(K133&amp;L133&amp;M133)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -6114,13 +6019,13 @@
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
-      <c r="Q133" s="54"/>
-      <c r="R133" s="52"/>
+      <c r="Q133" s="44"/>
+      <c r="R133" s="47"/>
     </row>
     <row r="134" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="52"/>
-      <c r="B134" s="52"/>
-      <c r="C134" s="47"/>
+      <c r="A134" s="47"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="48"/>
       <c r="D134" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6149,13 +6054,13 @@
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
-      <c r="Q134" s="54"/>
-      <c r="R134" s="52"/>
+      <c r="Q134" s="44"/>
+      <c r="R134" s="47"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="52"/>
-      <c r="B135" s="52"/>
-      <c r="C135" s="47"/>
+      <c r="A135" s="47"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="48"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6184,13 +6089,13 @@
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
-      <c r="Q135" s="54"/>
-      <c r="R135" s="52"/>
+      <c r="Q135" s="44"/>
+      <c r="R135" s="47"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="52"/>
-      <c r="B136" s="52"/>
-      <c r="C136" s="47"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="48"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6219,13 +6124,13 @@
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
-      <c r="Q136" s="54"/>
-      <c r="R136" s="52"/>
+      <c r="Q136" s="44"/>
+      <c r="R136" s="47"/>
     </row>
     <row r="137" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="52"/>
-      <c r="B137" s="52"/>
-      <c r="C137" s="47"/>
+      <c r="A137" s="47"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="48"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6254,13 +6159,13 @@
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
-      <c r="Q137" s="54"/>
-      <c r="R137" s="52"/>
+      <c r="Q137" s="44"/>
+      <c r="R137" s="47"/>
     </row>
     <row r="138" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="52"/>
-      <c r="B138" s="52"/>
-      <c r="C138" s="47"/>
+      <c r="A138" s="47"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="48"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6289,15 +6194,15 @@
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
-      <c r="Q138" s="55"/>
-      <c r="R138" s="52"/>
+      <c r="Q138" s="45"/>
+      <c r="R138" s="47"/>
     </row>
     <row r="139" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A139" s="52"/>
-      <c r="B139" s="52">
+      <c r="A139" s="47"/>
+      <c r="B139" s="47">
         <v>3.2</v>
       </c>
-      <c r="C139" s="47" t="s">
+      <c r="C139" s="48" t="s">
         <v>32</v>
       </c>
       <c r="D139" s="4" t="str">
@@ -6334,13 +6239,13 @@
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
-      <c r="Q139" s="53"/>
-      <c r="R139" s="52"/>
+      <c r="Q139" s="43"/>
+      <c r="R139" s="47"/>
     </row>
     <row r="140" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A140" s="52"/>
-      <c r="B140" s="52"/>
-      <c r="C140" s="47"/>
+      <c r="A140" s="47"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="48"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -6375,13 +6280,13 @@
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
-      <c r="Q140" s="54"/>
-      <c r="R140" s="52"/>
+      <c r="Q140" s="44"/>
+      <c r="R140" s="47"/>
     </row>
     <row r="141" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="52"/>
-      <c r="B141" s="52"/>
-      <c r="C141" s="47"/>
+      <c r="A141" s="47"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="48"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -6416,13 +6321,13 @@
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
-      <c r="Q141" s="54"/>
-      <c r="R141" s="52"/>
+      <c r="Q141" s="44"/>
+      <c r="R141" s="47"/>
     </row>
     <row r="142" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="52"/>
-      <c r="B142" s="52"/>
-      <c r="C142" s="47"/>
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="48"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -6457,13 +6362,13 @@
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
-      <c r="Q142" s="54"/>
-      <c r="R142" s="52"/>
+      <c r="Q142" s="44"/>
+      <c r="R142" s="47"/>
     </row>
     <row r="143" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="52"/>
-      <c r="B143" s="52"/>
-      <c r="C143" s="47"/>
+      <c r="A143" s="47"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="48"/>
       <c r="D143" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6492,13 +6397,13 @@
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
-      <c r="Q143" s="54"/>
-      <c r="R143" s="52"/>
+      <c r="Q143" s="44"/>
+      <c r="R143" s="47"/>
     </row>
     <row r="144" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="52"/>
-      <c r="B144" s="52"/>
-      <c r="C144" s="47"/>
+      <c r="A144" s="47"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="48"/>
       <c r="D144" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6527,13 +6432,13 @@
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
-      <c r="Q144" s="54"/>
-      <c r="R144" s="52"/>
+      <c r="Q144" s="44"/>
+      <c r="R144" s="47"/>
     </row>
     <row r="145" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="52"/>
-      <c r="B145" s="52"/>
-      <c r="C145" s="47"/>
+      <c r="A145" s="47"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="48"/>
       <c r="D145" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6562,13 +6467,13 @@
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
-      <c r="Q145" s="54"/>
-      <c r="R145" s="52"/>
+      <c r="Q145" s="44"/>
+      <c r="R145" s="47"/>
     </row>
     <row r="146" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="52"/>
-      <c r="B146" s="52"/>
-      <c r="C146" s="47"/>
+      <c r="A146" s="47"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="48"/>
       <c r="D146" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6597,13 +6502,13 @@
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
-      <c r="Q146" s="54"/>
-      <c r="R146" s="52"/>
+      <c r="Q146" s="44"/>
+      <c r="R146" s="47"/>
     </row>
     <row r="147" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="52"/>
-      <c r="B147" s="52"/>
-      <c r="C147" s="47"/>
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="48"/>
       <c r="D147" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6632,13 +6537,13 @@
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
-      <c r="Q147" s="54"/>
-      <c r="R147" s="52"/>
+      <c r="Q147" s="44"/>
+      <c r="R147" s="47"/>
     </row>
     <row r="148" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="52"/>
-      <c r="B148" s="52"/>
-      <c r="C148" s="47"/>
+      <c r="A148" s="47"/>
+      <c r="B148" s="47"/>
+      <c r="C148" s="48"/>
       <c r="D148" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6667,13 +6572,13 @@
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
-      <c r="Q148" s="54"/>
-      <c r="R148" s="52"/>
+      <c r="Q148" s="44"/>
+      <c r="R148" s="47"/>
     </row>
     <row r="149" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="52"/>
-      <c r="B149" s="52"/>
-      <c r="C149" s="47"/>
+      <c r="A149" s="47"/>
+      <c r="B149" s="47"/>
+      <c r="C149" s="48"/>
       <c r="D149" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6702,13 +6607,13 @@
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
-      <c r="Q149" s="54"/>
-      <c r="R149" s="52"/>
+      <c r="Q149" s="44"/>
+      <c r="R149" s="47"/>
     </row>
     <row r="150" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="52"/>
-      <c r="B150" s="52"/>
-      <c r="C150" s="47"/>
+      <c r="A150" s="47"/>
+      <c r="B150" s="47"/>
+      <c r="C150" s="48"/>
       <c r="D150" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6737,13 +6642,13 @@
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
-      <c r="Q150" s="54"/>
-      <c r="R150" s="52"/>
+      <c r="Q150" s="44"/>
+      <c r="R150" s="47"/>
     </row>
     <row r="151" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="52"/>
-      <c r="B151" s="52"/>
-      <c r="C151" s="47"/>
+      <c r="A151" s="47"/>
+      <c r="B151" s="47"/>
+      <c r="C151" s="48"/>
       <c r="D151" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6772,13 +6677,13 @@
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
-      <c r="Q151" s="54"/>
-      <c r="R151" s="52"/>
+      <c r="Q151" s="44"/>
+      <c r="R151" s="47"/>
     </row>
     <row r="152" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="52"/>
-      <c r="B152" s="52"/>
-      <c r="C152" s="47"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="48"/>
       <c r="D152" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6807,13 +6712,13 @@
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
-      <c r="Q152" s="54"/>
-      <c r="R152" s="52"/>
+      <c r="Q152" s="44"/>
+      <c r="R152" s="47"/>
     </row>
     <row r="153" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="52"/>
-      <c r="B153" s="52"/>
-      <c r="C153" s="47"/>
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="48"/>
       <c r="D153" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6842,15 +6747,15 @@
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
-      <c r="Q153" s="55"/>
-      <c r="R153" s="52"/>
+      <c r="Q153" s="45"/>
+      <c r="R153" s="47"/>
     </row>
     <row r="154" spans="1:18" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="52"/>
-      <c r="B154" s="52">
+      <c r="A154" s="47"/>
+      <c r="B154" s="47">
         <v>3.3</v>
       </c>
-      <c r="C154" s="47" t="s">
+      <c r="C154" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D154" s="4" t="str">
@@ -6861,7 +6766,7 @@
         <v>45</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G154" s="10" t="s">
         <v>38</v>
@@ -6887,13 +6792,13 @@
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
-      <c r="Q154" s="53"/>
-      <c r="R154" s="52"/>
+      <c r="Q154" s="43"/>
+      <c r="R154" s="47"/>
     </row>
     <row r="155" spans="1:18" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="52"/>
-      <c r="B155" s="52"/>
-      <c r="C155" s="47"/>
+      <c r="A155" s="47"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="48"/>
       <c r="D155" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -6902,7 +6807,7 @@
         <v>54</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G155" s="10" t="s">
         <v>38</v>
@@ -6928,13 +6833,13 @@
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
-      <c r="Q155" s="54"/>
-      <c r="R155" s="52"/>
-    </row>
-    <row r="156" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="52"/>
-      <c r="B156" s="52"/>
-      <c r="C156" s="47"/>
+      <c r="Q155" s="44"/>
+      <c r="R155" s="47"/>
+    </row>
+    <row r="156" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="47"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="48"/>
       <c r="D156" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -6943,7 +6848,7 @@
         <v>56</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G156" s="10" t="s">
         <v>38</v>
@@ -6969,13 +6874,13 @@
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
-      <c r="Q156" s="54"/>
-      <c r="R156" s="52"/>
-    </row>
-    <row r="157" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="52"/>
-      <c r="B157" s="52"/>
-      <c r="C157" s="47"/>
+      <c r="Q156" s="44"/>
+      <c r="R156" s="47"/>
+    </row>
+    <row r="157" spans="1:18" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="47"/>
+      <c r="B157" s="47"/>
+      <c r="C157" s="48"/>
       <c r="D157" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -6984,7 +6889,7 @@
         <v>60</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G157" s="10" t="s">
         <v>38</v>
@@ -7010,13 +6915,13 @@
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
-      <c r="Q157" s="54"/>
-      <c r="R157" s="52"/>
-    </row>
-    <row r="158" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="52"/>
-      <c r="B158" s="52"/>
-      <c r="C158" s="47"/>
+      <c r="Q157" s="44"/>
+      <c r="R157" s="47"/>
+    </row>
+    <row r="158" spans="1:18" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A158" s="47"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="48"/>
       <c r="D158" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -7025,7 +6930,7 @@
         <v>62</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G158" s="10" t="s">
         <v>38</v>
@@ -7051,13 +6956,13 @@
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
-      <c r="Q158" s="54"/>
-      <c r="R158" s="52"/>
+      <c r="Q158" s="44"/>
+      <c r="R158" s="47"/>
     </row>
     <row r="159" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="52"/>
-      <c r="B159" s="52"/>
-      <c r="C159" s="47"/>
+      <c r="A159" s="47"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="48"/>
       <c r="D159" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7086,13 +6991,13 @@
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
-      <c r="Q159" s="54"/>
-      <c r="R159" s="52"/>
+      <c r="Q159" s="44"/>
+      <c r="R159" s="47"/>
     </row>
     <row r="160" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="52"/>
-      <c r="B160" s="52"/>
-      <c r="C160" s="47"/>
+      <c r="A160" s="47"/>
+      <c r="B160" s="47"/>
+      <c r="C160" s="48"/>
       <c r="D160" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7121,13 +7026,13 @@
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
-      <c r="Q160" s="54"/>
-      <c r="R160" s="52"/>
+      <c r="Q160" s="44"/>
+      <c r="R160" s="47"/>
     </row>
     <row r="161" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="52"/>
-      <c r="B161" s="52"/>
-      <c r="C161" s="47"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="48"/>
       <c r="D161" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7156,13 +7061,13 @@
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
-      <c r="Q161" s="54"/>
-      <c r="R161" s="52"/>
+      <c r="Q161" s="44"/>
+      <c r="R161" s="47"/>
     </row>
     <row r="162" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="52"/>
-      <c r="B162" s="52"/>
-      <c r="C162" s="47"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="47"/>
+      <c r="C162" s="48"/>
       <c r="D162" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7191,13 +7096,13 @@
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
-      <c r="Q162" s="54"/>
-      <c r="R162" s="52"/>
+      <c r="Q162" s="44"/>
+      <c r="R162" s="47"/>
     </row>
     <row r="163" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="52"/>
-      <c r="B163" s="52"/>
-      <c r="C163" s="47"/>
+      <c r="A163" s="47"/>
+      <c r="B163" s="47"/>
+      <c r="C163" s="48"/>
       <c r="D163" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7226,13 +7131,13 @@
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
-      <c r="Q163" s="54"/>
-      <c r="R163" s="52"/>
+      <c r="Q163" s="44"/>
+      <c r="R163" s="47"/>
     </row>
     <row r="164" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="52"/>
-      <c r="B164" s="52"/>
-      <c r="C164" s="47"/>
+      <c r="A164" s="47"/>
+      <c r="B164" s="47"/>
+      <c r="C164" s="48"/>
       <c r="D164" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7261,13 +7166,13 @@
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
-      <c r="Q164" s="54"/>
-      <c r="R164" s="52"/>
+      <c r="Q164" s="44"/>
+      <c r="R164" s="47"/>
     </row>
     <row r="165" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="52"/>
-      <c r="B165" s="52"/>
-      <c r="C165" s="47"/>
+      <c r="A165" s="47"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="48"/>
       <c r="D165" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7296,13 +7201,13 @@
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
-      <c r="Q165" s="54"/>
-      <c r="R165" s="52"/>
+      <c r="Q165" s="44"/>
+      <c r="R165" s="47"/>
     </row>
     <row r="166" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="52"/>
-      <c r="B166" s="52"/>
-      <c r="C166" s="47"/>
+      <c r="A166" s="47"/>
+      <c r="B166" s="47"/>
+      <c r="C166" s="48"/>
       <c r="D166" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7331,13 +7236,13 @@
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
-      <c r="Q166" s="54"/>
-      <c r="R166" s="52"/>
+      <c r="Q166" s="44"/>
+      <c r="R166" s="47"/>
     </row>
     <row r="167" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="52"/>
-      <c r="B167" s="52"/>
-      <c r="C167" s="47"/>
+      <c r="A167" s="47"/>
+      <c r="B167" s="47"/>
+      <c r="C167" s="48"/>
       <c r="D167" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7366,13 +7271,13 @@
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
-      <c r="Q167" s="54"/>
-      <c r="R167" s="52"/>
+      <c r="Q167" s="44"/>
+      <c r="R167" s="47"/>
     </row>
     <row r="168" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="52"/>
-      <c r="B168" s="52"/>
-      <c r="C168" s="47"/>
+      <c r="A168" s="47"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="48"/>
       <c r="D168" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7401,15 +7306,15 @@
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
-      <c r="Q168" s="55"/>
-      <c r="R168" s="52"/>
-    </row>
-    <row r="169" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="52"/>
-      <c r="B169" s="52">
+      <c r="Q168" s="45"/>
+      <c r="R168" s="47"/>
+    </row>
+    <row r="169" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="47"/>
+      <c r="B169" s="47">
         <v>3.4</v>
       </c>
-      <c r="C169" s="47" t="s">
+      <c r="C169" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D169" s="4" t="str">
@@ -7420,7 +7325,7 @@
         <v>45</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G169" s="10" t="s">
         <v>38</v>
@@ -7446,22 +7351,22 @@
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
-      <c r="Q169" s="53"/>
-      <c r="R169" s="52"/>
-    </row>
-    <row r="170" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="52"/>
-      <c r="B170" s="52"/>
-      <c r="C170" s="47"/>
+      <c r="Q169" s="43"/>
+      <c r="R169" s="47"/>
+    </row>
+    <row r="170" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="47"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="48"/>
       <c r="D170" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G170" s="10" t="s">
         <v>38</v>
@@ -7487,22 +7392,22 @@
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
-      <c r="Q170" s="54"/>
-      <c r="R170" s="52"/>
-    </row>
-    <row r="171" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="52"/>
-      <c r="B171" s="52"/>
-      <c r="C171" s="47"/>
+      <c r="Q170" s="44"/>
+      <c r="R170" s="47"/>
+    </row>
+    <row r="171" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="47"/>
+      <c r="B171" s="47"/>
+      <c r="C171" s="48"/>
       <c r="D171" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G171" s="10" t="s">
         <v>38</v>
@@ -7528,22 +7433,22 @@
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
-      <c r="Q171" s="54"/>
-      <c r="R171" s="52"/>
-    </row>
-    <row r="172" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="52"/>
-      <c r="B172" s="52"/>
-      <c r="C172" s="47"/>
+      <c r="Q171" s="44"/>
+      <c r="R171" s="47"/>
+    </row>
+    <row r="172" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="47"/>
+      <c r="B172" s="47"/>
+      <c r="C172" s="48"/>
       <c r="D172" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F172" s="12" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="G172" s="10" t="s">
         <v>38</v>
@@ -7569,22 +7474,22 @@
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
-      <c r="Q172" s="54"/>
-      <c r="R172" s="52"/>
-    </row>
-    <row r="173" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="52"/>
-      <c r="B173" s="52"/>
-      <c r="C173" s="47"/>
+      <c r="Q172" s="44"/>
+      <c r="R172" s="47"/>
+    </row>
+    <row r="173" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="47"/>
+      <c r="B173" s="47"/>
+      <c r="C173" s="48"/>
       <c r="D173" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="G173" s="10" t="s">
         <v>38</v>
@@ -7610,20 +7515,26 @@
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
-      <c r="Q173" s="54"/>
-      <c r="R173" s="52"/>
+      <c r="Q173" s="44"/>
+      <c r="R173" s="47"/>
     </row>
     <row r="174" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="52"/>
-      <c r="B174" s="52"/>
-      <c r="C174" s="47"/>
+      <c r="A174" s="47"/>
+      <c r="B174" s="47"/>
+      <c r="C174" s="48"/>
       <c r="D174" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="E174" s="11"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H174" s="7"/>
       <c r="I174" s="8" t="str">
         <f t="shared" si="8"/>
@@ -7632,26 +7543,26 @@
       <c r="J174" s="8"/>
       <c r="K174" s="7" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L174" s="7" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M174" s="7" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
-      <c r="Q174" s="54"/>
-      <c r="R174" s="52"/>
+      <c r="Q174" s="44"/>
+      <c r="R174" s="47"/>
     </row>
     <row r="175" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="52"/>
-      <c r="B175" s="52"/>
-      <c r="C175" s="47"/>
+      <c r="A175" s="47"/>
+      <c r="B175" s="47"/>
+      <c r="C175" s="48"/>
       <c r="D175" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7680,13 +7591,13 @@
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
-      <c r="Q175" s="54"/>
-      <c r="R175" s="52"/>
+      <c r="Q175" s="44"/>
+      <c r="R175" s="47"/>
     </row>
     <row r="176" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="52"/>
-      <c r="B176" s="52"/>
-      <c r="C176" s="47"/>
+      <c r="A176" s="47"/>
+      <c r="B176" s="47"/>
+      <c r="C176" s="48"/>
       <c r="D176" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7715,13 +7626,13 @@
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
-      <c r="Q176" s="54"/>
-      <c r="R176" s="52"/>
+      <c r="Q176" s="44"/>
+      <c r="R176" s="47"/>
     </row>
     <row r="177" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="52"/>
-      <c r="B177" s="52"/>
-      <c r="C177" s="47"/>
+      <c r="A177" s="47"/>
+      <c r="B177" s="47"/>
+      <c r="C177" s="48"/>
       <c r="D177" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7750,13 +7661,13 @@
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
-      <c r="Q177" s="54"/>
-      <c r="R177" s="52"/>
+      <c r="Q177" s="44"/>
+      <c r="R177" s="47"/>
     </row>
     <row r="178" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="52"/>
-      <c r="B178" s="52"/>
-      <c r="C178" s="47"/>
+      <c r="A178" s="47"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="48"/>
       <c r="D178" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7785,13 +7696,13 @@
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
-      <c r="Q178" s="54"/>
-      <c r="R178" s="52"/>
+      <c r="Q178" s="44"/>
+      <c r="R178" s="47"/>
     </row>
     <row r="179" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="52"/>
-      <c r="B179" s="52"/>
-      <c r="C179" s="47"/>
+      <c r="A179" s="47"/>
+      <c r="B179" s="47"/>
+      <c r="C179" s="48"/>
       <c r="D179" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7820,13 +7731,13 @@
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
-      <c r="Q179" s="54"/>
-      <c r="R179" s="52"/>
+      <c r="Q179" s="44"/>
+      <c r="R179" s="47"/>
     </row>
     <row r="180" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="52"/>
-      <c r="B180" s="52"/>
-      <c r="C180" s="47"/>
+      <c r="A180" s="47"/>
+      <c r="B180" s="47"/>
+      <c r="C180" s="48"/>
       <c r="D180" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7855,13 +7766,13 @@
       <c r="N180" s="10"/>
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
-      <c r="Q180" s="54"/>
-      <c r="R180" s="52"/>
+      <c r="Q180" s="44"/>
+      <c r="R180" s="47"/>
     </row>
     <row r="181" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="52"/>
-      <c r="B181" s="52"/>
-      <c r="C181" s="47"/>
+      <c r="A181" s="47"/>
+      <c r="B181" s="47"/>
+      <c r="C181" s="48"/>
       <c r="D181" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7890,13 +7801,13 @@
       <c r="N181" s="10"/>
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
-      <c r="Q181" s="54"/>
-      <c r="R181" s="52"/>
+      <c r="Q181" s="44"/>
+      <c r="R181" s="47"/>
     </row>
     <row r="182" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="52"/>
-      <c r="B182" s="52"/>
-      <c r="C182" s="47"/>
+      <c r="A182" s="47"/>
+      <c r="B182" s="47"/>
+      <c r="C182" s="48"/>
       <c r="D182" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7925,13 +7836,13 @@
       <c r="N182" s="10"/>
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
-      <c r="Q182" s="54"/>
-      <c r="R182" s="52"/>
+      <c r="Q182" s="44"/>
+      <c r="R182" s="47"/>
     </row>
     <row r="183" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="52"/>
-      <c r="B183" s="52"/>
-      <c r="C183" s="47"/>
+      <c r="A183" s="47"/>
+      <c r="B183" s="47"/>
+      <c r="C183" s="48"/>
       <c r="D183" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7960,15 +7871,15 @@
       <c r="N183" s="10"/>
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
-      <c r="Q183" s="55"/>
-      <c r="R183" s="52"/>
+      <c r="Q183" s="45"/>
+      <c r="R183" s="47"/>
     </row>
     <row r="184" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="52"/>
-      <c r="B184" s="52">
+      <c r="A184" s="47"/>
+      <c r="B184" s="47">
         <v>3.5</v>
       </c>
-      <c r="C184" s="47" t="s">
+      <c r="C184" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D184" s="4" t="str">
@@ -8005,13 +7916,13 @@
       <c r="N184" s="10"/>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
-      <c r="Q184" s="53"/>
-      <c r="R184" s="52"/>
+      <c r="Q184" s="43"/>
+      <c r="R184" s="47"/>
     </row>
     <row r="185" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="52"/>
-      <c r="B185" s="52"/>
-      <c r="C185" s="47"/>
+      <c r="A185" s="47"/>
+      <c r="B185" s="47"/>
+      <c r="C185" s="48"/>
       <c r="D185" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8046,13 +7957,13 @@
       <c r="N185" s="10"/>
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
-      <c r="Q185" s="54"/>
-      <c r="R185" s="52"/>
+      <c r="Q185" s="44"/>
+      <c r="R185" s="47"/>
     </row>
     <row r="186" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="52"/>
-      <c r="B186" s="52"/>
-      <c r="C186" s="47"/>
+      <c r="A186" s="47"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="48"/>
       <c r="D186" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8087,13 +7998,13 @@
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
-      <c r="Q186" s="54"/>
-      <c r="R186" s="52"/>
+      <c r="Q186" s="44"/>
+      <c r="R186" s="47"/>
     </row>
     <row r="187" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="52"/>
-      <c r="B187" s="52"/>
-      <c r="C187" s="47"/>
+      <c r="A187" s="47"/>
+      <c r="B187" s="47"/>
+      <c r="C187" s="48"/>
       <c r="D187" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8122,13 +8033,13 @@
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
-      <c r="Q187" s="54"/>
-      <c r="R187" s="52"/>
+      <c r="Q187" s="44"/>
+      <c r="R187" s="47"/>
     </row>
     <row r="188" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="52"/>
-      <c r="B188" s="52"/>
-      <c r="C188" s="47"/>
+      <c r="A188" s="47"/>
+      <c r="B188" s="47"/>
+      <c r="C188" s="48"/>
       <c r="D188" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8157,13 +8068,13 @@
       <c r="N188" s="10"/>
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
-      <c r="Q188" s="54"/>
-      <c r="R188" s="52"/>
+      <c r="Q188" s="44"/>
+      <c r="R188" s="47"/>
     </row>
     <row r="189" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="52"/>
-      <c r="B189" s="52"/>
-      <c r="C189" s="47"/>
+      <c r="A189" s="47"/>
+      <c r="B189" s="47"/>
+      <c r="C189" s="48"/>
       <c r="D189" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8192,13 +8103,13 @@
       <c r="N189" s="10"/>
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
-      <c r="Q189" s="54"/>
-      <c r="R189" s="52"/>
+      <c r="Q189" s="44"/>
+      <c r="R189" s="47"/>
     </row>
     <row r="190" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="52"/>
-      <c r="B190" s="52"/>
-      <c r="C190" s="47"/>
+      <c r="A190" s="47"/>
+      <c r="B190" s="47"/>
+      <c r="C190" s="48"/>
       <c r="D190" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8227,13 +8138,13 @@
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
-      <c r="Q190" s="54"/>
-      <c r="R190" s="52"/>
+      <c r="Q190" s="44"/>
+      <c r="R190" s="47"/>
     </row>
     <row r="191" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="52"/>
-      <c r="B191" s="52"/>
-      <c r="C191" s="47"/>
+      <c r="A191" s="47"/>
+      <c r="B191" s="47"/>
+      <c r="C191" s="48"/>
       <c r="D191" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8262,13 +8173,13 @@
       <c r="N191" s="10"/>
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
-      <c r="Q191" s="54"/>
-      <c r="R191" s="52"/>
+      <c r="Q191" s="44"/>
+      <c r="R191" s="47"/>
     </row>
     <row r="192" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="52"/>
-      <c r="B192" s="52"/>
-      <c r="C192" s="47"/>
+      <c r="A192" s="47"/>
+      <c r="B192" s="47"/>
+      <c r="C192" s="48"/>
       <c r="D192" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8297,13 +8208,13 @@
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
-      <c r="Q192" s="54"/>
-      <c r="R192" s="52"/>
+      <c r="Q192" s="44"/>
+      <c r="R192" s="47"/>
     </row>
     <row r="193" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="52"/>
-      <c r="B193" s="52"/>
-      <c r="C193" s="47"/>
+      <c r="A193" s="47"/>
+      <c r="B193" s="47"/>
+      <c r="C193" s="48"/>
       <c r="D193" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8329,13 +8240,13 @@
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
-      <c r="Q193" s="54"/>
-      <c r="R193" s="52"/>
+      <c r="Q193" s="44"/>
+      <c r="R193" s="47"/>
     </row>
     <row r="194" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="52"/>
-      <c r="B194" s="52"/>
-      <c r="C194" s="47"/>
+      <c r="A194" s="47"/>
+      <c r="B194" s="47"/>
+      <c r="C194" s="48"/>
       <c r="D194" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8364,13 +8275,13 @@
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
-      <c r="Q194" s="54"/>
-      <c r="R194" s="52"/>
+      <c r="Q194" s="44"/>
+      <c r="R194" s="47"/>
     </row>
     <row r="195" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="52"/>
-      <c r="B195" s="52"/>
-      <c r="C195" s="47"/>
+      <c r="A195" s="47"/>
+      <c r="B195" s="47"/>
+      <c r="C195" s="48"/>
       <c r="D195" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8399,13 +8310,13 @@
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
       <c r="P195" s="10"/>
-      <c r="Q195" s="54"/>
-      <c r="R195" s="52"/>
+      <c r="Q195" s="44"/>
+      <c r="R195" s="47"/>
     </row>
     <row r="196" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="52"/>
-      <c r="B196" s="52"/>
-      <c r="C196" s="47"/>
+      <c r="A196" s="47"/>
+      <c r="B196" s="47"/>
+      <c r="C196" s="48"/>
       <c r="D196" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8434,13 +8345,13 @@
       <c r="N196" s="10"/>
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
-      <c r="Q196" s="54"/>
-      <c r="R196" s="52"/>
+      <c r="Q196" s="44"/>
+      <c r="R196" s="47"/>
     </row>
     <row r="197" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="52"/>
-      <c r="B197" s="52"/>
-      <c r="C197" s="47"/>
+      <c r="A197" s="47"/>
+      <c r="B197" s="47"/>
+      <c r="C197" s="48"/>
       <c r="D197" s="4" t="str">
         <f t="shared" ref="D197:D260" si="11">IF(LEN(E197)&gt;5,IF(LEN(K197&amp;L197&amp;M197)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -8469,13 +8380,13 @@
       <c r="N197" s="10"/>
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
-      <c r="Q197" s="54"/>
-      <c r="R197" s="52"/>
+      <c r="Q197" s="44"/>
+      <c r="R197" s="47"/>
     </row>
     <row r="198" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="52"/>
-      <c r="B198" s="52"/>
-      <c r="C198" s="47"/>
+      <c r="A198" s="47"/>
+      <c r="B198" s="47"/>
+      <c r="C198" s="48"/>
       <c r="D198" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8504,15 +8415,15 @@
       <c r="N198" s="10"/>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
-      <c r="Q198" s="55"/>
-      <c r="R198" s="52"/>
+      <c r="Q198" s="45"/>
+      <c r="R198" s="47"/>
     </row>
     <row r="199" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="52"/>
-      <c r="B199" s="52">
+      <c r="A199" s="47"/>
+      <c r="B199" s="47">
         <v>3.6</v>
       </c>
-      <c r="C199" s="47" t="s">
+      <c r="C199" s="48" t="s">
         <v>36</v>
       </c>
       <c r="D199" s="4" t="str">
@@ -8520,10 +8431,10 @@
         <v>OK</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G199" s="24" t="s">
         <v>38</v>
@@ -8549,22 +8460,22 @@
       <c r="N199" s="10"/>
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
-      <c r="Q199" s="53"/>
-      <c r="R199" s="52"/>
+      <c r="Q199" s="43"/>
+      <c r="R199" s="47"/>
     </row>
     <row r="200" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="52"/>
-      <c r="B200" s="52"/>
-      <c r="C200" s="47"/>
+      <c r="A200" s="47"/>
+      <c r="B200" s="47"/>
+      <c r="C200" s="48"/>
       <c r="D200" s="4" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G200" s="24" t="s">
         <v>38</v>
@@ -8590,13 +8501,13 @@
       <c r="N200" s="10"/>
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
-      <c r="Q200" s="54"/>
-      <c r="R200" s="52"/>
+      <c r="Q200" s="44"/>
+      <c r="R200" s="47"/>
     </row>
     <row r="201" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="52"/>
-      <c r="B201" s="52"/>
-      <c r="C201" s="47"/>
+      <c r="A201" s="47"/>
+      <c r="B201" s="47"/>
+      <c r="C201" s="48"/>
       <c r="D201" s="4" t="str">
         <f t="shared" si="11"/>
         <v>OK</v>
@@ -8631,13 +8542,13 @@
       <c r="N201" s="10"/>
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
-      <c r="Q201" s="54"/>
-      <c r="R201" s="52"/>
+      <c r="Q201" s="44"/>
+      <c r="R201" s="47"/>
     </row>
     <row r="202" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="52"/>
-      <c r="B202" s="52"/>
-      <c r="C202" s="47"/>
+      <c r="A202" s="47"/>
+      <c r="B202" s="47"/>
+      <c r="C202" s="48"/>
       <c r="D202" s="14" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8666,13 +8577,13 @@
       <c r="N202" s="10"/>
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
-      <c r="Q202" s="54"/>
-      <c r="R202" s="52"/>
+      <c r="Q202" s="44"/>
+      <c r="R202" s="47"/>
     </row>
     <row r="203" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="52"/>
-      <c r="B203" s="52"/>
-      <c r="C203" s="47"/>
+      <c r="A203" s="47"/>
+      <c r="B203" s="47"/>
+      <c r="C203" s="48"/>
       <c r="D203" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8701,13 +8612,13 @@
       <c r="N203" s="10"/>
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
-      <c r="Q203" s="54"/>
-      <c r="R203" s="52"/>
+      <c r="Q203" s="44"/>
+      <c r="R203" s="47"/>
     </row>
     <row r="204" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="52"/>
-      <c r="B204" s="52"/>
-      <c r="C204" s="47"/>
+      <c r="A204" s="47"/>
+      <c r="B204" s="47"/>
+      <c r="C204" s="48"/>
       <c r="D204" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8736,13 +8647,13 @@
       <c r="N204" s="10"/>
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
-      <c r="Q204" s="54"/>
-      <c r="R204" s="52"/>
+      <c r="Q204" s="44"/>
+      <c r="R204" s="47"/>
     </row>
     <row r="205" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="52"/>
-      <c r="B205" s="52"/>
-      <c r="C205" s="47"/>
+      <c r="A205" s="47"/>
+      <c r="B205" s="47"/>
+      <c r="C205" s="48"/>
       <c r="D205" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8771,13 +8682,13 @@
       <c r="N205" s="10"/>
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
-      <c r="Q205" s="54"/>
-      <c r="R205" s="52"/>
+      <c r="Q205" s="44"/>
+      <c r="R205" s="47"/>
     </row>
     <row r="206" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="52"/>
-      <c r="B206" s="52"/>
-      <c r="C206" s="47"/>
+      <c r="A206" s="47"/>
+      <c r="B206" s="47"/>
+      <c r="C206" s="48"/>
       <c r="D206" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8806,13 +8717,13 @@
       <c r="N206" s="10"/>
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
-      <c r="Q206" s="54"/>
-      <c r="R206" s="52"/>
+      <c r="Q206" s="44"/>
+      <c r="R206" s="47"/>
     </row>
     <row r="207" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="52"/>
-      <c r="B207" s="52"/>
-      <c r="C207" s="47"/>
+      <c r="A207" s="47"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="48"/>
       <c r="D207" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8841,13 +8752,13 @@
       <c r="N207" s="10"/>
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
-      <c r="Q207" s="54"/>
-      <c r="R207" s="52"/>
+      <c r="Q207" s="44"/>
+      <c r="R207" s="47"/>
     </row>
     <row r="208" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="52"/>
-      <c r="B208" s="52"/>
-      <c r="C208" s="47"/>
+      <c r="A208" s="47"/>
+      <c r="B208" s="47"/>
+      <c r="C208" s="48"/>
       <c r="D208" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8876,13 +8787,13 @@
       <c r="N208" s="10"/>
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
-      <c r="Q208" s="54"/>
-      <c r="R208" s="52"/>
+      <c r="Q208" s="44"/>
+      <c r="R208" s="47"/>
     </row>
     <row r="209" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="52"/>
-      <c r="B209" s="52"/>
-      <c r="C209" s="47"/>
+      <c r="A209" s="47"/>
+      <c r="B209" s="47"/>
+      <c r="C209" s="48"/>
       <c r="D209" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8911,13 +8822,13 @@
       <c r="N209" s="10"/>
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
-      <c r="Q209" s="54"/>
-      <c r="R209" s="52"/>
+      <c r="Q209" s="44"/>
+      <c r="R209" s="47"/>
     </row>
     <row r="210" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="52"/>
-      <c r="B210" s="52"/>
-      <c r="C210" s="47"/>
+      <c r="A210" s="47"/>
+      <c r="B210" s="47"/>
+      <c r="C210" s="48"/>
       <c r="D210" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8946,13 +8857,13 @@
       <c r="N210" s="10"/>
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
-      <c r="Q210" s="54"/>
-      <c r="R210" s="52"/>
+      <c r="Q210" s="44"/>
+      <c r="R210" s="47"/>
     </row>
     <row r="211" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="52"/>
-      <c r="B211" s="52"/>
-      <c r="C211" s="47"/>
+      <c r="A211" s="47"/>
+      <c r="B211" s="47"/>
+      <c r="C211" s="48"/>
       <c r="D211" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8981,13 +8892,13 @@
       <c r="N211" s="10"/>
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
-      <c r="Q211" s="54"/>
-      <c r="R211" s="52"/>
+      <c r="Q211" s="44"/>
+      <c r="R211" s="47"/>
     </row>
     <row r="212" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="52"/>
-      <c r="B212" s="52"/>
-      <c r="C212" s="47"/>
+      <c r="A212" s="47"/>
+      <c r="B212" s="47"/>
+      <c r="C212" s="48"/>
       <c r="D212" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9016,13 +8927,13 @@
       <c r="N212" s="10"/>
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
-      <c r="Q212" s="54"/>
-      <c r="R212" s="52"/>
+      <c r="Q212" s="44"/>
+      <c r="R212" s="47"/>
     </row>
     <row r="213" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="52"/>
-      <c r="B213" s="52"/>
-      <c r="C213" s="47"/>
+      <c r="A213" s="47"/>
+      <c r="B213" s="47"/>
+      <c r="C213" s="48"/>
       <c r="D213" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9051,13 +8962,13 @@
       <c r="N213" s="10"/>
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
-      <c r="Q213" s="55"/>
-      <c r="R213" s="52"/>
+      <c r="Q213" s="45"/>
+      <c r="R213" s="47"/>
     </row>
     <row r="214" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="17"/>
-      <c r="B214" s="53"/>
-      <c r="C214" s="56"/>
+      <c r="B214" s="43"/>
+      <c r="C214" s="46"/>
       <c r="D214" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9086,13 +8997,13 @@
       <c r="N214" s="10"/>
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
-      <c r="Q214" s="53"/>
-      <c r="R214" s="52"/>
+      <c r="Q214" s="43"/>
+      <c r="R214" s="47"/>
     </row>
     <row r="215" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="17"/>
-      <c r="B215" s="54"/>
-      <c r="C215" s="56"/>
+      <c r="B215" s="44"/>
+      <c r="C215" s="46"/>
       <c r="D215" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9121,13 +9032,13 @@
       <c r="N215" s="10"/>
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
-      <c r="Q215" s="54"/>
-      <c r="R215" s="52"/>
+      <c r="Q215" s="44"/>
+      <c r="R215" s="47"/>
     </row>
     <row r="216" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="17"/>
-      <c r="B216" s="54"/>
-      <c r="C216" s="56"/>
+      <c r="B216" s="44"/>
+      <c r="C216" s="46"/>
       <c r="D216" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9156,13 +9067,13 @@
       <c r="N216" s="10"/>
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
-      <c r="Q216" s="54"/>
-      <c r="R216" s="52"/>
+      <c r="Q216" s="44"/>
+      <c r="R216" s="47"/>
     </row>
     <row r="217" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="17"/>
-      <c r="B217" s="54"/>
-      <c r="C217" s="56"/>
+      <c r="B217" s="44"/>
+      <c r="C217" s="46"/>
       <c r="D217" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9191,13 +9102,13 @@
       <c r="N217" s="10"/>
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
-      <c r="Q217" s="54"/>
-      <c r="R217" s="52"/>
+      <c r="Q217" s="44"/>
+      <c r="R217" s="47"/>
     </row>
     <row r="218" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="17"/>
-      <c r="B218" s="54"/>
-      <c r="C218" s="56"/>
+      <c r="B218" s="44"/>
+      <c r="C218" s="46"/>
       <c r="D218" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9226,13 +9137,13 @@
       <c r="N218" s="10"/>
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
-      <c r="Q218" s="54"/>
-      <c r="R218" s="52"/>
+      <c r="Q218" s="44"/>
+      <c r="R218" s="47"/>
     </row>
     <row r="219" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="17"/>
-      <c r="B219" s="54"/>
-      <c r="C219" s="56"/>
+      <c r="B219" s="44"/>
+      <c r="C219" s="46"/>
       <c r="D219" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9261,13 +9172,13 @@
       <c r="N219" s="10"/>
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
-      <c r="Q219" s="54"/>
-      <c r="R219" s="52"/>
+      <c r="Q219" s="44"/>
+      <c r="R219" s="47"/>
     </row>
     <row r="220" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="17"/>
-      <c r="B220" s="54"/>
-      <c r="C220" s="56"/>
+      <c r="B220" s="44"/>
+      <c r="C220" s="46"/>
       <c r="D220" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9296,13 +9207,13 @@
       <c r="N220" s="10"/>
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
-      <c r="Q220" s="54"/>
-      <c r="R220" s="52"/>
+      <c r="Q220" s="44"/>
+      <c r="R220" s="47"/>
     </row>
     <row r="221" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
-      <c r="B221" s="54"/>
-      <c r="C221" s="56"/>
+      <c r="B221" s="44"/>
+      <c r="C221" s="46"/>
       <c r="D221" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9331,13 +9242,13 @@
       <c r="N221" s="10"/>
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
-      <c r="Q221" s="54"/>
-      <c r="R221" s="52"/>
+      <c r="Q221" s="44"/>
+      <c r="R221" s="47"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
-      <c r="B222" s="54"/>
-      <c r="C222" s="56"/>
+      <c r="B222" s="44"/>
+      <c r="C222" s="46"/>
       <c r="D222" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9366,13 +9277,13 @@
       <c r="N222" s="10"/>
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
-      <c r="Q222" s="54"/>
-      <c r="R222" s="52"/>
+      <c r="Q222" s="44"/>
+      <c r="R222" s="47"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
-      <c r="B223" s="54"/>
-      <c r="C223" s="56"/>
+      <c r="B223" s="44"/>
+      <c r="C223" s="46"/>
       <c r="D223" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9401,13 +9312,13 @@
       <c r="N223" s="10"/>
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
-      <c r="Q223" s="54"/>
-      <c r="R223" s="52"/>
+      <c r="Q223" s="44"/>
+      <c r="R223" s="47"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
-      <c r="B224" s="54"/>
-      <c r="C224" s="56"/>
+      <c r="B224" s="44"/>
+      <c r="C224" s="46"/>
       <c r="D224" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9436,13 +9347,13 @@
       <c r="N224" s="10"/>
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
-      <c r="Q224" s="54"/>
-      <c r="R224" s="52"/>
+      <c r="Q224" s="44"/>
+      <c r="R224" s="47"/>
     </row>
     <row r="225" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
-      <c r="B225" s="54"/>
-      <c r="C225" s="56"/>
+      <c r="B225" s="44"/>
+      <c r="C225" s="46"/>
       <c r="D225" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9471,13 +9382,13 @@
       <c r="N225" s="10"/>
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
-      <c r="Q225" s="54"/>
-      <c r="R225" s="52"/>
+      <c r="Q225" s="44"/>
+      <c r="R225" s="47"/>
     </row>
     <row r="226" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
-      <c r="B226" s="54"/>
-      <c r="C226" s="56"/>
+      <c r="B226" s="44"/>
+      <c r="C226" s="46"/>
       <c r="D226" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9506,13 +9417,13 @@
       <c r="N226" s="10"/>
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
-      <c r="Q226" s="54"/>
-      <c r="R226" s="52"/>
+      <c r="Q226" s="44"/>
+      <c r="R226" s="47"/>
     </row>
     <row r="227" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
-      <c r="B227" s="54"/>
-      <c r="C227" s="56"/>
+      <c r="B227" s="44"/>
+      <c r="C227" s="46"/>
       <c r="D227" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9541,13 +9452,13 @@
       <c r="N227" s="10"/>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
-      <c r="Q227" s="54"/>
-      <c r="R227" s="52"/>
+      <c r="Q227" s="44"/>
+      <c r="R227" s="47"/>
     </row>
     <row r="228" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
-      <c r="B228" s="55"/>
-      <c r="C228" s="56"/>
+      <c r="B228" s="45"/>
+      <c r="C228" s="46"/>
       <c r="D228" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9576,13 +9487,13 @@
       <c r="N228" s="10"/>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
-      <c r="Q228" s="55"/>
-      <c r="R228" s="52"/>
+      <c r="Q228" s="45"/>
+      <c r="R228" s="47"/>
     </row>
     <row r="229" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
-      <c r="B229" s="53"/>
-      <c r="C229" s="56"/>
+      <c r="B229" s="43"/>
+      <c r="C229" s="46"/>
       <c r="D229" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9611,13 +9522,13 @@
       <c r="N229" s="10"/>
       <c r="O229" s="10"/>
       <c r="P229" s="24"/>
-      <c r="Q229" s="53"/>
-      <c r="R229" s="52"/>
+      <c r="Q229" s="43"/>
+      <c r="R229" s="47"/>
     </row>
     <row r="230" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
-      <c r="B230" s="54"/>
-      <c r="C230" s="56"/>
+      <c r="B230" s="44"/>
+      <c r="C230" s="46"/>
       <c r="D230" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9646,13 +9557,13 @@
       <c r="N230" s="10"/>
       <c r="O230" s="10"/>
       <c r="P230" s="24"/>
-      <c r="Q230" s="54"/>
-      <c r="R230" s="52"/>
+      <c r="Q230" s="44"/>
+      <c r="R230" s="47"/>
     </row>
     <row r="231" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="17"/>
-      <c r="B231" s="54"/>
-      <c r="C231" s="56"/>
+      <c r="B231" s="44"/>
+      <c r="C231" s="46"/>
       <c r="D231" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9681,13 +9592,13 @@
       <c r="N231" s="10"/>
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
-      <c r="Q231" s="54"/>
-      <c r="R231" s="52"/>
+      <c r="Q231" s="44"/>
+      <c r="R231" s="47"/>
     </row>
     <row r="232" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="17"/>
-      <c r="B232" s="54"/>
-      <c r="C232" s="56"/>
+      <c r="B232" s="44"/>
+      <c r="C232" s="46"/>
       <c r="D232" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9716,13 +9627,13 @@
       <c r="N232" s="10"/>
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
-      <c r="Q232" s="54"/>
-      <c r="R232" s="52"/>
+      <c r="Q232" s="44"/>
+      <c r="R232" s="47"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="17"/>
-      <c r="B233" s="54"/>
-      <c r="C233" s="56"/>
+      <c r="B233" s="44"/>
+      <c r="C233" s="46"/>
       <c r="D233" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9751,13 +9662,13 @@
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
-      <c r="Q233" s="54"/>
-      <c r="R233" s="52"/>
+      <c r="Q233" s="44"/>
+      <c r="R233" s="47"/>
     </row>
     <row r="234" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="17"/>
-      <c r="B234" s="54"/>
-      <c r="C234" s="56"/>
+      <c r="B234" s="44"/>
+      <c r="C234" s="46"/>
       <c r="D234" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9786,13 +9697,13 @@
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
       <c r="P234" s="10"/>
-      <c r="Q234" s="54"/>
-      <c r="R234" s="52"/>
+      <c r="Q234" s="44"/>
+      <c r="R234" s="47"/>
     </row>
     <row r="235" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
-      <c r="B235" s="54"/>
-      <c r="C235" s="56"/>
+      <c r="B235" s="44"/>
+      <c r="C235" s="46"/>
       <c r="D235" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9821,13 +9732,13 @@
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
-      <c r="Q235" s="54"/>
-      <c r="R235" s="52"/>
+      <c r="Q235" s="44"/>
+      <c r="R235" s="47"/>
     </row>
     <row r="236" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
-      <c r="B236" s="54"/>
-      <c r="C236" s="56"/>
+      <c r="B236" s="44"/>
+      <c r="C236" s="46"/>
       <c r="D236" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9856,13 +9767,13 @@
       <c r="N236" s="10"/>
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
-      <c r="Q236" s="54"/>
-      <c r="R236" s="52"/>
+      <c r="Q236" s="44"/>
+      <c r="R236" s="47"/>
     </row>
     <row r="237" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
-      <c r="B237" s="54"/>
-      <c r="C237" s="56"/>
+      <c r="B237" s="44"/>
+      <c r="C237" s="46"/>
       <c r="D237" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9891,13 +9802,13 @@
       <c r="N237" s="10"/>
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
-      <c r="Q237" s="54"/>
-      <c r="R237" s="52"/>
+      <c r="Q237" s="44"/>
+      <c r="R237" s="47"/>
     </row>
     <row r="238" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
-      <c r="B238" s="54"/>
-      <c r="C238" s="56"/>
+      <c r="B238" s="44"/>
+      <c r="C238" s="46"/>
       <c r="D238" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9926,13 +9837,13 @@
       <c r="N238" s="10"/>
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
-      <c r="Q238" s="54"/>
-      <c r="R238" s="52"/>
+      <c r="Q238" s="44"/>
+      <c r="R238" s="47"/>
     </row>
     <row r="239" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
-      <c r="B239" s="54"/>
-      <c r="C239" s="56"/>
+      <c r="B239" s="44"/>
+      <c r="C239" s="46"/>
       <c r="D239" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9961,13 +9872,13 @@
       <c r="N239" s="10"/>
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
-      <c r="Q239" s="54"/>
-      <c r="R239" s="52"/>
+      <c r="Q239" s="44"/>
+      <c r="R239" s="47"/>
     </row>
     <row r="240" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="17"/>
-      <c r="B240" s="54"/>
-      <c r="C240" s="56"/>
+      <c r="B240" s="44"/>
+      <c r="C240" s="46"/>
       <c r="D240" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9996,13 +9907,13 @@
       <c r="N240" s="10"/>
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
-      <c r="Q240" s="54"/>
-      <c r="R240" s="52"/>
+      <c r="Q240" s="44"/>
+      <c r="R240" s="47"/>
     </row>
     <row r="241" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="17"/>
-      <c r="B241" s="54"/>
-      <c r="C241" s="56"/>
+      <c r="B241" s="44"/>
+      <c r="C241" s="46"/>
       <c r="D241" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10031,13 +9942,13 @@
       <c r="N241" s="10"/>
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
-      <c r="Q241" s="54"/>
-      <c r="R241" s="52"/>
+      <c r="Q241" s="44"/>
+      <c r="R241" s="47"/>
     </row>
     <row r="242" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="17"/>
-      <c r="B242" s="54"/>
-      <c r="C242" s="56"/>
+      <c r="B242" s="44"/>
+      <c r="C242" s="46"/>
       <c r="D242" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10066,13 +9977,13 @@
       <c r="N242" s="10"/>
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
-      <c r="Q242" s="54"/>
-      <c r="R242" s="52"/>
+      <c r="Q242" s="44"/>
+      <c r="R242" s="47"/>
     </row>
     <row r="243" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="17"/>
-      <c r="B243" s="55"/>
-      <c r="C243" s="56"/>
+      <c r="B243" s="45"/>
+      <c r="C243" s="46"/>
       <c r="D243" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10101,13 +10012,13 @@
       <c r="N243" s="10"/>
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
-      <c r="Q243" s="55"/>
-      <c r="R243" s="52"/>
+      <c r="Q243" s="45"/>
+      <c r="R243" s="47"/>
     </row>
     <row r="244" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="17"/>
-      <c r="B244" s="53"/>
-      <c r="C244" s="56"/>
+      <c r="B244" s="43"/>
+      <c r="C244" s="46"/>
       <c r="D244" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10136,13 +10047,13 @@
       <c r="N244" s="10"/>
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
-      <c r="Q244" s="53"/>
-      <c r="R244" s="52"/>
+      <c r="Q244" s="43"/>
+      <c r="R244" s="47"/>
     </row>
     <row r="245" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="17"/>
-      <c r="B245" s="54"/>
-      <c r="C245" s="56"/>
+      <c r="B245" s="44"/>
+      <c r="C245" s="46"/>
       <c r="D245" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10171,13 +10082,13 @@
       <c r="N245" s="10"/>
       <c r="O245" s="10"/>
       <c r="P245" s="10"/>
-      <c r="Q245" s="54"/>
-      <c r="R245" s="52"/>
+      <c r="Q245" s="44"/>
+      <c r="R245" s="47"/>
     </row>
     <row r="246" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="17"/>
-      <c r="B246" s="54"/>
-      <c r="C246" s="56"/>
+      <c r="B246" s="44"/>
+      <c r="C246" s="46"/>
       <c r="D246" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10206,13 +10117,13 @@
       <c r="N246" s="10"/>
       <c r="O246" s="10"/>
       <c r="P246" s="10"/>
-      <c r="Q246" s="54"/>
-      <c r="R246" s="52"/>
+      <c r="Q246" s="44"/>
+      <c r="R246" s="47"/>
     </row>
     <row r="247" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="17"/>
-      <c r="B247" s="54"/>
-      <c r="C247" s="56"/>
+      <c r="B247" s="44"/>
+      <c r="C247" s="46"/>
       <c r="D247" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10241,13 +10152,13 @@
       <c r="N247" s="10"/>
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
-      <c r="Q247" s="54"/>
-      <c r="R247" s="52"/>
+      <c r="Q247" s="44"/>
+      <c r="R247" s="47"/>
     </row>
     <row r="248" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="17"/>
-      <c r="B248" s="54"/>
-      <c r="C248" s="56"/>
+      <c r="B248" s="44"/>
+      <c r="C248" s="46"/>
       <c r="D248" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10276,13 +10187,13 @@
       <c r="N248" s="10"/>
       <c r="O248" s="10"/>
       <c r="P248" s="10"/>
-      <c r="Q248" s="54"/>
-      <c r="R248" s="52"/>
+      <c r="Q248" s="44"/>
+      <c r="R248" s="47"/>
     </row>
     <row r="249" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
-      <c r="B249" s="54"/>
-      <c r="C249" s="56"/>
+      <c r="B249" s="44"/>
+      <c r="C249" s="46"/>
       <c r="D249" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10311,13 +10222,13 @@
       <c r="N249" s="10"/>
       <c r="O249" s="10"/>
       <c r="P249" s="10"/>
-      <c r="Q249" s="54"/>
-      <c r="R249" s="52"/>
+      <c r="Q249" s="44"/>
+      <c r="R249" s="47"/>
     </row>
     <row r="250" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="17"/>
-      <c r="B250" s="54"/>
-      <c r="C250" s="56"/>
+      <c r="B250" s="44"/>
+      <c r="C250" s="46"/>
       <c r="D250" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10346,13 +10257,13 @@
       <c r="N250" s="10"/>
       <c r="O250" s="10"/>
       <c r="P250" s="10"/>
-      <c r="Q250" s="54"/>
-      <c r="R250" s="52"/>
+      <c r="Q250" s="44"/>
+      <c r="R250" s="47"/>
     </row>
     <row r="251" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="17"/>
-      <c r="B251" s="54"/>
-      <c r="C251" s="56"/>
+      <c r="B251" s="44"/>
+      <c r="C251" s="46"/>
       <c r="D251" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10381,13 +10292,13 @@
       <c r="N251" s="10"/>
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
-      <c r="Q251" s="54"/>
-      <c r="R251" s="52"/>
+      <c r="Q251" s="44"/>
+      <c r="R251" s="47"/>
     </row>
     <row r="252" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
-      <c r="B252" s="54"/>
-      <c r="C252" s="56"/>
+      <c r="B252" s="44"/>
+      <c r="C252" s="46"/>
       <c r="D252" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10416,13 +10327,13 @@
       <c r="N252" s="10"/>
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
-      <c r="Q252" s="54"/>
-      <c r="R252" s="52"/>
+      <c r="Q252" s="44"/>
+      <c r="R252" s="47"/>
     </row>
     <row r="253" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
-      <c r="B253" s="54"/>
-      <c r="C253" s="56"/>
+      <c r="B253" s="44"/>
+      <c r="C253" s="46"/>
       <c r="D253" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10451,13 +10362,13 @@
       <c r="N253" s="10"/>
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
-      <c r="Q253" s="54"/>
-      <c r="R253" s="52"/>
+      <c r="Q253" s="44"/>
+      <c r="R253" s="47"/>
     </row>
     <row r="254" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="17"/>
-      <c r="B254" s="54"/>
-      <c r="C254" s="56"/>
+      <c r="B254" s="44"/>
+      <c r="C254" s="46"/>
       <c r="D254" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10486,13 +10397,13 @@
       <c r="N254" s="10"/>
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
-      <c r="Q254" s="54"/>
-      <c r="R254" s="52"/>
+      <c r="Q254" s="44"/>
+      <c r="R254" s="47"/>
     </row>
     <row r="255" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="17"/>
-      <c r="B255" s="54"/>
-      <c r="C255" s="56"/>
+      <c r="B255" s="44"/>
+      <c r="C255" s="46"/>
       <c r="D255" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10521,13 +10432,13 @@
       <c r="N255" s="10"/>
       <c r="O255" s="10"/>
       <c r="P255" s="10"/>
-      <c r="Q255" s="54"/>
-      <c r="R255" s="52"/>
+      <c r="Q255" s="44"/>
+      <c r="R255" s="47"/>
     </row>
     <row r="256" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
-      <c r="B256" s="54"/>
-      <c r="C256" s="56"/>
+      <c r="B256" s="44"/>
+      <c r="C256" s="46"/>
       <c r="D256" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10556,13 +10467,13 @@
       <c r="N256" s="10"/>
       <c r="O256" s="10"/>
       <c r="P256" s="10"/>
-      <c r="Q256" s="54"/>
-      <c r="R256" s="52"/>
+      <c r="Q256" s="44"/>
+      <c r="R256" s="47"/>
     </row>
     <row r="257" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="17"/>
-      <c r="B257" s="54"/>
-      <c r="C257" s="56"/>
+      <c r="B257" s="44"/>
+      <c r="C257" s="46"/>
       <c r="D257" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10591,13 +10502,13 @@
       <c r="N257" s="10"/>
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
-      <c r="Q257" s="54"/>
-      <c r="R257" s="52"/>
+      <c r="Q257" s="44"/>
+      <c r="R257" s="47"/>
     </row>
     <row r="258" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="17"/>
-      <c r="B258" s="55"/>
-      <c r="C258" s="56"/>
+      <c r="B258" s="45"/>
+      <c r="C258" s="46"/>
       <c r="D258" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10626,13 +10537,13 @@
       <c r="N258" s="30"/>
       <c r="O258" s="30"/>
       <c r="P258" s="30"/>
-      <c r="Q258" s="55"/>
-      <c r="R258" s="52"/>
+      <c r="Q258" s="45"/>
+      <c r="R258" s="47"/>
     </row>
     <row r="259" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="17"/>
-      <c r="B259" s="53"/>
-      <c r="C259" s="56"/>
+      <c r="B259" s="43"/>
+      <c r="C259" s="46"/>
       <c r="D259" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10661,13 +10572,13 @@
       <c r="N259" s="30"/>
       <c r="O259" s="30"/>
       <c r="P259" s="30"/>
-      <c r="Q259" s="53"/>
-      <c r="R259" s="52"/>
+      <c r="Q259" s="43"/>
+      <c r="R259" s="47"/>
     </row>
     <row r="260" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="17"/>
-      <c r="B260" s="54"/>
-      <c r="C260" s="56"/>
+      <c r="B260" s="44"/>
+      <c r="C260" s="46"/>
       <c r="D260" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10696,13 +10607,13 @@
       <c r="N260" s="30"/>
       <c r="O260" s="30"/>
       <c r="P260" s="30"/>
-      <c r="Q260" s="54"/>
-      <c r="R260" s="52"/>
+      <c r="Q260" s="44"/>
+      <c r="R260" s="47"/>
     </row>
     <row r="261" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="17"/>
-      <c r="B261" s="54"/>
-      <c r="C261" s="56"/>
+      <c r="B261" s="44"/>
+      <c r="C261" s="46"/>
       <c r="D261" s="4" t="str">
         <f t="shared" ref="D261:D273" si="15">IF(LEN(E261)&gt;5,IF(LEN(K261&amp;L261&amp;M261)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -10731,13 +10642,13 @@
       <c r="N261" s="30"/>
       <c r="O261" s="30"/>
       <c r="P261" s="30"/>
-      <c r="Q261" s="54"/>
-      <c r="R261" s="52"/>
+      <c r="Q261" s="44"/>
+      <c r="R261" s="47"/>
     </row>
     <row r="262" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="17"/>
-      <c r="B262" s="54"/>
-      <c r="C262" s="56"/>
+      <c r="B262" s="44"/>
+      <c r="C262" s="46"/>
       <c r="D262" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10766,13 +10677,13 @@
       <c r="N262" s="30"/>
       <c r="O262" s="30"/>
       <c r="P262" s="30"/>
-      <c r="Q262" s="54"/>
-      <c r="R262" s="52"/>
+      <c r="Q262" s="44"/>
+      <c r="R262" s="47"/>
     </row>
     <row r="263" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="17"/>
-      <c r="B263" s="54"/>
-      <c r="C263" s="56"/>
+      <c r="B263" s="44"/>
+      <c r="C263" s="46"/>
       <c r="D263" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10801,13 +10712,13 @@
       <c r="N263" s="30"/>
       <c r="O263" s="30"/>
       <c r="P263" s="30"/>
-      <c r="Q263" s="54"/>
-      <c r="R263" s="52"/>
+      <c r="Q263" s="44"/>
+      <c r="R263" s="47"/>
     </row>
     <row r="264" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="17"/>
-      <c r="B264" s="54"/>
-      <c r="C264" s="56"/>
+      <c r="B264" s="44"/>
+      <c r="C264" s="46"/>
       <c r="D264" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10836,13 +10747,13 @@
       <c r="N264" s="30"/>
       <c r="O264" s="30"/>
       <c r="P264" s="30"/>
-      <c r="Q264" s="54"/>
-      <c r="R264" s="52"/>
+      <c r="Q264" s="44"/>
+      <c r="R264" s="47"/>
     </row>
     <row r="265" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
-      <c r="B265" s="54"/>
-      <c r="C265" s="56"/>
+      <c r="B265" s="44"/>
+      <c r="C265" s="46"/>
       <c r="D265" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10871,13 +10782,13 @@
       <c r="N265" s="30"/>
       <c r="O265" s="30"/>
       <c r="P265" s="30"/>
-      <c r="Q265" s="54"/>
-      <c r="R265" s="52"/>
+      <c r="Q265" s="44"/>
+      <c r="R265" s="47"/>
     </row>
     <row r="266" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
-      <c r="B266" s="54"/>
-      <c r="C266" s="56"/>
+      <c r="B266" s="44"/>
+      <c r="C266" s="46"/>
       <c r="D266" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10905,13 +10816,13 @@
       </c>
       <c r="N266" s="30"/>
       <c r="P266" s="30"/>
-      <c r="Q266" s="54"/>
-      <c r="R266" s="52"/>
+      <c r="Q266" s="44"/>
+      <c r="R266" s="47"/>
     </row>
     <row r="267" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="17"/>
-      <c r="B267" s="54"/>
-      <c r="C267" s="56"/>
+      <c r="B267" s="44"/>
+      <c r="C267" s="46"/>
       <c r="D267" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10940,13 +10851,13 @@
       <c r="N267" s="30"/>
       <c r="O267" s="30"/>
       <c r="P267" s="30"/>
-      <c r="Q267" s="54"/>
-      <c r="R267" s="52"/>
+      <c r="Q267" s="44"/>
+      <c r="R267" s="47"/>
     </row>
     <row r="268" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="17"/>
-      <c r="B268" s="54"/>
-      <c r="C268" s="56"/>
+      <c r="B268" s="44"/>
+      <c r="C268" s="46"/>
       <c r="D268" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10975,13 +10886,13 @@
       <c r="N268" s="30"/>
       <c r="O268" s="30"/>
       <c r="P268" s="30"/>
-      <c r="Q268" s="54"/>
-      <c r="R268" s="52"/>
+      <c r="Q268" s="44"/>
+      <c r="R268" s="47"/>
     </row>
     <row r="269" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="17"/>
-      <c r="B269" s="54"/>
-      <c r="C269" s="56"/>
+      <c r="B269" s="44"/>
+      <c r="C269" s="46"/>
       <c r="D269" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -11010,13 +10921,13 @@
       <c r="N269" s="30"/>
       <c r="O269" s="30"/>
       <c r="P269" s="30"/>
-      <c r="Q269" s="54"/>
-      <c r="R269" s="52"/>
+      <c r="Q269" s="44"/>
+      <c r="R269" s="47"/>
     </row>
     <row r="270" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="17"/>
-      <c r="B270" s="54"/>
-      <c r="C270" s="56"/>
+      <c r="B270" s="44"/>
+      <c r="C270" s="46"/>
       <c r="D270" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -11045,13 +10956,13 @@
       <c r="N270" s="30"/>
       <c r="O270" s="30"/>
       <c r="P270" s="30"/>
-      <c r="Q270" s="54"/>
-      <c r="R270" s="52"/>
+      <c r="Q270" s="44"/>
+      <c r="R270" s="47"/>
     </row>
     <row r="271" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="17"/>
-      <c r="B271" s="54"/>
-      <c r="C271" s="56"/>
+      <c r="B271" s="44"/>
+      <c r="C271" s="46"/>
       <c r="D271" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -11080,13 +10991,13 @@
       <c r="N271" s="30"/>
       <c r="O271" s="30"/>
       <c r="P271" s="30"/>
-      <c r="Q271" s="54"/>
-      <c r="R271" s="52"/>
+      <c r="Q271" s="44"/>
+      <c r="R271" s="47"/>
     </row>
     <row r="272" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="17"/>
-      <c r="B272" s="54"/>
-      <c r="C272" s="56"/>
+      <c r="B272" s="44"/>
+      <c r="C272" s="46"/>
       <c r="D272" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -11115,13 +11026,13 @@
       <c r="N272" s="30"/>
       <c r="O272" s="30"/>
       <c r="P272" s="30"/>
-      <c r="Q272" s="54"/>
-      <c r="R272" s="52"/>
+      <c r="Q272" s="44"/>
+      <c r="R272" s="47"/>
     </row>
     <row r="273" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="37"/>
-      <c r="B273" s="55"/>
-      <c r="C273" s="56"/>
+      <c r="B273" s="45"/>
+      <c r="C273" s="46"/>
       <c r="D273" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -11150,8 +11061,8 @@
       <c r="N273" s="30"/>
       <c r="O273" s="30"/>
       <c r="P273" s="30"/>
-      <c r="Q273" s="55"/>
-      <c r="R273" s="52"/>
+      <c r="Q273" s="45"/>
+      <c r="R273" s="47"/>
     </row>
     <row r="274" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G274" s="38"/>
@@ -11211,13 +11122,43 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="60">
-    <mergeCell ref="Q229:Q243"/>
-    <mergeCell ref="B244:B258"/>
-    <mergeCell ref="C244:C258"/>
-    <mergeCell ref="Q244:Q258"/>
-    <mergeCell ref="B259:B273"/>
-    <mergeCell ref="C259:C273"/>
-    <mergeCell ref="Q259:Q273"/>
+    <mergeCell ref="R4:R93"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="C19:C33"/>
+    <mergeCell ref="Q19:Q33"/>
+    <mergeCell ref="A34:A123"/>
+    <mergeCell ref="B34:B48"/>
+    <mergeCell ref="C34:C48"/>
+    <mergeCell ref="Q34:Q48"/>
+    <mergeCell ref="B49:B63"/>
+    <mergeCell ref="C49:C63"/>
+    <mergeCell ref="Q49:Q63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="C64:C78"/>
+    <mergeCell ref="Q64:Q78"/>
+    <mergeCell ref="B79:B93"/>
+    <mergeCell ref="C79:C93"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A33"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="Q4:Q18"/>
+    <mergeCell ref="Q79:Q93"/>
+    <mergeCell ref="B94:B108"/>
+    <mergeCell ref="C94:C108"/>
+    <mergeCell ref="Q94:Q108"/>
+    <mergeCell ref="R94:R273"/>
+    <mergeCell ref="B109:B123"/>
+    <mergeCell ref="C109:C123"/>
+    <mergeCell ref="Q109:Q123"/>
+    <mergeCell ref="B169:B183"/>
+    <mergeCell ref="C169:C183"/>
+    <mergeCell ref="Q169:Q183"/>
+    <mergeCell ref="B214:B228"/>
+    <mergeCell ref="C214:C228"/>
+    <mergeCell ref="Q214:Q228"/>
+    <mergeCell ref="B229:B243"/>
+    <mergeCell ref="C229:C243"/>
     <mergeCell ref="A124:A213"/>
     <mergeCell ref="B124:B138"/>
     <mergeCell ref="C124:C138"/>
@@ -11234,117 +11175,87 @@
     <mergeCell ref="B199:B213"/>
     <mergeCell ref="C199:C213"/>
     <mergeCell ref="Q199:Q213"/>
-    <mergeCell ref="Q79:Q93"/>
-    <mergeCell ref="B94:B108"/>
-    <mergeCell ref="C94:C108"/>
-    <mergeCell ref="Q94:Q108"/>
-    <mergeCell ref="R94:R273"/>
-    <mergeCell ref="B109:B123"/>
-    <mergeCell ref="C109:C123"/>
-    <mergeCell ref="Q109:Q123"/>
-    <mergeCell ref="B169:B183"/>
-    <mergeCell ref="C169:C183"/>
-    <mergeCell ref="Q169:Q183"/>
-    <mergeCell ref="B214:B228"/>
-    <mergeCell ref="C214:C228"/>
-    <mergeCell ref="Q214:Q228"/>
-    <mergeCell ref="B229:B243"/>
-    <mergeCell ref="C229:C243"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A33"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="Q4:Q18"/>
-    <mergeCell ref="R4:R93"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="C19:C33"/>
-    <mergeCell ref="Q19:Q33"/>
-    <mergeCell ref="A34:A123"/>
-    <mergeCell ref="B34:B48"/>
-    <mergeCell ref="C34:C48"/>
-    <mergeCell ref="Q34:Q48"/>
-    <mergeCell ref="B49:B63"/>
-    <mergeCell ref="C49:C63"/>
-    <mergeCell ref="Q49:Q63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="C64:C78"/>
-    <mergeCell ref="Q64:Q78"/>
-    <mergeCell ref="B79:B93"/>
-    <mergeCell ref="C79:C93"/>
+    <mergeCell ref="Q229:Q243"/>
+    <mergeCell ref="B244:B258"/>
+    <mergeCell ref="C244:C258"/>
+    <mergeCell ref="Q244:Q258"/>
+    <mergeCell ref="B259:B273"/>
+    <mergeCell ref="C259:C273"/>
+    <mergeCell ref="Q259:Q273"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J276">
-    <cfRule type="expression" dxfId="33" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G258">
-    <cfRule type="expression" dxfId="32" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H276">
-    <cfRule type="expression" dxfId="30" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N266 N4:Q265">
-    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>N4="FM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274:R276">
-    <cfRule type="expression" dxfId="26" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>R274="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>R274="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N266 N4:Q265">
-    <cfRule type="expression" dxfId="24" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>N4="DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N266 N4:Q265">
-    <cfRule type="expression" dxfId="23" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>N4="PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N266 N4:Q265">
-    <cfRule type="expression" dxfId="22" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>N4="LM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R273">
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="18" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D273">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G259:G273">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>G259="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>G259="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11402,16 +11313,17 @@
     <hyperlink ref="E156" r:id="rId34"/>
     <hyperlink ref="E157" r:id="rId35"/>
     <hyperlink ref="E158" r:id="rId36"/>
-    <hyperlink ref="E172" r:id="rId37" display="ORG_BOTOPO"/>
-    <hyperlink ref="E169" r:id="rId38"/>
-    <hyperlink ref="E170" r:id="rId39"/>
-    <hyperlink ref="E185" r:id="rId40"/>
-    <hyperlink ref="E184" r:id="rId41"/>
-    <hyperlink ref="E186" r:id="rId42"/>
-    <hyperlink ref="E201" r:id="rId43"/>
+    <hyperlink ref="E185" r:id="rId37"/>
+    <hyperlink ref="E184" r:id="rId38"/>
+    <hyperlink ref="E186" r:id="rId39"/>
+    <hyperlink ref="E201" r:id="rId40"/>
+    <hyperlink ref="E173" r:id="rId41" display="ORG_Einframe_Project_Report"/>
+    <hyperlink ref="E170" r:id="rId42" display="ORG_PQA_Reports"/>
+    <hyperlink ref="E171" r:id="rId43" display="ORG_MBR"/>
+    <hyperlink ref="E169" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;P&amp;R&amp;A</oddHeader>
   </headerFooter>
